--- a/results/SupTable1.xlsx
+++ b/results/SupTable1.xlsx
@@ -1326,13 +1326,13 @@
         <v>156</v>
       </c>
       <c r="F2">
-        <v>59.5959595959596</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G2">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H2">
-        <v>99</v>
+        <v>1327</v>
       </c>
       <c r="I2" t="s">
         <v>291</v>
@@ -1358,13 +1358,13 @@
         <v>157</v>
       </c>
       <c r="F3">
-        <v>62.6262626262626</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G3">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H3">
-        <v>99</v>
+        <v>783</v>
       </c>
       <c r="I3" t="s">
         <v>291</v>
@@ -1387,13 +1387,13 @@
         <v>158</v>
       </c>
       <c r="F4">
-        <v>37.1134020618557</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G4">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H4">
-        <v>97</v>
+        <v>1345</v>
       </c>
       <c r="I4" t="s">
         <v>291</v>
@@ -1416,13 +1416,13 @@
         <v>159</v>
       </c>
       <c r="F5">
-        <v>75.609756097561</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G5">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="I5" t="s">
         <v>291</v>
@@ -1448,13 +1448,13 @@
         <v>160</v>
       </c>
       <c r="F6">
-        <v>75.7575757575758</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G6">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H6">
-        <v>99</v>
+        <v>1351</v>
       </c>
       <c r="I6" t="s">
         <v>291</v>
@@ -1477,13 +1477,13 @@
         <v>161</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.227100681302044</v>
       </c>
       <c r="G7">
-        <v>1.72703741247511</v>
+        <v>2.40986670796441</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>1321</v>
       </c>
       <c r="I7" t="s">
         <v>291</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.09811617058262</v>
+        <v>2.85909031283905</v>
       </c>
       <c r="H8">
-        <v>99</v>
+        <v>1326</v>
       </c>
       <c r="I8" t="s">
         <v>291</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.62951278638399</v>
+        <v>3.84011546849227</v>
       </c>
       <c r="H9">
-        <v>99</v>
+        <v>18099</v>
       </c>
       <c r="I9" t="s">
         <v>292</v>
@@ -1573,13 +1573,13 @@
         <v>164</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.035962598897147</v>
       </c>
       <c r="G10">
-        <v>1.75148825497924</v>
+        <v>2.28174497384023</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>16684</v>
       </c>
       <c r="I10" t="s">
         <v>292</v>
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.32581360258754</v>
+        <v>3.93617695069883</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>5801</v>
       </c>
       <c r="I11" t="s">
         <v>293</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.78399208714468</v>
+        <v>3.9572293082874</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>5822</v>
       </c>
       <c r="I12" t="s">
         <v>293</v>
@@ -1669,13 +1669,13 @@
         <v>167</v>
       </c>
       <c r="F13">
-        <v>85.7142857142857</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G13">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H13">
-        <v>91</v>
+        <v>386</v>
       </c>
       <c r="I13" t="s">
         <v>291</v>
@@ -1701,13 +1701,13 @@
         <v>168</v>
       </c>
       <c r="F14">
-        <v>83</v>
+        <v>59.2883388126088</v>
       </c>
       <c r="G14">
-        <v>1.41367389862828</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>25855</v>
       </c>
       <c r="I14" t="s">
         <v>294</v>
@@ -1730,13 +1730,13 @@
         <v>169</v>
       </c>
       <c r="F15">
-        <v>83.75</v>
+        <v>86.5424430641822</v>
       </c>
       <c r="G15">
-        <v>2.96136450659265</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="I15" t="s">
         <v>291</v>
@@ -1759,13 +1759,13 @@
         <v>170</v>
       </c>
       <c r="F16">
-        <v>89</v>
+        <v>97.1139971139971</v>
       </c>
       <c r="G16">
-        <v>0.832904561192996</v>
+        <v>0.392901631328193</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>1386</v>
       </c>
       <c r="I16" t="s">
         <v>291</v>
@@ -1791,13 +1791,13 @@
         <v>171</v>
       </c>
       <c r="F17">
-        <v>81</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G17">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>14467</v>
       </c>
       <c r="I17" t="s">
         <v>292</v>
@@ -1820,13 +1820,13 @@
         <v>172</v>
       </c>
       <c r="F18">
-        <v>84.6938775510204</v>
+        <v>62.5261753423642</v>
       </c>
       <c r="G18">
-        <v>2.11572875064339</v>
+        <v>3.47312087356067</v>
       </c>
       <c r="H18">
-        <v>98</v>
+        <v>53963</v>
       </c>
       <c r="I18" t="s">
         <v>292</v>
@@ -1852,13 +1852,13 @@
         <v>173</v>
       </c>
       <c r="F19">
-        <v>42</v>
+        <v>55.0185873605948</v>
       </c>
       <c r="G19">
-        <v>3.25386911001226</v>
+        <v>3.88955388634754</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>9684</v>
       </c>
       <c r="I19" t="s">
         <v>292</v>
@@ -1884,13 +1884,13 @@
         <v>174</v>
       </c>
       <c r="F20">
-        <v>63</v>
+        <v>72.9842446709917</v>
       </c>
       <c r="G20">
-        <v>1.46343998874787</v>
+        <v>2.35872624395286</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>6474</v>
       </c>
       <c r="I20" t="s">
         <v>292</v>
@@ -1913,13 +1913,13 @@
         <v>175</v>
       </c>
       <c r="F21">
-        <v>94.8453608247423</v>
+        <v>79.4725478099938</v>
       </c>
       <c r="G21">
-        <v>0.781188403078017</v>
+        <v>2.02289446764389</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>6484</v>
       </c>
       <c r="I21" t="s">
         <v>292</v>
@@ -1945,13 +1945,13 @@
         <v>176</v>
       </c>
       <c r="F22">
-        <v>92</v>
+        <v>74.7119771128122</v>
       </c>
       <c r="G22">
-        <v>2.45091598719725</v>
+        <v>4.46329462909989</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>25866</v>
       </c>
       <c r="I22" t="s">
         <v>294</v>
@@ -1974,13 +1974,13 @@
         <v>159</v>
       </c>
       <c r="F23">
-        <v>75.609756097561</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G23">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H23">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="I23" t="s">
         <v>291</v>
@@ -2006,13 +2006,13 @@
         <v>160</v>
       </c>
       <c r="F24">
-        <v>75.7575757575758</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G24">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H24">
-        <v>99</v>
+        <v>1351</v>
       </c>
       <c r="I24" t="s">
         <v>291</v>
@@ -2035,13 +2035,13 @@
         <v>177</v>
       </c>
       <c r="F25">
-        <v>28.5714285714286</v>
+        <v>28.8372093023256</v>
       </c>
       <c r="G25">
-        <v>4.38725542509089</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="I25" t="s">
         <v>291</v>
@@ -2064,13 +2064,13 @@
         <v>178</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G26">
-        <v>0.574630315180638</v>
+        <v>1.701342905986</v>
       </c>
       <c r="H26">
-        <v>99</v>
+        <v>1332</v>
       </c>
       <c r="I26" t="s">
         <v>291</v>
@@ -2093,13 +2093,13 @@
         <v>179</v>
       </c>
       <c r="F27">
-        <v>79.746835443038</v>
+        <v>66.2817551963048</v>
       </c>
       <c r="G27">
-        <v>4.3926226587326</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="H27">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="I27" t="s">
         <v>291</v>
@@ -2122,13 +2122,13 @@
         <v>180</v>
       </c>
       <c r="F28">
-        <v>50.6329113924051</v>
+        <v>40.4710920770878</v>
       </c>
       <c r="G28">
-        <v>3.64151778468161</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="H28">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="I28" t="s">
         <v>291</v>
@@ -2151,13 +2151,13 @@
         <v>181</v>
       </c>
       <c r="F29">
-        <v>63.6363636363636</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G29">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H29">
-        <v>99</v>
+        <v>794</v>
       </c>
       <c r="I29" t="s">
         <v>291</v>
@@ -2180,13 +2180,13 @@
         <v>182</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3.48583877995643</v>
       </c>
       <c r="G30">
-        <v>4.57474331406078</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>1377</v>
       </c>
       <c r="I30" t="s">
         <v>291</v>
@@ -2209,13 +2209,13 @@
         <v>183</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5.7204923968139</v>
       </c>
       <c r="G31">
-        <v>3.35421192792486</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I31" t="s">
         <v>291</v>
@@ -2238,13 +2238,13 @@
         <v>184</v>
       </c>
       <c r="F32">
-        <v>73</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G32">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>1386</v>
       </c>
       <c r="I32" t="s">
         <v>291</v>
@@ -2267,13 +2267,13 @@
         <v>185</v>
       </c>
       <c r="F33">
-        <v>10.3092783505155</v>
+        <v>14.8286140089419</v>
       </c>
       <c r="G33">
-        <v>2.91568435605371</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>1342</v>
       </c>
       <c r="I33" t="s">
         <v>291</v>
@@ -2296,13 +2296,13 @@
         <v>186</v>
       </c>
       <c r="F34">
-        <v>26</v>
+        <v>31.6104868913858</v>
       </c>
       <c r="G34">
-        <v>3.88569996742263</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>1335</v>
       </c>
       <c r="I34" t="s">
         <v>291</v>
@@ -2325,13 +2325,13 @@
         <v>187</v>
       </c>
       <c r="F35">
-        <v>92.8571428571429</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G35">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H35">
-        <v>98</v>
+        <v>1319</v>
       </c>
       <c r="I35" t="s">
         <v>291</v>
@@ -2354,13 +2354,13 @@
         <v>188</v>
       </c>
       <c r="F36">
-        <v>92.4731182795699</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G36">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H36">
-        <v>93</v>
+        <v>1321</v>
       </c>
       <c r="I36" t="s">
         <v>291</v>
@@ -2383,13 +2383,13 @@
         <v>189</v>
       </c>
       <c r="F37">
-        <v>98.989898989899</v>
+        <v>96.1148648648649</v>
       </c>
       <c r="G37">
-        <v>0.161440542541821</v>
+        <v>0.597196805495579</v>
       </c>
       <c r="H37">
-        <v>99</v>
+        <v>1184</v>
       </c>
       <c r="I37" t="s">
         <v>291</v>
@@ -2412,13 +2412,13 @@
         <v>190</v>
       </c>
       <c r="F38">
-        <v>91.9191919191919</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G38">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H38">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="I38" t="s">
         <v>291</v>
@@ -2441,13 +2441,13 @@
         <v>191</v>
       </c>
       <c r="F39">
-        <v>43.8775510204082</v>
+        <v>45.3503184713376</v>
       </c>
       <c r="G39">
-        <v>3.77709698337163</v>
+        <v>4.57742836429659</v>
       </c>
       <c r="H39">
-        <v>98</v>
+        <v>785</v>
       </c>
       <c r="I39" t="s">
         <v>291</v>
@@ -2470,13 +2470,13 @@
         <v>192</v>
       </c>
       <c r="F40">
-        <v>23.469387755102</v>
+        <v>22.5190839694656</v>
       </c>
       <c r="G40">
-        <v>4.29944823457962</v>
+        <v>5.24062805296641</v>
       </c>
       <c r="H40">
-        <v>98</v>
+        <v>786</v>
       </c>
       <c r="I40" t="s">
         <v>291</v>
@@ -2499,13 +2499,13 @@
         <v>193</v>
       </c>
       <c r="F41">
-        <v>71.4285714285714</v>
+        <v>63.0865484880083</v>
       </c>
       <c r="G41">
-        <v>2.85161796685751</v>
+        <v>3.92337309848527</v>
       </c>
       <c r="H41">
-        <v>98</v>
+        <v>959</v>
       </c>
       <c r="I41" t="s">
         <v>291</v>
@@ -2528,13 +2528,13 @@
         <v>194</v>
       </c>
       <c r="F42">
-        <v>63.6363636363636</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G42">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H42">
-        <v>99</v>
+        <v>794</v>
       </c>
       <c r="I42" t="s">
         <v>291</v>
@@ -2557,13 +2557,13 @@
         <v>195</v>
       </c>
       <c r="F43">
-        <v>71</v>
+        <v>62.7753303964758</v>
       </c>
       <c r="G43">
-        <v>2.96808949947512</v>
+        <v>4.37385317057862</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>908</v>
       </c>
       <c r="I43" t="s">
         <v>291</v>
@@ -2586,13 +2586,13 @@
         <v>196</v>
       </c>
       <c r="F44">
-        <v>80.4347826086957</v>
+        <v>69.4672131147541</v>
       </c>
       <c r="G44">
-        <v>3.22124061559695</v>
+        <v>4.14157489871247</v>
       </c>
       <c r="H44">
-        <v>92</v>
+        <v>976</v>
       </c>
       <c r="I44" t="s">
         <v>291</v>
@@ -2615,13 +2615,13 @@
         <v>197</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.79776179056755</v>
       </c>
       <c r="G45">
-        <v>4.11547152389298</v>
+        <v>5.68106698847909</v>
       </c>
       <c r="H45">
-        <v>95</v>
+        <v>1251</v>
       </c>
       <c r="I45" t="s">
         <v>291</v>
@@ -2644,13 +2644,13 @@
         <v>198</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.35463258785942</v>
       </c>
       <c r="G46">
-        <v>4.16858967204679</v>
+        <v>6.18484081253769</v>
       </c>
       <c r="H46">
-        <v>97</v>
+        <v>1252</v>
       </c>
       <c r="I46" t="s">
         <v>291</v>
@@ -2673,13 +2673,13 @@
         <v>199</v>
       </c>
       <c r="F47">
-        <v>23</v>
+        <v>20.8944281524927</v>
       </c>
       <c r="G47">
-        <v>3.61085394031325</v>
+        <v>4.8697879664293</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>1364</v>
       </c>
       <c r="I47" t="s">
         <v>291</v>
@@ -2702,13 +2702,13 @@
         <v>200</v>
       </c>
       <c r="F48">
-        <v>51</v>
+        <v>51.6363636363636</v>
       </c>
       <c r="G48">
-        <v>3.5714352439539</v>
+        <v>5.68356546928615</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>1375</v>
       </c>
       <c r="I48" t="s">
         <v>291</v>
@@ -2731,13 +2731,13 @@
         <v>201</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.69679300291545</v>
       </c>
       <c r="G49">
-        <v>4.30603566002801</v>
+        <v>5.88921427859597</v>
       </c>
       <c r="H49">
-        <v>99</v>
+        <v>1372</v>
       </c>
       <c r="I49" t="s">
         <v>291</v>
@@ -2763,13 +2763,13 @@
         <v>202</v>
       </c>
       <c r="F50">
-        <v>68.0412371134021</v>
+        <v>56.6495224099926</v>
       </c>
       <c r="G50">
-        <v>2.09155687497472</v>
+        <v>3.93361586002584</v>
       </c>
       <c r="H50">
-        <v>97</v>
+        <v>1361</v>
       </c>
       <c r="I50" t="s">
         <v>291</v>
@@ -2792,13 +2792,13 @@
         <v>203</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.447093889716841</v>
       </c>
       <c r="G51">
-        <v>0.839556365373903</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H51">
-        <v>98</v>
+        <v>1342</v>
       </c>
       <c r="I51" t="s">
         <v>291</v>
@@ -2821,13 +2821,13 @@
         <v>204</v>
       </c>
       <c r="F52">
-        <v>89.7959183673469</v>
+        <v>85.3787878787879</v>
       </c>
       <c r="G52">
-        <v>1.93234589040767</v>
+        <v>3.0777750939932</v>
       </c>
       <c r="H52">
-        <v>98</v>
+        <v>1320</v>
       </c>
       <c r="I52" t="s">
         <v>291</v>
@@ -2850,13 +2850,13 @@
         <v>205</v>
       </c>
       <c r="F53">
-        <v>91.8367346938776</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G53">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H53">
-        <v>98</v>
+        <v>1341</v>
       </c>
       <c r="I53" t="s">
         <v>291</v>
@@ -2879,13 +2879,13 @@
         <v>206</v>
       </c>
       <c r="F54">
-        <v>91.8367346938776</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G54">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H54">
-        <v>98</v>
+        <v>1341</v>
       </c>
       <c r="I54" t="s">
         <v>291</v>
@@ -2908,13 +2908,13 @@
         <v>207</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.149142431021626</v>
       </c>
       <c r="G55">
-        <v>0.839556365373903</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H55">
-        <v>98</v>
+        <v>1341</v>
       </c>
       <c r="I55" t="s">
         <v>291</v>
@@ -2937,13 +2937,13 @@
         <v>208</v>
       </c>
       <c r="F56">
-        <v>92.8571428571429</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G56">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H56">
-        <v>98</v>
+        <v>1319</v>
       </c>
       <c r="I56" t="s">
         <v>291</v>
@@ -2966,13 +2966,13 @@
         <v>209</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G57">
-        <v>1.8641497599239</v>
+        <v>3.21096109494894</v>
       </c>
       <c r="H57">
-        <v>98</v>
+        <v>1332</v>
       </c>
       <c r="I57" t="s">
         <v>291</v>
@@ -2995,13 +2995,13 @@
         <v>210</v>
       </c>
       <c r="F58">
-        <v>97.8494623655914</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G58">
-        <v>0.99977748931331</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H58">
-        <v>93</v>
+        <v>1304</v>
       </c>
       <c r="I58" t="s">
         <v>291</v>
@@ -3024,13 +3024,13 @@
         <v>211</v>
       </c>
       <c r="F59">
-        <v>92.4731182795699</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G59">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H59">
-        <v>93</v>
+        <v>1321</v>
       </c>
       <c r="I59" t="s">
         <v>291</v>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2.14914097322882</v>
+        <v>4.3307332875547</v>
       </c>
       <c r="H60">
-        <v>95</v>
+        <v>1329</v>
       </c>
       <c r="I60" t="s">
         <v>291</v>
@@ -3082,13 +3082,13 @@
         <v>213</v>
       </c>
       <c r="F61">
-        <v>85.7142857142857</v>
+        <v>62.5994694960212</v>
       </c>
       <c r="G61">
-        <v>3.18711682690503</v>
+        <v>3.79020057310525</v>
       </c>
       <c r="H61">
-        <v>91</v>
+        <v>377</v>
       </c>
       <c r="I61" t="s">
         <v>291</v>
@@ -3111,13 +3111,13 @@
         <v>214</v>
       </c>
       <c r="F62">
-        <v>28.2051282051282</v>
+        <v>28.5714285714286</v>
       </c>
       <c r="G62">
-        <v>4.35752490868933</v>
+        <v>4.28905468307688</v>
       </c>
       <c r="H62">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="I62" t="s">
         <v>291</v>
@@ -3140,13 +3140,13 @@
         <v>215</v>
       </c>
       <c r="F63">
-        <v>91.25</v>
+        <v>89.7654584221748</v>
       </c>
       <c r="G63">
-        <v>2.87550230895619</v>
+        <v>2.82799410341281</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="I63" t="s">
         <v>291</v>
@@ -3169,13 +3169,13 @@
         <v>216</v>
       </c>
       <c r="F64">
-        <v>83.75</v>
+        <v>86.5424430641822</v>
       </c>
       <c r="G64">
-        <v>2.96136450659265</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="H64">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="I64" t="s">
         <v>291</v>
@@ -3198,13 +3198,13 @@
         <v>217</v>
       </c>
       <c r="F65">
-        <v>76.8292682926829</v>
+        <v>70.4918032786885</v>
       </c>
       <c r="G65">
-        <v>2.83993530776983</v>
+        <v>2.62871100998389</v>
       </c>
       <c r="H65">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="I65" t="s">
         <v>291</v>
@@ -3227,13 +3227,13 @@
         <v>167</v>
       </c>
       <c r="F66">
-        <v>85.7142857142857</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G66">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H66">
-        <v>91</v>
+        <v>386</v>
       </c>
       <c r="I66" t="s">
         <v>291</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H67">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="I67" t="s">
         <v>291</v>
@@ -3291,13 +3291,13 @@
         <v>219</v>
       </c>
       <c r="F68">
-        <v>63.6363636363636</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G68">
-        <v>4.17302838105533</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H68">
-        <v>99</v>
+        <v>801</v>
       </c>
       <c r="I68" t="s">
         <v>291</v>
@@ -3323,13 +3323,13 @@
         <v>220</v>
       </c>
       <c r="F69">
-        <v>92.8571428571429</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G69">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H69">
-        <v>98</v>
+        <v>1319</v>
       </c>
       <c r="I69" t="s">
         <v>291</v>
@@ -3352,13 +3352,13 @@
         <v>221</v>
       </c>
       <c r="F70">
-        <v>75.7575757575758</v>
+        <v>67.9021497405486</v>
       </c>
       <c r="G70">
-        <v>2.56407135330461</v>
+        <v>4.18899116697892</v>
       </c>
       <c r="H70">
-        <v>99</v>
+        <v>1349</v>
       </c>
       <c r="I70" t="s">
         <v>291</v>
@@ -3381,13 +3381,13 @@
         <v>222</v>
       </c>
       <c r="F71">
-        <v>63.6363636363636</v>
+        <v>72.108843537415</v>
       </c>
       <c r="G71">
-        <v>2.50504452683873</v>
+        <v>3.2988062868948</v>
       </c>
       <c r="H71">
-        <v>99</v>
+        <v>1323</v>
       </c>
       <c r="I71" t="s">
         <v>291</v>
@@ -3413,13 +3413,13 @@
         <v>190</v>
       </c>
       <c r="F72">
-        <v>91.9191919191919</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G72">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H72">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="I72" t="s">
         <v>291</v>
@@ -3442,13 +3442,13 @@
         <v>167</v>
       </c>
       <c r="F73">
-        <v>85.7142857142857</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G73">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H73">
-        <v>91</v>
+        <v>386</v>
       </c>
       <c r="I73" t="s">
         <v>291</v>
@@ -3474,13 +3474,13 @@
         <v>223</v>
       </c>
       <c r="F74">
-        <v>59.5959595959596</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G74">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H74">
-        <v>99</v>
+        <v>1327</v>
       </c>
       <c r="I74" t="s">
         <v>291</v>
@@ -3503,13 +3503,13 @@
         <v>224</v>
       </c>
       <c r="F75">
-        <v>91.9191919191919</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G75">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H75">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="I75" t="s">
         <v>291</v>
@@ -3532,13 +3532,13 @@
         <v>225</v>
       </c>
       <c r="F76">
-        <v>45</v>
+        <v>45.7943925233645</v>
       </c>
       <c r="G76">
-        <v>2.87394225565193</v>
+        <v>3.96036636906972</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="I76" t="s">
         <v>291</v>
@@ -3561,13 +3561,13 @@
         <v>226</v>
       </c>
       <c r="F77">
-        <v>74.1573033707865</v>
+        <v>71.5789473684211</v>
       </c>
       <c r="G77">
-        <v>2.64736338405209</v>
+        <v>2.93200291828835</v>
       </c>
       <c r="H77">
-        <v>89</v>
+        <v>570</v>
       </c>
       <c r="I77" t="s">
         <v>291</v>
@@ -3590,13 +3590,13 @@
         <v>227</v>
       </c>
       <c r="F78">
-        <v>72</v>
+        <v>63.0836047774158</v>
       </c>
       <c r="G78">
-        <v>2.92460434401915</v>
+        <v>4.36426268842462</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>921</v>
       </c>
       <c r="I78" t="s">
         <v>291</v>
@@ -3619,13 +3619,13 @@
         <v>228</v>
       </c>
       <c r="F79">
-        <v>73</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G79">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>1386</v>
       </c>
       <c r="I79" t="s">
         <v>291</v>
@@ -3648,13 +3648,13 @@
         <v>229</v>
       </c>
       <c r="F80">
-        <v>29</v>
+        <v>16.3173652694611</v>
       </c>
       <c r="G80">
-        <v>3.77795539887046</v>
+        <v>5.02576326773487</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>1336</v>
       </c>
       <c r="I80" t="s">
         <v>291</v>
@@ -3677,13 +3677,13 @@
         <v>230</v>
       </c>
       <c r="F81">
-        <v>91.8367346938776</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G81">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H81">
-        <v>98</v>
+        <v>1341</v>
       </c>
       <c r="I81" t="s">
         <v>291</v>
@@ -3706,13 +3706,13 @@
         <v>231</v>
       </c>
       <c r="F82">
-        <v>92.4731182795699</v>
+        <v>82.4961948249619</v>
       </c>
       <c r="G82">
-        <v>0.957268500730921</v>
+        <v>2.13840092526582</v>
       </c>
       <c r="H82">
-        <v>93</v>
+        <v>1314</v>
       </c>
       <c r="I82" t="s">
         <v>291</v>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1.24175447165502</v>
+        <v>2.86020466792871</v>
       </c>
       <c r="H83">
-        <v>99</v>
+        <v>1358</v>
       </c>
       <c r="I83" t="s">
         <v>291</v>
@@ -3764,13 +3764,13 @@
         <v>233</v>
       </c>
       <c r="F84">
-        <v>69.4736842105263</v>
+        <v>57.2</v>
       </c>
       <c r="G84">
-        <v>2.23759127386008</v>
+        <v>3.59764397297095</v>
       </c>
       <c r="H84">
-        <v>95</v>
+        <v>1250</v>
       </c>
       <c r="I84" t="s">
         <v>291</v>
@@ -3793,13 +3793,13 @@
         <v>234</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>7.05398680082224</v>
       </c>
       <c r="G85">
-        <v>4.24276208342498</v>
+        <v>8.78588081129575</v>
       </c>
       <c r="H85">
-        <v>100</v>
+        <v>27729</v>
       </c>
       <c r="I85" t="s">
         <v>295</v>
@@ -3825,13 +3825,13 @@
         <v>235</v>
       </c>
       <c r="F86">
-        <v>91</v>
+        <v>90.8331223094454</v>
       </c>
       <c r="G86">
-        <v>0.941172095986552</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>27643</v>
       </c>
       <c r="I86" t="s">
         <v>295</v>
@@ -3854,13 +3854,13 @@
         <v>236</v>
       </c>
       <c r="F87">
-        <v>54</v>
+        <v>81.6615556175077</v>
       </c>
       <c r="G87">
-        <v>1.58095429422159</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>17935</v>
       </c>
       <c r="I87" t="s">
         <v>292</v>
@@ -3883,13 +3883,13 @@
         <v>237</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1.78214523650899</v>
       </c>
       <c r="G88">
-        <v>2.56927510131555</v>
+        <v>6.65687768109007</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>6004</v>
       </c>
       <c r="I88" t="s">
         <v>292</v>
@@ -3915,13 +3915,13 @@
         <v>171</v>
       </c>
       <c r="F89">
-        <v>81</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G89">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>14467</v>
       </c>
       <c r="I89" t="s">
         <v>292</v>
@@ -3944,13 +3944,13 @@
         <v>238</v>
       </c>
       <c r="F90">
-        <v>73.4939759036145</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="G90">
-        <v>3.03149709804776</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="H90">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I90" t="s">
         <v>291</v>
@@ -3976,13 +3976,13 @@
         <v>239</v>
       </c>
       <c r="F91">
-        <v>71</v>
+        <v>62.8289473684211</v>
       </c>
       <c r="G91">
-        <v>2.99644575426893</v>
+        <v>4.38155666293078</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>912</v>
       </c>
       <c r="I91" t="s">
         <v>291</v>
@@ -4008,13 +4008,13 @@
         <v>240</v>
       </c>
       <c r="F92">
-        <v>35.3535353535354</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G92">
-        <v>4.32159351100563</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H92">
-        <v>99</v>
+        <v>1380</v>
       </c>
       <c r="I92" t="s">
         <v>291</v>
@@ -4040,13 +4040,13 @@
         <v>241</v>
       </c>
       <c r="F93">
-        <v>43</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G93">
-        <v>3.29421192792486</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I93" t="s">
         <v>291</v>
@@ -4072,13 +4072,13 @@
         <v>241</v>
       </c>
       <c r="F94">
-        <v>43</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G94">
-        <v>3.29421192792486</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H94">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I94" t="s">
         <v>291</v>
@@ -4104,13 +4104,13 @@
         <v>242</v>
       </c>
       <c r="F95">
-        <v>48</v>
+        <v>27.7213352685051</v>
       </c>
       <c r="G95">
-        <v>3.06214044633627</v>
+        <v>5.68995408300113</v>
       </c>
       <c r="H95">
-        <v>100</v>
+        <v>1378</v>
       </c>
       <c r="I95" t="s">
         <v>291</v>
@@ -4133,13 +4133,13 @@
         <v>220</v>
       </c>
       <c r="F96">
-        <v>92.8571428571429</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G96">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H96">
-        <v>98</v>
+        <v>1319</v>
       </c>
       <c r="I96" t="s">
         <v>291</v>
@@ -4162,13 +4162,13 @@
         <v>243</v>
       </c>
       <c r="F97">
-        <v>93.9393939393939</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G97">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H97">
-        <v>99</v>
+        <v>1334</v>
       </c>
       <c r="I97" t="s">
         <v>291</v>
@@ -4191,13 +4191,13 @@
         <v>244</v>
       </c>
       <c r="F98">
-        <v>86</v>
+        <v>58.5034013605442</v>
       </c>
       <c r="G98">
-        <v>1.64846969903622</v>
+        <v>4.83247190089833</v>
       </c>
       <c r="H98">
-        <v>100</v>
+        <v>5880</v>
       </c>
       <c r="I98" t="s">
         <v>296</v>
@@ -4220,13 +4220,13 @@
         <v>245</v>
       </c>
       <c r="F99">
-        <v>86</v>
+        <v>76.3893207765093</v>
       </c>
       <c r="G99">
-        <v>1.0982131498962</v>
+        <v>2.20598040702089</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>45022</v>
       </c>
       <c r="I99" t="s">
         <v>292</v>
@@ -4249,13 +4249,13 @@
         <v>246</v>
       </c>
       <c r="F100">
-        <v>41</v>
+        <v>21.9867430220499</v>
       </c>
       <c r="G100">
-        <v>2.70667767436754</v>
+        <v>5.04730808303746</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>22177</v>
       </c>
       <c r="I100" t="s">
         <v>292</v>
@@ -4278,13 +4278,13 @@
         <v>247</v>
       </c>
       <c r="F101">
-        <v>59</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G101">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H101">
-        <v>100</v>
+        <v>4050</v>
       </c>
       <c r="I101" t="s">
         <v>292</v>
@@ -4307,13 +4307,13 @@
         <v>248</v>
       </c>
       <c r="F102">
-        <v>79.7979797979798</v>
+        <v>73.0409885473177</v>
       </c>
       <c r="G102">
-        <v>1.97846966783352</v>
+        <v>2.80205958033291</v>
       </c>
       <c r="H102">
-        <v>99</v>
+        <v>6636</v>
       </c>
       <c r="I102" t="s">
         <v>292</v>
@@ -4336,13 +4336,13 @@
         <v>249</v>
       </c>
       <c r="F103">
-        <v>93</v>
+        <v>85.3286816011752</v>
       </c>
       <c r="G103">
-        <v>1.24502458673514</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="H103">
-        <v>100</v>
+        <v>5446</v>
       </c>
       <c r="I103" t="s">
         <v>297</v>
@@ -4368,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>2.80743190745793</v>
+        <v>6.93185922183479</v>
       </c>
       <c r="H104">
-        <v>100</v>
+        <v>4915</v>
       </c>
       <c r="I104" t="s">
         <v>298</v>
@@ -4394,13 +4394,13 @@
         <v>157</v>
       </c>
       <c r="F105">
-        <v>62.6262626262626</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G105">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H105">
-        <v>99</v>
+        <v>783</v>
       </c>
       <c r="I105" t="s">
         <v>291</v>
@@ -4423,13 +4423,13 @@
         <v>158</v>
       </c>
       <c r="F106">
-        <v>37.1134020618557</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G106">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H106">
-        <v>97</v>
+        <v>1345</v>
       </c>
       <c r="I106" t="s">
         <v>291</v>
@@ -4452,13 +4452,13 @@
         <v>251</v>
       </c>
       <c r="F107">
-        <v>71</v>
+        <v>68.5109699076849</v>
       </c>
       <c r="G107">
-        <v>1.55170500674649</v>
+        <v>2.4702253659487</v>
       </c>
       <c r="H107">
-        <v>100</v>
+        <v>16682</v>
       </c>
       <c r="I107" t="s">
         <v>292</v>
@@ -4484,13 +4484,13 @@
         <v>252</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>26.0137538534503</v>
       </c>
       <c r="G108">
-        <v>1.48147885771627</v>
+        <v>4.63821755315855</v>
       </c>
       <c r="H108">
-        <v>100</v>
+        <v>8434</v>
       </c>
       <c r="I108" t="s">
         <v>292</v>
@@ -4513,13 +4513,13 @@
         <v>253</v>
       </c>
       <c r="F109">
-        <v>65</v>
+        <v>67.0113244707041</v>
       </c>
       <c r="G109">
-        <v>2.30321415549641</v>
+        <v>2.90268267669181</v>
       </c>
       <c r="H109">
-        <v>100</v>
+        <v>2031</v>
       </c>
       <c r="I109" t="s">
         <v>292</v>
@@ -4542,13 +4542,13 @@
         <v>254</v>
       </c>
       <c r="F110">
-        <v>16.1616161616162</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G110">
-        <v>3.9043367109321</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H110">
-        <v>99</v>
+        <v>16367</v>
       </c>
       <c r="I110" t="s">
         <v>292</v>
@@ -4571,13 +4571,13 @@
         <v>157</v>
       </c>
       <c r="F111">
-        <v>62.6262626262626</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G111">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H111">
-        <v>99</v>
+        <v>783</v>
       </c>
       <c r="I111" t="s">
         <v>291</v>
@@ -4600,13 +4600,13 @@
         <v>158</v>
       </c>
       <c r="F112">
-        <v>37.1134020618557</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G112">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H112">
-        <v>97</v>
+        <v>1345</v>
       </c>
       <c r="I112" t="s">
         <v>291</v>
@@ -4629,13 +4629,13 @@
         <v>159</v>
       </c>
       <c r="F113">
-        <v>75.609756097561</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G113">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H113">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="I113" t="s">
         <v>291</v>
@@ -4661,13 +4661,13 @@
         <v>160</v>
       </c>
       <c r="F114">
-        <v>75.7575757575758</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G114">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H114">
-        <v>99</v>
+        <v>1351</v>
       </c>
       <c r="I114" t="s">
         <v>291</v>
@@ -4690,13 +4690,13 @@
         <v>177</v>
       </c>
       <c r="F115">
-        <v>28.5714285714286</v>
+        <v>28.8372093023256</v>
       </c>
       <c r="G115">
-        <v>4.38725542509089</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="H115">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="I115" t="s">
         <v>291</v>
@@ -4719,13 +4719,13 @@
         <v>178</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G116">
-        <v>0.574630315180638</v>
+        <v>1.701342905986</v>
       </c>
       <c r="H116">
-        <v>99</v>
+        <v>1332</v>
       </c>
       <c r="I116" t="s">
         <v>291</v>
@@ -4748,13 +4748,13 @@
         <v>179</v>
       </c>
       <c r="F117">
-        <v>79.746835443038</v>
+        <v>66.2817551963048</v>
       </c>
       <c r="G117">
-        <v>4.3926226587326</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="H117">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="I117" t="s">
         <v>291</v>
@@ -4777,13 +4777,13 @@
         <v>180</v>
       </c>
       <c r="F118">
-        <v>50.6329113924051</v>
+        <v>40.4710920770878</v>
       </c>
       <c r="G118">
-        <v>3.64151778468161</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="H118">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="I118" t="s">
         <v>291</v>
@@ -4806,13 +4806,13 @@
         <v>181</v>
       </c>
       <c r="F119">
-        <v>63.6363636363636</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G119">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H119">
-        <v>99</v>
+        <v>794</v>
       </c>
       <c r="I119" t="s">
         <v>291</v>
@@ -4835,13 +4835,13 @@
         <v>182</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>3.48583877995643</v>
       </c>
       <c r="G120">
-        <v>4.57474331406078</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="H120">
-        <v>100</v>
+        <v>1377</v>
       </c>
       <c r="I120" t="s">
         <v>291</v>
@@ -4864,13 +4864,13 @@
         <v>183</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>5.7204923968139</v>
       </c>
       <c r="G121">
-        <v>3.35421192792486</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="H121">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I121" t="s">
         <v>291</v>
@@ -4893,13 +4893,13 @@
         <v>184</v>
       </c>
       <c r="F122">
-        <v>73</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G122">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H122">
-        <v>100</v>
+        <v>1386</v>
       </c>
       <c r="I122" t="s">
         <v>291</v>
@@ -4922,13 +4922,13 @@
         <v>185</v>
       </c>
       <c r="F123">
-        <v>10.3092783505155</v>
+        <v>14.8286140089419</v>
       </c>
       <c r="G123">
-        <v>2.91568435605371</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="H123">
-        <v>97</v>
+        <v>1342</v>
       </c>
       <c r="I123" t="s">
         <v>291</v>
@@ -4951,13 +4951,13 @@
         <v>186</v>
       </c>
       <c r="F124">
-        <v>26</v>
+        <v>31.6104868913858</v>
       </c>
       <c r="G124">
-        <v>3.88569996742263</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>1335</v>
       </c>
       <c r="I124" t="s">
         <v>291</v>
@@ -4980,13 +4980,13 @@
         <v>187</v>
       </c>
       <c r="F125">
-        <v>92.8571428571429</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G125">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H125">
-        <v>98</v>
+        <v>1319</v>
       </c>
       <c r="I125" t="s">
         <v>291</v>
@@ -5009,13 +5009,13 @@
         <v>188</v>
       </c>
       <c r="F126">
-        <v>92.4731182795699</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G126">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H126">
-        <v>93</v>
+        <v>1321</v>
       </c>
       <c r="I126" t="s">
         <v>291</v>
@@ -5038,13 +5038,13 @@
         <v>255</v>
       </c>
       <c r="F127">
-        <v>97.8494623655914</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G127">
-        <v>0.99977748931331</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H127">
-        <v>93</v>
+        <v>1304</v>
       </c>
       <c r="I127" t="s">
         <v>291</v>
@@ -5067,13 +5067,13 @@
         <v>256</v>
       </c>
       <c r="F128">
-        <v>77.7777777777778</v>
+        <v>74.2222222222222</v>
       </c>
       <c r="G128">
-        <v>1.61666788972057</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="H128">
-        <v>99</v>
+        <v>1350</v>
       </c>
       <c r="I128" t="s">
         <v>291</v>
@@ -5096,13 +5096,13 @@
         <v>257</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>2.48719824433065</v>
       </c>
       <c r="G129">
-        <v>3.31046829893867</v>
+        <v>4.61165908722239</v>
       </c>
       <c r="H129">
-        <v>100</v>
+        <v>1367</v>
       </c>
       <c r="I129" t="s">
         <v>291</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>4.39822846951675</v>
+        <v>6.6245118373683</v>
       </c>
       <c r="H130">
-        <v>99</v>
+        <v>1373</v>
       </c>
       <c r="I130" t="s">
         <v>291</v>
@@ -5160,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.756909740308999</v>
+        <v>4.62131369019485</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>6372</v>
       </c>
       <c r="I131" t="s">
         <v>292</v>
@@ -5186,13 +5186,13 @@
         <v>247</v>
       </c>
       <c r="F132">
-        <v>59</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G132">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>4050</v>
       </c>
       <c r="I132" t="s">
         <v>292</v>
@@ -5215,13 +5215,13 @@
         <v>260</v>
       </c>
       <c r="F133">
-        <v>3</v>
+        <v>15.5186861069214</v>
       </c>
       <c r="G133">
-        <v>4.26814373132616</v>
+        <v>7.27794197013716</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>5967</v>
       </c>
       <c r="I133" t="s">
         <v>295</v>
@@ -5247,13 +5247,13 @@
         <v>261</v>
       </c>
       <c r="F134">
-        <v>8</v>
+        <v>45.3404048057149</v>
       </c>
       <c r="G134">
-        <v>4.31411631649308</v>
+        <v>5.63915036449642</v>
       </c>
       <c r="H134">
-        <v>100</v>
+        <v>27717</v>
       </c>
       <c r="I134" t="s">
         <v>295</v>
@@ -5276,13 +5276,13 @@
         <v>262</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>7.26041788257266</v>
       </c>
       <c r="G135">
-        <v>3.3923585424752</v>
+        <v>8.24250514482661</v>
       </c>
       <c r="H135">
-        <v>100</v>
+        <v>34268</v>
       </c>
       <c r="I135" t="s">
         <v>295</v>
@@ -5305,13 +5305,13 @@
         <v>263</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2.11819989155973</v>
       </c>
       <c r="G136">
-        <v>4.9008718934921</v>
+        <v>10.1582510830201</v>
       </c>
       <c r="H136">
-        <v>100</v>
+        <v>27665</v>
       </c>
       <c r="I136" t="s">
         <v>295</v>
@@ -5337,13 +5337,13 @@
         <v>264</v>
       </c>
       <c r="F137">
-        <v>25</v>
+        <v>14.2831915707685</v>
       </c>
       <c r="G137">
-        <v>4.13637444864144</v>
+        <v>9.46445437412304</v>
       </c>
       <c r="H137">
-        <v>100</v>
+        <v>33977</v>
       </c>
       <c r="I137" t="s">
         <v>295</v>
@@ -5369,13 +5369,13 @@
         <v>265</v>
       </c>
       <c r="F138">
-        <v>37.1134020618557</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G138">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H138">
-        <v>97</v>
+        <v>1345</v>
       </c>
       <c r="I138" t="s">
         <v>291</v>
@@ -5398,13 +5398,13 @@
         <v>168</v>
       </c>
       <c r="F139">
-        <v>83</v>
+        <v>59.2755978639424</v>
       </c>
       <c r="G139">
-        <v>1.41367389862828</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H139">
-        <v>100</v>
+        <v>25842</v>
       </c>
       <c r="I139" t="s">
         <v>299</v>
@@ -5427,13 +5427,13 @@
         <v>266</v>
       </c>
       <c r="F140">
-        <v>81</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G140">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H140">
-        <v>100</v>
+        <v>14467</v>
       </c>
       <c r="I140" t="s">
         <v>292</v>
@@ -5456,13 +5456,13 @@
         <v>254</v>
       </c>
       <c r="F141">
-        <v>16.1616161616162</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G141">
-        <v>3.9043367109321</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H141">
-        <v>99</v>
+        <v>16367</v>
       </c>
       <c r="I141" t="s">
         <v>292</v>
@@ -5485,13 +5485,13 @@
         <v>267</v>
       </c>
       <c r="F142">
-        <v>72.8260869565217</v>
+        <v>74.8760330578512</v>
       </c>
       <c r="G142">
-        <v>2.48655724338248</v>
+        <v>2.71211745502357</v>
       </c>
       <c r="H142">
-        <v>92</v>
+        <v>605</v>
       </c>
       <c r="I142" t="s">
         <v>291</v>
@@ -5514,13 +5514,13 @@
         <v>268</v>
       </c>
       <c r="F143">
-        <v>33.6734693877551</v>
+        <v>37.1367189831115</v>
       </c>
       <c r="G143">
-        <v>3.9547348796657</v>
+        <v>5.14132162298742</v>
       </c>
       <c r="H143">
-        <v>98</v>
+        <v>16757</v>
       </c>
       <c r="I143" t="s">
         <v>292</v>
@@ -5543,13 +5543,13 @@
         <v>269</v>
       </c>
       <c r="F144">
-        <v>35</v>
+        <v>58.3692786963815</v>
       </c>
       <c r="G144">
-        <v>2.55704175012088</v>
+        <v>3.16737485177446</v>
       </c>
       <c r="H144">
-        <v>100</v>
+        <v>16692</v>
       </c>
       <c r="I144" t="s">
         <v>292</v>
@@ -5575,13 +5575,13 @@
         <v>270</v>
       </c>
       <c r="F145">
-        <v>29</v>
+        <v>20.9626955475331</v>
       </c>
       <c r="G145">
-        <v>2.93726935057743</v>
+        <v>4.63796524150865</v>
       </c>
       <c r="H145">
-        <v>100</v>
+        <v>16620</v>
       </c>
       <c r="I145" t="s">
         <v>292</v>
@@ -5607,13 +5607,13 @@
         <v>271</v>
       </c>
       <c r="F146">
-        <v>87</v>
+        <v>73.3260835793071</v>
       </c>
       <c r="G146">
-        <v>1.61507622475497</v>
+        <v>4.07019479287684</v>
       </c>
       <c r="H146">
-        <v>100</v>
+        <v>6437</v>
       </c>
       <c r="I146" t="s">
         <v>292</v>
@@ -5636,13 +5636,13 @@
         <v>272</v>
       </c>
       <c r="F147">
-        <v>80</v>
+        <v>62.7219154219636</v>
       </c>
       <c r="G147">
-        <v>2.48875843973146</v>
+        <v>3.55607171721226</v>
       </c>
       <c r="H147">
-        <v>95</v>
+        <v>53962</v>
       </c>
       <c r="I147" t="s">
         <v>292</v>
@@ -5668,13 +5668,13 @@
         <v>167</v>
       </c>
       <c r="F148">
-        <v>85.7142857142857</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G148">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H148">
-        <v>91</v>
+        <v>386</v>
       </c>
       <c r="I148" t="s">
         <v>291</v>
@@ -5700,13 +5700,13 @@
         <v>273</v>
       </c>
       <c r="F149">
-        <v>1.05263157894737</v>
+        <v>0.154918667699458</v>
       </c>
       <c r="G149">
-        <v>4.12314659177331</v>
+        <v>5.72676752736296</v>
       </c>
       <c r="H149">
-        <v>95</v>
+        <v>1291</v>
       </c>
       <c r="I149" t="s">
         <v>291</v>
@@ -5729,13 +5729,13 @@
         <v>240</v>
       </c>
       <c r="F150">
-        <v>35.3535353535354</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G150">
-        <v>4.32159351100563</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H150">
-        <v>99</v>
+        <v>1380</v>
       </c>
       <c r="I150" t="s">
         <v>291</v>
@@ -5761,13 +5761,13 @@
         <v>274</v>
       </c>
       <c r="F151">
-        <v>25</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G151">
-        <v>3.29421192792486</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H151">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I151" t="s">
         <v>291</v>
@@ -5793,13 +5793,13 @@
         <v>274</v>
       </c>
       <c r="F152">
-        <v>25</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G152">
-        <v>3.29421192792486</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H152">
-        <v>100</v>
+        <v>1381</v>
       </c>
       <c r="I152" t="s">
         <v>291</v>
@@ -5825,13 +5825,13 @@
         <v>275</v>
       </c>
       <c r="F153">
-        <v>73</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G153">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H153">
-        <v>100</v>
+        <v>1386</v>
       </c>
       <c r="I153" t="s">
         <v>291</v>
@@ -5857,13 +5857,13 @@
         <v>276</v>
       </c>
       <c r="F154">
-        <v>29</v>
+        <v>16.2808065720687</v>
       </c>
       <c r="G154">
-        <v>3.96569996742263</v>
+        <v>5.45703316142337</v>
       </c>
       <c r="H154">
-        <v>100</v>
+        <v>1339</v>
       </c>
       <c r="I154" t="s">
         <v>291</v>
@@ -5886,13 +5886,13 @@
         <v>277</v>
       </c>
       <c r="F155">
-        <v>92.4731182795699</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G155">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H155">
-        <v>93</v>
+        <v>1321</v>
       </c>
       <c r="I155" t="s">
         <v>291</v>
@@ -5915,13 +5915,13 @@
         <v>278</v>
       </c>
       <c r="F156">
-        <v>56.3829787234043</v>
+        <v>30.8745247148289</v>
       </c>
       <c r="G156">
-        <v>2.14914097322882</v>
+        <v>4.32263379872346</v>
       </c>
       <c r="H156">
-        <v>94</v>
+        <v>1315</v>
       </c>
       <c r="I156" t="s">
         <v>291</v>
@@ -5947,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>2.89394225565193</v>
+        <v>3.95185630427735</v>
       </c>
       <c r="H157">
-        <v>100</v>
+        <v>534</v>
       </c>
       <c r="I157" t="s">
         <v>291</v>
@@ -5973,13 +5973,13 @@
         <v>280</v>
       </c>
       <c r="F158">
-        <v>58</v>
+        <v>80.1132674410216</v>
       </c>
       <c r="G158">
-        <v>2.11410261188977</v>
+        <v>2.40128407782419</v>
       </c>
       <c r="H158">
-        <v>100</v>
+        <v>27722</v>
       </c>
       <c r="I158" t="s">
         <v>295</v>
@@ -6002,13 +6002,13 @@
         <v>156</v>
       </c>
       <c r="F159">
-        <v>59.5959595959596</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G159">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H159">
-        <v>99</v>
+        <v>1327</v>
       </c>
       <c r="I159" t="s">
         <v>291</v>
@@ -6034,13 +6034,13 @@
         <v>281</v>
       </c>
       <c r="F160">
-        <v>64</v>
+        <v>72.2727272727273</v>
       </c>
       <c r="G160">
-        <v>1.67416003391818</v>
+        <v>2.38177147283091</v>
       </c>
       <c r="H160">
-        <v>100</v>
+        <v>1320</v>
       </c>
       <c r="I160" t="s">
         <v>291</v>
@@ -6063,13 +6063,13 @@
         <v>282</v>
       </c>
       <c r="F161">
-        <v>46.4646464646465</v>
+        <v>45.9398496240602</v>
       </c>
       <c r="G161">
-        <v>2.18730015173056</v>
+        <v>2.90589524192873</v>
       </c>
       <c r="H161">
-        <v>99</v>
+        <v>1330</v>
       </c>
       <c r="I161" t="s">
         <v>291</v>
@@ -6095,13 +6095,13 @@
         <v>243</v>
       </c>
       <c r="F162">
-        <v>93.9393939393939</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G162">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H162">
-        <v>99</v>
+        <v>1334</v>
       </c>
       <c r="I162" t="s">
         <v>291</v>
@@ -6124,13 +6124,13 @@
         <v>283</v>
       </c>
       <c r="F163">
-        <v>84.2105263157895</v>
+        <v>76.0608486789431</v>
       </c>
       <c r="G163">
-        <v>2.23759127386008</v>
+        <v>3.58521769673978</v>
       </c>
       <c r="H163">
-        <v>95</v>
+        <v>1249</v>
       </c>
       <c r="I163" t="s">
         <v>291</v>
@@ -6156,13 +6156,13 @@
         <v>235</v>
       </c>
       <c r="F164">
-        <v>91</v>
+        <v>90.8331223094454</v>
       </c>
       <c r="G164">
-        <v>0.941172095986552</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="H164">
-        <v>100</v>
+        <v>27643</v>
       </c>
       <c r="I164" t="s">
         <v>295</v>
@@ -6185,13 +6185,13 @@
         <v>236</v>
       </c>
       <c r="F165">
-        <v>54</v>
+        <v>81.6615556175077</v>
       </c>
       <c r="G165">
-        <v>1.58095429422159</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="H165">
-        <v>100</v>
+        <v>17935</v>
       </c>
       <c r="I165" t="s">
         <v>292</v>
@@ -6214,13 +6214,13 @@
         <v>284</v>
       </c>
       <c r="F166">
-        <v>95</v>
+        <v>84.8453978906999</v>
       </c>
       <c r="G166">
-        <v>0.382493361860324</v>
+        <v>1.36685241548561</v>
       </c>
       <c r="H166">
-        <v>100</v>
+        <v>16688</v>
       </c>
       <c r="I166" t="s">
         <v>292</v>
@@ -6243,13 +6243,13 @@
         <v>285</v>
       </c>
       <c r="F167">
-        <v>73</v>
+        <v>71.2031047865459</v>
       </c>
       <c r="G167">
-        <v>1.68295572625322</v>
+        <v>2.22013327339172</v>
       </c>
       <c r="H167">
-        <v>100</v>
+        <v>7730</v>
       </c>
       <c r="I167" t="s">
         <v>292</v>
@@ -6272,13 +6272,13 @@
         <v>286</v>
       </c>
       <c r="F168">
-        <v>81</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G168">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H168">
-        <v>100</v>
+        <v>14467</v>
       </c>
       <c r="I168" t="s">
         <v>292</v>
@@ -6304,10 +6304,10 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>6.04146788019945</v>
+        <v>5.53071044204601</v>
       </c>
       <c r="H169">
-        <v>25</v>
+        <v>411</v>
       </c>
       <c r="I169" t="s">
         <v>291</v>
@@ -6333,13 +6333,13 @@
         <v>238</v>
       </c>
       <c r="F170">
-        <v>73.4939759036145</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="G170">
-        <v>3.03149709804776</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="H170">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I170" t="s">
         <v>291</v>
@@ -6365,13 +6365,13 @@
         <v>288</v>
       </c>
       <c r="F171">
-        <v>93.9393939393939</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G171">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H171">
-        <v>99</v>
+        <v>1334</v>
       </c>
       <c r="I171" t="s">
         <v>291</v>
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>5.15517762616028</v>
+        <v>7.10563080535681</v>
       </c>
       <c r="H172">
-        <v>47</v>
+        <v>822</v>
       </c>
       <c r="I172" t="s">
         <v>291</v>
@@ -6423,13 +6423,13 @@
         <v>247</v>
       </c>
       <c r="F173">
-        <v>59</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G173">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H173">
-        <v>100</v>
+        <v>4050</v>
       </c>
       <c r="I173" t="s">
         <v>292</v>
@@ -6452,13 +6452,13 @@
         <v>290</v>
       </c>
       <c r="F174">
-        <v>93</v>
+        <v>85.3286816011752</v>
       </c>
       <c r="G174">
-        <v>1.24502458673514</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="H174">
-        <v>100</v>
+        <v>5446</v>
       </c>
       <c r="I174" t="s">
         <v>297</v>

--- a/results/SupTable1.xlsx
+++ b/results/SupTable1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="351">
   <si>
     <t>Citation</t>
   </si>
@@ -49,6 +49,9 @@
     <t>T5</t>
   </si>
   <si>
+    <t>T6</t>
+  </si>
+  <si>
     <t>LTR-A</t>
   </si>
   <si>
@@ -61,28 +64,76 @@
     <t>LTR-D</t>
   </si>
   <si>
-    <t xml:space="preserve">gLTR-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR-T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gP24-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gP24-T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gVif-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gVif-T2 </t>
+    <t>gEnv-T1</t>
+  </si>
+  <si>
+    <t>gEnv-T2</t>
+  </si>
+  <si>
+    <t>gEnv-T3</t>
+  </si>
+  <si>
+    <t>gLTR-T1</t>
+  </si>
+  <si>
+    <t>gLTR-T2</t>
+  </si>
+  <si>
+    <t>gLTR-T3</t>
+  </si>
+  <si>
+    <t>gP17-T1</t>
+  </si>
+  <si>
+    <t>gP17-T2</t>
+  </si>
+  <si>
+    <t>gP24-T1</t>
+  </si>
+  <si>
+    <t>gP24-T2</t>
+  </si>
+  <si>
+    <t>gP24-T3</t>
+  </si>
+  <si>
+    <t>gPol-T1</t>
+  </si>
+  <si>
+    <t>gPol-T2</t>
+  </si>
+  <si>
+    <t>gPol-T3</t>
+  </si>
+  <si>
+    <t>gRev-T1</t>
+  </si>
+  <si>
+    <t>gRev-T2</t>
+  </si>
+  <si>
+    <t>gU3-T1</t>
+  </si>
+  <si>
+    <t>gU3-T2</t>
+  </si>
+  <si>
+    <t>gU3-T3</t>
+  </si>
+  <si>
+    <t>gU5-T1</t>
+  </si>
+  <si>
+    <t>gVif-T1</t>
+  </si>
+  <si>
+    <t>gVif-T2</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t xml:space="preserve">T10 </t>
+    <t>T10</t>
   </si>
   <si>
     <t>T2</t>
@@ -91,10 +142,7 @@
     <t>T3</t>
   </si>
   <si>
-    <t xml:space="preserve">T4 </t>
-  </si>
-  <si>
-    <t>T6</t>
+    <t>T4</t>
   </si>
   <si>
     <t>T7</t>
@@ -214,7 +262,7 @@
     <t>sg373R</t>
   </si>
   <si>
-    <t xml:space="preserve">sg45F </t>
+    <t>sg45F</t>
   </si>
   <si>
     <t>sg62F</t>
@@ -475,18 +523,63 @@
     <t>gGag4</t>
   </si>
   <si>
-    <t xml:space="preserve">gLTR1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR9 </t>
+    <t>gLTR9</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>IN5</t>
+  </si>
+  <si>
+    <t>IN7</t>
+  </si>
+  <si>
+    <t>LTR4</t>
+  </si>
+  <si>
+    <t>LTR6</t>
+  </si>
+  <si>
+    <t>MA3</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>PR3</t>
+  </si>
+  <si>
+    <t>PR4</t>
+  </si>
+  <si>
+    <t>PR5</t>
+  </si>
+  <si>
+    <t>RT2</t>
+  </si>
+  <si>
+    <t>RT3</t>
+  </si>
+  <si>
+    <t>RT4</t>
+  </si>
+  <si>
+    <t>RT6</t>
   </si>
   <si>
     <t>GTTAGACCAGATCTGAGCCT.NGG</t>
   </si>
   <si>
+    <t>GCTACAAGGGACTTTCCGCT.NGG</t>
+  </si>
+  <si>
     <t>AGGGCCAGGGATCAGATATCCACTGACCTT.NGG</t>
   </si>
   <si>
@@ -499,18 +592,63 @@
     <t>GCGTGGCCTGGGCGGGACTG.NGG</t>
   </si>
   <si>
+    <t>GTATCAGCACTTGTGGAGAT.NGG</t>
+  </si>
+  <si>
+    <t>GTGGGTCACAGTCTATTATG.NGG</t>
+  </si>
+  <si>
+    <t>GCACAGTTTTAATTGTGGAG.NGG</t>
+  </si>
+  <si>
     <t>GGTTAGACCAGATCTGAGCCTGG.NGG</t>
   </si>
   <si>
     <t>GGGAGCTCTCTGGCTAACTAGGG.NGG</t>
   </si>
   <si>
+    <t>GATTTTCCACACTGACTAAA.NGG</t>
+  </si>
+  <si>
+    <t>GAGAGCGTCGGTATTAAGCG.NGG</t>
+  </si>
+  <si>
+    <t>GAAGGCTGTAGACAAATACT.NGG</t>
+  </si>
+  <si>
     <t>GGTAAAAGTAGTAGAAGAGAAGG.NGG</t>
   </si>
   <si>
     <t>GGCCAGATGAGAGAACCAAGGGG.NGG</t>
   </si>
   <si>
+    <t>GAAATGATGACAGCATGTCA.NGG</t>
+  </si>
+  <si>
+    <t>GATGGAAACCAAAAATGATA.NGG</t>
+  </si>
+  <si>
+    <t>GAGACAACATCTGTTGAGGT.NGG</t>
+  </si>
+  <si>
+    <t>GTGATAAATGTCAGCTAAAA.NGG</t>
+  </si>
+  <si>
+    <t>GACCCACCTCCCAATCCCGA.NGG</t>
+  </si>
+  <si>
+    <t>GTGGAACTTCTGGGACGCAG.NGG</t>
+  </si>
+  <si>
+    <t>GCATGGGATGGAGGACCCGG.NGG</t>
+  </si>
+  <si>
+    <t>GTGTGGCCTGGGCGGGACTG.NGG</t>
+  </si>
+  <si>
+    <t>GCCCGTCTGTTGTGTGACTC.NGG</t>
+  </si>
+  <si>
     <t>GGAGAAAGAGACTGGCATTTGGG.NGG</t>
   </si>
   <si>
@@ -586,9 +724,6 @@
     <t>CCN.CTGCTTAAGCCTCAATAAAGC</t>
   </si>
   <si>
-    <t>GCCCGTCTGTTGTGTGACTC.NGG</t>
-  </si>
-  <si>
     <t>CCN.GGGCCAGGGATCAGATATCG</t>
   </si>
   <si>
@@ -676,9 +811,6 @@
     <t>GTCAGATATCCACTGACCTT.NGG</t>
   </si>
   <si>
-    <t>GCTACAAGGGACTTTCCGCT.NGG</t>
-  </si>
-  <si>
     <t>GGCGTGGCCTGGGCGGGACT.NGG</t>
   </si>
   <si>
@@ -691,7 +823,7 @@
     <t>CCCGTCTGTTGTGTGACTC.NGG</t>
   </si>
   <si>
-    <t>AGACCCTTTTAGTCAGTG.NGG</t>
+    <t>CAGACCCTTTTAGTCAGTG.NGG</t>
   </si>
   <si>
     <t>TTGGCAGAACTACACACCA.NGG</t>
@@ -706,16 +838,16 @@
     <t>GACATCGAGCTTGCTACAA.NGG</t>
   </si>
   <si>
-    <t>ACAAGGGACTTTCCGCTG.NGG</t>
+    <t>TACAAGGGACTTTCCGCTG.NGG</t>
   </si>
   <si>
     <t>TTCCGCTGGGGACTTTCCA.NGG</t>
   </si>
   <si>
-    <t>CCTGGGCGGGACTGGGGAC.NGG</t>
-  </si>
-  <si>
-    <t>CTGCTTTTTGCCTGTAC.NGG</t>
+    <t>CCTGGGCGGGACTGGGGAG.NGG</t>
+  </si>
+  <si>
+    <t>AGCTGCTTTTTGCCTGTAC.NGG</t>
   </si>
   <si>
     <t>GTAACATTAGTAGAGCAAAA.NGG</t>
@@ -769,6 +901,12 @@
     <t>GAATAGGCGTTACTCAACAG.NGG</t>
   </si>
   <si>
+    <t>ATCAGATATCCACTGACCTT.NGG</t>
+  </si>
+  <si>
+    <t>CCN.GAGTACTTCAAGAACTGCTG</t>
+  </si>
+  <si>
     <t>GGCCAGATGAGAGAACCAAG.NGG</t>
   </si>
   <si>
@@ -796,12 +934,6 @@
     <t>GCAGGATATGTAACTGACAG.NGG</t>
   </si>
   <si>
-    <t>GTATCAGCACTTGTGGAGAT.NGG</t>
-  </si>
-  <si>
-    <t>GCACAGTTTTAATTGTGGAG.NGG</t>
-  </si>
-  <si>
     <t>CCN.GCTATAGGTTGATAAGTTGT</t>
   </si>
   <si>
@@ -811,9 +943,6 @@
     <t>GGGTCCGAGATCTTCAGACC.NGG</t>
   </si>
   <si>
-    <t>CCN.GAGTACTTCAAGAACTGCTG</t>
-  </si>
-  <si>
     <t>CCN.TCAGATCACTCTTTGGCAGC</t>
   </si>
   <si>
@@ -868,42 +997,69 @@
     <t>AGCTGCTTTTTGCCTGTACT.NGG</t>
   </si>
   <si>
-    <t xml:space="preserve">CCN.AGGGGAAGTGACATAGCAGG </t>
+    <t>CCN.AGGGGAAGTGACATAGCAGG</t>
   </si>
   <si>
     <t>GATGACAGCATGTCAGGGAG.NGG</t>
   </si>
   <si>
-    <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTGGCAGAACTACACACCA.NGG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TCAGATGCTGCATATAAGCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCGTGGCCTGGGCGGGACT.NGG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.ATGGCAGGAAGAAGCGGAGA </t>
+    <t>CCN.AGATGAACATGAGAAATATC</t>
+  </si>
+  <si>
+    <t>CCN.GCAGAAACAGGGCAGGAAAC</t>
+  </si>
+  <si>
+    <t>CCN.GTGCTACGGTTAAGGCCGCC</t>
+  </si>
+  <si>
+    <t>GCCGGTAAAAACAATACATA.NGG</t>
+  </si>
+  <si>
+    <t>CCN.GGGCGGGACTGGGGAGTGGC</t>
+  </si>
+  <si>
+    <t>CTC.TGGTTAGACCAGATCTGAGC</t>
+  </si>
+  <si>
+    <t>GCGGGGGAGAATTAGATCGA.NGG</t>
+  </si>
+  <si>
+    <t>GCTATAGGTACAGTATTAGT.NGG</t>
+  </si>
+  <si>
+    <t>CTA.AAGGAAGCTCTATTAGATAC</t>
+  </si>
+  <si>
+    <t>GCAACTAAAGGAAGCTCTAT.TAG</t>
+  </si>
+  <si>
+    <t>GGAAGCTCTATTAGATACAG.NGG</t>
+  </si>
+  <si>
+    <t>GTACAGAGATGGAAAAGGAA.NGG</t>
+  </si>
+  <si>
+    <t>CCN.GAAAATCCATACAATACTCC</t>
+  </si>
+  <si>
+    <t>CTT.TTAGAAAACAAAATCCAGAC</t>
   </si>
   <si>
     <t>LTR</t>
   </si>
   <si>
+    <t>Env</t>
+  </si>
+  <si>
     <t>Gag/Pol</t>
   </si>
   <si>
+    <t>Rev/Env</t>
+  </si>
+  <si>
     <t>Vif</t>
   </si>
   <si>
-    <t>gp41</t>
-  </si>
-  <si>
-    <t>Env</t>
-  </si>
-  <si>
     <t>Nef</t>
   </si>
   <si>
@@ -911,9 +1067,6 @@
   </si>
   <si>
     <t>Vpr</t>
-  </si>
-  <si>
-    <t>Rev/Env</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1476,7 @@
         <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F2">
         <v>68.2743029389601</v>
@@ -1335,7 +1488,7 @@
         <v>1327</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="J2">
         <v>67</v>
@@ -1343,31 +1496,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>25049410</v>
+        <v>23974631</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F3">
-        <v>55.0446998722861</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G3">
-        <v>5.2490487877587</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H3">
-        <v>783</v>
+        <v>1319</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1378,25 +1531,25 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="F4">
-        <v>21.4126394052045</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G4">
-        <v>4.60505589831112</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H4">
-        <v>1345</v>
+        <v>783</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1407,28 +1560,25 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F5">
-        <v>70.3252032520325</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G5">
-        <v>2.66017761804901</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H5">
-        <v>492</v>
+        <v>1345</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
-      </c>
-      <c r="J5">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1439,57 +1589,57 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F6">
-        <v>59.659511472983</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G6">
-        <v>4.20622313379339</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H6">
-        <v>1351</v>
+        <v>492</v>
       </c>
       <c r="I6" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J6">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>25752527</v>
+        <v>25049410</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>464</v>
+        <v>380</v>
       </c>
       <c r="D7">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F7">
-        <v>0.227100681302044</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G7">
-        <v>2.40986670796441</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H7">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
-      </c>
-      <c r="J7">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1500,28 +1650,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>485</v>
+        <v>6242</v>
       </c>
       <c r="D8">
-        <v>507</v>
+        <v>6261</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>15.5212872946698</v>
       </c>
       <c r="G8">
-        <v>2.85909031283905</v>
+        <v>7.27813169788748</v>
       </c>
       <c r="H8">
-        <v>1326</v>
+        <v>5966</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="J8">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1532,28 +1682,28 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1254</v>
+        <v>6326</v>
       </c>
       <c r="D9">
-        <v>1276</v>
+        <v>6345</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>69.8326055312955</v>
       </c>
       <c r="G9">
-        <v>3.84011546849227</v>
+        <v>2.48511260643528</v>
       </c>
       <c r="H9">
-        <v>18099</v>
+        <v>24732</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1564,28 +1714,25 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1465</v>
+        <v>7343</v>
       </c>
       <c r="D10">
-        <v>1487</v>
+        <v>7362</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F10">
-        <v>0.035962598897147</v>
+        <v>45.3404048057149</v>
       </c>
       <c r="G10">
-        <v>2.28174497384023</v>
+        <v>5.63915036449642</v>
       </c>
       <c r="H10">
-        <v>16684</v>
+        <v>27717</v>
       </c>
       <c r="I10" t="s">
-        <v>292</v>
-      </c>
-      <c r="J10">
-        <v>58</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1596,28 +1743,28 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>5263</v>
+        <v>464</v>
       </c>
       <c r="D11">
-        <v>5285</v>
+        <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.227100681302044</v>
       </c>
       <c r="G11">
-        <v>3.93617695069883</v>
+        <v>2.40986670796441</v>
       </c>
       <c r="H11">
-        <v>5801</v>
+        <v>1321</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="J11">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1628,1557 +1775,1572 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>5463</v>
+        <v>485</v>
       </c>
       <c r="D12">
-        <v>5485</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.9572293082874</v>
+        <v>2.85909031283905</v>
       </c>
       <c r="H12">
-        <v>5822</v>
+        <v>1326</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="J12">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>627</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="F13">
-        <v>63.4715025906736</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3.74626818958162</v>
+        <v>3.07041111312411</v>
       </c>
       <c r="H13">
-        <v>386</v>
+        <v>1351</v>
       </c>
       <c r="I13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J13">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14">
-        <v>8532</v>
+        <v>798</v>
       </c>
       <c r="D14">
-        <v>8513</v>
+        <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F14">
-        <v>59.2883388126088</v>
+        <v>67.1014492753623</v>
       </c>
       <c r="G14">
-        <v>3.76299227390448</v>
+        <v>2.8950573572311</v>
       </c>
       <c r="H14">
-        <v>25855</v>
+        <v>2070</v>
       </c>
       <c r="I14" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>952</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>971</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F15">
-        <v>86.5424430641822</v>
+        <v>38.203622124327</v>
       </c>
       <c r="G15">
-        <v>2.71686075827078</v>
+        <v>6.03394292358635</v>
       </c>
       <c r="H15">
-        <v>483</v>
+        <v>16344</v>
       </c>
       <c r="I15" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16">
-        <v>628</v>
+        <v>1254</v>
       </c>
       <c r="D16">
-        <v>635</v>
+        <v>1276</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>97.1139971139971</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.392901631328193</v>
+        <v>3.84011546849227</v>
       </c>
       <c r="H16">
-        <v>1386</v>
+        <v>18099</v>
       </c>
       <c r="I16" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="J16">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>2255</v>
+        <v>1465</v>
       </c>
       <c r="D17">
-        <v>2274</v>
+        <v>1487</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F17">
-        <v>54.1853874334693</v>
+        <v>0.035962598897147</v>
       </c>
       <c r="G17">
-        <v>1.75088485980889</v>
+        <v>2.28174497384023</v>
       </c>
       <c r="H17">
-        <v>14467</v>
+        <v>16684</v>
       </c>
       <c r="I17" t="s">
-        <v>292</v>
+        <v>345</v>
+      </c>
+      <c r="J17">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>2805</v>
+        <v>1822</v>
       </c>
       <c r="D18">
-        <v>2824</v>
+        <v>1841</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="F18">
-        <v>62.5261753423642</v>
+        <v>84.2949547218629</v>
       </c>
       <c r="G18">
-        <v>3.47312087356067</v>
+        <v>1.97737392681883</v>
       </c>
       <c r="H18">
-        <v>53963</v>
+        <v>7730</v>
       </c>
       <c r="I18" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="J18">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>3114</v>
+        <v>2374</v>
       </c>
       <c r="D19">
-        <v>3133</v>
+        <v>2393</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F19">
-        <v>55.0185873605948</v>
+        <v>73.3619214351752</v>
       </c>
       <c r="G19">
-        <v>3.88955388634754</v>
+        <v>3.31899309585453</v>
       </c>
       <c r="H19">
-        <v>9684</v>
+        <v>50837</v>
       </c>
       <c r="I19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19">
-        <v>54</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>4383</v>
+        <v>3164</v>
       </c>
       <c r="D20">
-        <v>4402</v>
+        <v>3183</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F20">
-        <v>72.9842446709917</v>
+        <v>26.7375813281008</v>
       </c>
       <c r="G20">
-        <v>2.35872624395286</v>
+        <v>6.81515335034517</v>
       </c>
       <c r="H20">
-        <v>6474</v>
+        <v>9683</v>
       </c>
       <c r="I20" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>4452</v>
+        <v>4348</v>
       </c>
       <c r="D21">
-        <v>4471</v>
+        <v>4367</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F21">
-        <v>79.4725478099938</v>
+        <v>1.96990848456647</v>
       </c>
       <c r="G21">
-        <v>2.02289446764389</v>
+        <v>3.42580410413265</v>
       </c>
       <c r="H21">
-        <v>6484</v>
+        <v>6447</v>
       </c>
       <c r="I21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J21">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>25808449</v>
+        <v>25752527</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>8406</v>
+        <v>8378</v>
       </c>
       <c r="D22">
-        <v>8425</v>
+        <v>8397</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="F22">
-        <v>74.7119771128122</v>
+        <v>0.102096913531768</v>
       </c>
       <c r="G22">
-        <v>4.46329462909989</v>
+        <v>6.57994131107048</v>
       </c>
       <c r="H22">
-        <v>25866</v>
+        <v>25466</v>
       </c>
       <c r="I22" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>78</v>
+        <v>8568</v>
       </c>
       <c r="D23">
-        <v>97</v>
+        <v>8587</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="F23">
-        <v>70.3252032520325</v>
+        <v>73.2113080234226</v>
       </c>
       <c r="G23">
-        <v>2.66017761804901</v>
+        <v>2.98647405775322</v>
       </c>
       <c r="H23">
-        <v>492</v>
+        <v>25787</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
-      </c>
-      <c r="J23">
-        <v>81</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F24">
-        <v>59.659511472983</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G24">
-        <v>4.20622313379339</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H24">
-        <v>1351</v>
+        <v>492</v>
       </c>
       <c r="I24" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J24">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F25">
-        <v>28.8372093023256</v>
+        <v>5.97232337946103</v>
       </c>
       <c r="G25">
-        <v>4.27334109035607</v>
+        <v>5.44899146865455</v>
       </c>
       <c r="H25">
-        <v>430</v>
+        <v>1373</v>
       </c>
       <c r="I25" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="D26">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F26">
-        <v>0.0750750750750751</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G26">
-        <v>1.701342905986</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H26">
-        <v>1332</v>
+        <v>1351</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>562</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>581</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F27">
-        <v>66.2817551963048</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G27">
-        <v>4.37524539435632</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H27">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>59</v>
+        <v>5263</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>5285</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="F28">
-        <v>40.4710920770878</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3.86885384896436</v>
+        <v>3.93617695069883</v>
       </c>
       <c r="H28">
-        <v>467</v>
+        <v>5801</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>347</v>
+      </c>
+      <c r="J28">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>26538064</v>
+        <v>25752527</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>107</v>
+        <v>5463</v>
       </c>
       <c r="D29">
-        <v>127</v>
+        <v>5485</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="F29">
-        <v>55.0377833753149</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>5.26257053419506</v>
+        <v>3.9572293082874</v>
       </c>
       <c r="H29">
-        <v>794</v>
+        <v>5822</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>347</v>
+      </c>
+      <c r="J29">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>26538064</v>
+        <v>25808449</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="F30">
-        <v>3.48583877995643</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G30">
-        <v>6.7698759592779</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H30">
-        <v>1377</v>
+        <v>386</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J30">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>26538064</v>
+        <v>25808449</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>271</v>
+        <v>8532</v>
       </c>
       <c r="D31">
-        <v>291</v>
+        <v>8513</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F31">
-        <v>5.7204923968139</v>
+        <v>59.2883388126088</v>
       </c>
       <c r="G31">
-        <v>5.80365809729613</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H31">
-        <v>1381</v>
+        <v>25855</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
+        <v>25808449</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32">
+        <v>86.5424430641822</v>
+      </c>
+      <c r="G32">
+        <v>2.71686075827078</v>
+      </c>
+      <c r="H32">
+        <v>483</v>
+      </c>
+      <c r="I32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>25808449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>628</v>
+      </c>
+      <c r="D33">
+        <v>635</v>
+      </c>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33">
+        <v>97.1139971139971</v>
+      </c>
+      <c r="G33">
+        <v>0.392901631328193</v>
+      </c>
+      <c r="H33">
+        <v>1386</v>
+      </c>
+      <c r="I33" t="s">
+        <v>343</v>
+      </c>
+      <c r="J33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>25808449</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>2255</v>
+      </c>
+      <c r="D34">
+        <v>2274</v>
+      </c>
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34">
+        <v>54.1853874334693</v>
+      </c>
+      <c r="G34">
+        <v>1.75088485980889</v>
+      </c>
+      <c r="H34">
+        <v>14467</v>
+      </c>
+      <c r="I34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>25808449</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>2805</v>
+      </c>
+      <c r="D35">
+        <v>2824</v>
+      </c>
+      <c r="E35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35">
+        <v>62.5261753423642</v>
+      </c>
+      <c r="G35">
+        <v>3.47312087356067</v>
+      </c>
+      <c r="H35">
+        <v>53963</v>
+      </c>
+      <c r="I35" t="s">
+        <v>345</v>
+      </c>
+      <c r="J35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>25808449</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>3114</v>
+      </c>
+      <c r="D36">
+        <v>3133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36">
+        <v>55.0185873605948</v>
+      </c>
+      <c r="G36">
+        <v>3.88955388634754</v>
+      </c>
+      <c r="H36">
+        <v>9684</v>
+      </c>
+      <c r="I36" t="s">
+        <v>345</v>
+      </c>
+      <c r="J36">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>25808449</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>4383</v>
+      </c>
+      <c r="D37">
+        <v>4402</v>
+      </c>
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37">
+        <v>72.9842446709917</v>
+      </c>
+      <c r="G37">
+        <v>2.35872624395286</v>
+      </c>
+      <c r="H37">
+        <v>6474</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>25808449</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>4452</v>
+      </c>
+      <c r="D38">
+        <v>4471</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38">
+        <v>79.4725478099938</v>
+      </c>
+      <c r="G38">
+        <v>2.02289446764389</v>
+      </c>
+      <c r="H38">
+        <v>6484</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>25808449</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>8406</v>
+      </c>
+      <c r="D39">
+        <v>8425</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39">
+        <v>74.7119771128122</v>
+      </c>
+      <c r="G39">
+        <v>4.46329462909989</v>
+      </c>
+      <c r="H39">
+        <v>25866</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
         <v>26538064</v>
       </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40">
+        <v>70.3252032520325</v>
+      </c>
+      <c r="G40">
+        <v>2.66017761804901</v>
+      </c>
+      <c r="H40">
+        <v>492</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>26538064</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>380</v>
+      </c>
+      <c r="D41">
+        <v>399</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41">
+        <v>59.659511472983</v>
+      </c>
+      <c r="G41">
+        <v>4.20622313379339</v>
+      </c>
+      <c r="H41">
+        <v>1351</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>26538064</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42">
+        <v>28.8372093023256</v>
+      </c>
+      <c r="G42">
+        <v>4.27334109035607</v>
+      </c>
+      <c r="H42">
+        <v>430</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>26538064</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>414</v>
+      </c>
+      <c r="D43">
+        <v>436</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43">
+        <v>0.0750750750750751</v>
+      </c>
+      <c r="G43">
+        <v>1.701342905986</v>
+      </c>
+      <c r="H43">
+        <v>1332</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>26538064</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44">
+        <v>66.2817551963048</v>
+      </c>
+      <c r="G44">
+        <v>4.37524539435632</v>
+      </c>
+      <c r="H44">
+        <v>433</v>
+      </c>
+      <c r="I44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>26538064</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45">
+        <v>40.4710920770878</v>
+      </c>
+      <c r="G45">
+        <v>3.86885384896436</v>
+      </c>
+      <c r="H45">
+        <v>467</v>
+      </c>
+      <c r="I45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>26538064</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46">
+        <v>55.0377833753149</v>
+      </c>
+      <c r="G46">
+        <v>5.26257053419506</v>
+      </c>
+      <c r="H46">
+        <v>794</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>26538064</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>240</v>
+      </c>
+      <c r="D47">
+        <v>260</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47">
+        <v>3.48583877995643</v>
+      </c>
+      <c r="G47">
+        <v>6.7698759592779</v>
+      </c>
+      <c r="H47">
+        <v>1377</v>
+      </c>
+      <c r="I47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>26538064</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>271</v>
+      </c>
+      <c r="D48">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48">
+        <v>5.7204923968139</v>
+      </c>
+      <c r="G48">
+        <v>5.80365809729613</v>
+      </c>
+      <c r="H48">
+        <v>1381</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>26538064</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
         <v>289</v>
       </c>
-      <c r="D32">
+      <c r="D49">
         <v>309</v>
       </c>
-      <c r="E32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32">
+      <c r="E49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49">
         <v>57.3593073593074</v>
       </c>
-      <c r="G32">
+      <c r="G49">
         <v>4.16980328476335</v>
       </c>
-      <c r="H32">
+      <c r="H49">
         <v>1386</v>
       </c>
-      <c r="I32" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
         <v>26538064</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
         <v>312</v>
       </c>
-      <c r="D33">
+      <c r="D50">
         <v>332</v>
       </c>
-      <c r="E33" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33">
+      <c r="E50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50">
         <v>14.8286140089419</v>
       </c>
-      <c r="G33">
+      <c r="G50">
         <v>4.77181555488247</v>
       </c>
-      <c r="H33">
+      <c r="H50">
         <v>1342</v>
       </c>
-      <c r="I33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
+      <c r="I50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
         <v>26538064</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
         <v>328</v>
       </c>
-      <c r="D34">
+      <c r="D51">
         <v>348</v>
       </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34">
+      <c r="E51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51">
         <v>31.6104868913858</v>
       </c>
-      <c r="G34">
+      <c r="G51">
         <v>5.35698143814368</v>
       </c>
-      <c r="H34">
+      <c r="H51">
         <v>1335</v>
       </c>
-      <c r="I34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
         <v>26538064</v>
       </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
         <v>342</v>
       </c>
-      <c r="D35">
+      <c r="D52">
         <v>362</v>
       </c>
-      <c r="E35" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35">
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52">
         <v>84.3062926459439</v>
       </c>
-      <c r="G35">
+      <c r="G52">
         <v>2.9598765879773</v>
       </c>
-      <c r="H35">
+      <c r="H52">
         <v>1319</v>
       </c>
-      <c r="I35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
+      <c r="I52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
         <v>26538064</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
         <v>353</v>
       </c>
-      <c r="D36">
+      <c r="D53">
         <v>373</v>
       </c>
-      <c r="E36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36">
+      <c r="E53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53">
         <v>88.4178652535958</v>
       </c>
-      <c r="G36">
+      <c r="G53">
         <v>2.04604471326368</v>
       </c>
-      <c r="H36">
+      <c r="H53">
         <v>1321</v>
       </c>
-      <c r="I36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
+      <c r="I53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
         <v>26538064</v>
       </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
         <v>514</v>
       </c>
-      <c r="D37">
+      <c r="D54">
         <v>534</v>
       </c>
-      <c r="E37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37">
+      <c r="E54" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54">
         <v>96.1148648648649</v>
       </c>
-      <c r="G37">
+      <c r="G54">
         <v>0.597196805495579</v>
       </c>
-      <c r="H37">
+      <c r="H54">
         <v>1184</v>
       </c>
-      <c r="I37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
+      <c r="I54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
         <v>26538064</v>
       </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
         <v>562</v>
       </c>
-      <c r="D38">
+      <c r="D55">
         <v>581</v>
       </c>
-      <c r="E38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38">
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55">
         <v>89.4977168949772</v>
       </c>
-      <c r="G38">
+      <c r="G55">
         <v>1.22978373627946</v>
       </c>
-      <c r="H38">
+      <c r="H55">
         <v>438</v>
       </c>
-      <c r="I38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>26581162</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>99</v>
-      </c>
-      <c r="D39">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39">
-        <v>45.3503184713376</v>
-      </c>
-      <c r="G39">
-        <v>4.57742836429659</v>
-      </c>
-      <c r="H39">
-        <v>785</v>
-      </c>
-      <c r="I39" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>26581162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>105</v>
-      </c>
-      <c r="D40">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40">
-        <v>22.5190839694656</v>
-      </c>
-      <c r="G40">
-        <v>5.24062805296641</v>
-      </c>
-      <c r="H40">
-        <v>786</v>
-      </c>
-      <c r="I40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>26581162</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>120</v>
-      </c>
-      <c r="D41">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41">
-        <v>63.0865484880083</v>
-      </c>
-      <c r="G41">
-        <v>3.92337309848527</v>
-      </c>
-      <c r="H41">
-        <v>959</v>
-      </c>
-      <c r="I41" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>26581162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>107</v>
-      </c>
-      <c r="D42">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42">
-        <v>55.0377833753149</v>
-      </c>
-      <c r="G42">
-        <v>5.26257053419506</v>
-      </c>
-      <c r="H42">
-        <v>794</v>
-      </c>
-      <c r="I42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>26581162</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>111</v>
-      </c>
-      <c r="D43">
-        <v>131</v>
-      </c>
-      <c r="E43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43">
-        <v>62.7753303964758</v>
-      </c>
-      <c r="G43">
-        <v>4.37385317057862</v>
-      </c>
-      <c r="H43">
-        <v>908</v>
-      </c>
-      <c r="I43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>26581162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>127</v>
-      </c>
-      <c r="D44">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44">
-        <v>69.4672131147541</v>
-      </c>
-      <c r="G44">
-        <v>4.14157489871247</v>
-      </c>
-      <c r="H44">
-        <v>976</v>
-      </c>
-      <c r="I44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>26581162</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>153</v>
-      </c>
-      <c r="D45">
-        <v>173</v>
-      </c>
-      <c r="E45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45">
-        <v>2.79776179056755</v>
-      </c>
-      <c r="G45">
-        <v>5.68106698847909</v>
-      </c>
-      <c r="H45">
-        <v>1251</v>
-      </c>
-      <c r="I45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>26581162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46">
-        <v>155</v>
-      </c>
-      <c r="D46">
-        <v>174</v>
-      </c>
-      <c r="E46" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46">
-        <v>3.35463258785942</v>
-      </c>
-      <c r="G46">
-        <v>6.18484081253769</v>
-      </c>
-      <c r="H46">
-        <v>1252</v>
-      </c>
-      <c r="I46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>26581162</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47">
-        <v>203</v>
-      </c>
-      <c r="D47">
-        <v>223</v>
-      </c>
-      <c r="E47" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47">
-        <v>20.8944281524927</v>
-      </c>
-      <c r="G47">
-        <v>4.8697879664293</v>
-      </c>
-      <c r="H47">
-        <v>1364</v>
-      </c>
-      <c r="I47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>26581162</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48">
-        <v>221</v>
-      </c>
-      <c r="D48">
-        <v>241</v>
-      </c>
-      <c r="E48" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48">
-        <v>51.6363636363636</v>
-      </c>
-      <c r="G48">
-        <v>5.68356546928615</v>
-      </c>
-      <c r="H48">
-        <v>1375</v>
-      </c>
-      <c r="I48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>26581162</v>
-      </c>
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49">
-        <v>238</v>
-      </c>
-      <c r="D49">
-        <v>257</v>
-      </c>
-      <c r="E49" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49">
-        <v>2.69679300291545</v>
-      </c>
-      <c r="G49">
-        <v>5.88921427859597</v>
-      </c>
-      <c r="H49">
-        <v>1372</v>
-      </c>
-      <c r="I49" t="s">
-        <v>291</v>
-      </c>
-      <c r="J49">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>26581162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50">
-        <v>298</v>
-      </c>
-      <c r="D50">
-        <v>318</v>
-      </c>
-      <c r="E50" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50">
-        <v>56.6495224099926</v>
-      </c>
-      <c r="G50">
-        <v>3.93361586002584</v>
-      </c>
-      <c r="H50">
-        <v>1361</v>
-      </c>
-      <c r="I50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>26581162</v>
-      </c>
-      <c r="B51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51">
-        <v>347</v>
-      </c>
-      <c r="D51">
-        <v>367</v>
-      </c>
-      <c r="E51" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51">
-        <v>0.447093889716841</v>
-      </c>
-      <c r="G51">
-        <v>2.30132169775563</v>
-      </c>
-      <c r="H51">
-        <v>1342</v>
-      </c>
-      <c r="I51" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>26581162</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52">
-        <v>340</v>
-      </c>
-      <c r="D52">
-        <v>361</v>
-      </c>
-      <c r="E52" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52">
-        <v>85.3787878787879</v>
-      </c>
-      <c r="G52">
-        <v>3.0777750939932</v>
-      </c>
-      <c r="H52">
-        <v>1320</v>
-      </c>
-      <c r="I52" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>26581162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53">
-        <v>343</v>
-      </c>
-      <c r="D53">
-        <v>363</v>
-      </c>
-      <c r="E53" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53">
-        <v>83.8926174496644</v>
-      </c>
-      <c r="G53">
-        <v>2.29987765443434</v>
-      </c>
-      <c r="H53">
-        <v>1341</v>
-      </c>
-      <c r="I53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>26581162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54">
-        <v>342</v>
-      </c>
-      <c r="D54">
-        <v>363</v>
-      </c>
-      <c r="E54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54">
-        <v>83.8926174496644</v>
-      </c>
-      <c r="G54">
-        <v>2.29987765443434</v>
-      </c>
-      <c r="H54">
-        <v>1341</v>
-      </c>
-      <c r="I54" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>26581162</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55">
-        <v>342</v>
-      </c>
-      <c r="D55">
-        <v>363</v>
-      </c>
-      <c r="E55" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55">
-        <v>0.149142431021626</v>
-      </c>
-      <c r="G55">
-        <v>2.30132169775563</v>
-      </c>
-      <c r="H55">
-        <v>1341</v>
-      </c>
       <c r="I55" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>26581162</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="D56">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="F56">
-        <v>84.3062926459439</v>
+        <v>45.3503184713376</v>
       </c>
       <c r="G56">
-        <v>2.9598765879773</v>
+        <v>4.57742836429659</v>
       </c>
       <c r="H56">
-        <v>1319</v>
+        <v>785</v>
       </c>
       <c r="I56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>26581162</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F57">
-        <v>0.0750750750750751</v>
+        <v>22.5190839694656</v>
       </c>
       <c r="G57">
-        <v>3.21096109494894</v>
+        <v>5.24062805296641</v>
       </c>
       <c r="H57">
-        <v>1332</v>
+        <v>786</v>
       </c>
       <c r="I57" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>26581162</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="D58">
-        <v>382</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F58">
-        <v>83.0521472392638</v>
+        <v>63.0865484880083</v>
       </c>
       <c r="G58">
-        <v>2.88355234031107</v>
+        <v>3.92337309848527</v>
       </c>
       <c r="H58">
-        <v>1304</v>
+        <v>959</v>
       </c>
       <c r="I58" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>26581162</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="D59">
-        <v>373</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F59">
-        <v>88.4178652535958</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G59">
-        <v>2.04604471326368</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H59">
-        <v>1321</v>
+        <v>794</v>
       </c>
       <c r="I59" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>26581162</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="D60">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>62.7753303964758</v>
       </c>
       <c r="G60">
-        <v>4.3307332875547</v>
+        <v>4.37385317057862</v>
       </c>
       <c r="H60">
-        <v>1329</v>
+        <v>908</v>
       </c>
       <c r="I60" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>26581162</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D61">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="F61">
-        <v>62.5994694960212</v>
+        <v>69.4672131147541</v>
       </c>
       <c r="G61">
-        <v>3.79020057310525</v>
+        <v>4.14157489871247</v>
       </c>
       <c r="H61">
-        <v>377</v>
+        <v>976</v>
       </c>
       <c r="I61" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>26581162</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D62">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F62">
-        <v>28.5714285714286</v>
+        <v>2.79776179056755</v>
       </c>
       <c r="G62">
-        <v>4.28905468307688</v>
+        <v>5.68106698847909</v>
       </c>
       <c r="H62">
-        <v>434</v>
+        <v>1251</v>
       </c>
       <c r="I62" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>26581162</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="D63">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F63">
-        <v>89.7654584221748</v>
+        <v>3.35463258785942</v>
       </c>
       <c r="G63">
-        <v>2.82799410341281</v>
+        <v>6.18484081253769</v>
       </c>
       <c r="H63">
-        <v>469</v>
+        <v>1252</v>
       </c>
       <c r="I63" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>26581162</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="D64">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F64">
-        <v>86.5424430641822</v>
+        <v>20.8944281524927</v>
       </c>
       <c r="G64">
-        <v>2.71686075827078</v>
+        <v>4.8697879664293</v>
       </c>
       <c r="H64">
-        <v>483</v>
+        <v>1364</v>
       </c>
       <c r="I64" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3186,1108 +3348,1090 @@
         <v>26581162</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="D65">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="F65">
-        <v>70.4918032786885</v>
+        <v>51.6363636363636</v>
       </c>
       <c r="G65">
-        <v>2.62871100998389</v>
+        <v>5.68356546928615</v>
       </c>
       <c r="H65">
-        <v>488</v>
+        <v>1375</v>
       </c>
       <c r="I65" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="D66">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="F66">
-        <v>63.4715025906736</v>
+        <v>2.69679300291545</v>
       </c>
       <c r="G66">
-        <v>3.74626818958162</v>
+        <v>5.88921427859597</v>
       </c>
       <c r="H66">
-        <v>386</v>
+        <v>1372</v>
       </c>
       <c r="I66" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="J66">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="D67">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>56.6495224099926</v>
       </c>
       <c r="G67">
-        <v>2.66017761804901</v>
+        <v>3.93361586002584</v>
       </c>
       <c r="H67">
-        <v>493</v>
+        <v>1361</v>
       </c>
       <c r="I67" t="s">
-        <v>291</v>
-      </c>
-      <c r="J67">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="D68">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F68">
-        <v>54.9313358302122</v>
+        <v>0.447093889716841</v>
       </c>
       <c r="G68">
-        <v>5.27346382403279</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H68">
-        <v>801</v>
+        <v>1342</v>
       </c>
       <c r="I68" t="s">
-        <v>291</v>
-      </c>
-      <c r="J68">
-        <v>65</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D69">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F69">
-        <v>84.3062926459439</v>
+        <v>85.3787878787879</v>
       </c>
       <c r="G69">
-        <v>2.9598765879773</v>
+        <v>3.0777750939932</v>
       </c>
       <c r="H69">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="I69" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="D70">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F70">
-        <v>67.9021497405486</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G70">
-        <v>4.18899116697892</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H70">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I70" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="D71">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="F71">
-        <v>72.108843537415</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G71">
-        <v>3.2988062868948</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H71">
-        <v>1323</v>
+        <v>1341</v>
       </c>
       <c r="I71" t="s">
-        <v>291</v>
-      </c>
-      <c r="J71">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>562</v>
+        <v>342</v>
       </c>
       <c r="D72">
-        <v>581</v>
+        <v>363</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="F72">
-        <v>89.4977168949772</v>
+        <v>0.149142431021626</v>
       </c>
       <c r="G72">
-        <v>1.22978373627946</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H72">
-        <v>438</v>
+        <v>1341</v>
       </c>
       <c r="I72" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="D73">
-        <v>47</v>
+        <v>362</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="F73">
-        <v>63.4715025906736</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G73">
-        <v>3.74626818958162</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H73">
-        <v>386</v>
+        <v>1319</v>
       </c>
       <c r="I73" t="s">
-        <v>291</v>
-      </c>
-      <c r="J73">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="D74">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="F74">
-        <v>68.2743029389601</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G74">
-        <v>2.61531160191328</v>
+        <v>3.21096109494894</v>
       </c>
       <c r="H74">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="I74" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75">
-        <v>563</v>
+        <v>361</v>
       </c>
       <c r="D75">
-        <v>581</v>
+        <v>382</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="F75">
-        <v>89.4977168949772</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G75">
-        <v>1.22978373627946</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H75">
-        <v>438</v>
+        <v>1304</v>
       </c>
       <c r="I75" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>601</v>
+        <v>353</v>
       </c>
       <c r="D76">
-        <v>618</v>
+        <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="F76">
-        <v>45.7943925233645</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G76">
-        <v>3.96036636906972</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H76">
-        <v>535</v>
+        <v>1321</v>
       </c>
       <c r="I76" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="D77">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F77">
-        <v>71.5789473684211</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>2.93200291828835</v>
+        <v>4.3307332875547</v>
       </c>
       <c r="H77">
-        <v>570</v>
+        <v>1329</v>
       </c>
       <c r="I77" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="F78">
-        <v>63.0836047774158</v>
+        <v>62.5994694960212</v>
       </c>
       <c r="G78">
-        <v>4.36426268842462</v>
+        <v>3.79020057310525</v>
       </c>
       <c r="H78">
-        <v>921</v>
+        <v>377</v>
       </c>
       <c r="I78" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="D79">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="F79">
-        <v>57.3593073593074</v>
+        <v>28.5714285714286</v>
       </c>
       <c r="G79">
-        <v>4.16980328476335</v>
+        <v>4.28905468307688</v>
       </c>
       <c r="H79">
-        <v>1386</v>
+        <v>434</v>
       </c>
       <c r="I79" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>331</v>
+        <v>60</v>
       </c>
       <c r="D80">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="F80">
-        <v>16.3173652694611</v>
+        <v>89.7654584221748</v>
       </c>
       <c r="G80">
-        <v>5.02576326773487</v>
+        <v>2.82799410341281</v>
       </c>
       <c r="H80">
-        <v>1336</v>
+        <v>469</v>
       </c>
       <c r="I80" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="D81">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="F81">
-        <v>83.8926174496644</v>
+        <v>86.5424430641822</v>
       </c>
       <c r="G81">
-        <v>2.29987765443434</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="H81">
-        <v>1341</v>
+        <v>483</v>
       </c>
       <c r="I81" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>26775808</v>
+        <v>26581162</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="D82">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="F82">
-        <v>82.4961948249619</v>
+        <v>70.4918032786885</v>
       </c>
       <c r="G82">
-        <v>2.13840092526582</v>
+        <v>2.62871100998389</v>
       </c>
       <c r="H82">
-        <v>1314</v>
+        <v>488</v>
       </c>
       <c r="I82" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>26775808</v>
+        <v>26607397</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>47</v>
+      </c>
+      <c r="E83" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83">
+        <v>63.4715025906736</v>
+      </c>
+      <c r="G83">
+        <v>3.74626818958162</v>
+      </c>
+      <c r="H83">
         <v>386</v>
       </c>
-      <c r="D83">
-        <v>404</v>
-      </c>
-      <c r="E83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>2.86020466792871</v>
-      </c>
-      <c r="H83">
-        <v>1358</v>
-      </c>
       <c r="I83" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J83">
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>26775808</v>
+        <v>26607397</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="D84">
-        <v>452</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="F84">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>3.59764397297095</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H84">
-        <v>1250</v>
+        <v>493</v>
       </c>
       <c r="I84" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J84">
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>7216</v>
+        <v>108</v>
       </c>
       <c r="D85">
-        <v>7235</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="F85">
-        <v>7.05398680082224</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G85">
-        <v>8.78588081129575</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H85">
-        <v>27729</v>
+        <v>801</v>
       </c>
       <c r="I85" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="J85">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86">
-        <v>7794</v>
+        <v>343</v>
       </c>
       <c r="D86">
-        <v>7813</v>
+        <v>362</v>
       </c>
       <c r="E86" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="F86">
-        <v>90.8331223094454</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G86">
-        <v>1.57065421239004</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H86">
-        <v>27643</v>
+        <v>1319</v>
       </c>
       <c r="I86" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>1389</v>
+        <v>379</v>
       </c>
       <c r="D87">
-        <v>1408</v>
+        <v>398</v>
       </c>
       <c r="E87" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="F87">
-        <v>81.6615556175077</v>
+        <v>67.9021497405486</v>
       </c>
       <c r="G87">
-        <v>2.55131653128207</v>
+        <v>4.18899116697892</v>
       </c>
       <c r="H87">
-        <v>17935</v>
+        <v>1349</v>
       </c>
       <c r="I87" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88">
-        <v>1909</v>
+        <v>464</v>
       </c>
       <c r="D88">
-        <v>1928</v>
+        <v>483</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="F88">
-        <v>1.78214523650899</v>
+        <v>72.108843537415</v>
       </c>
       <c r="G88">
-        <v>6.65687768109007</v>
+        <v>3.2988062868948</v>
       </c>
       <c r="H88">
-        <v>6004</v>
+        <v>1323</v>
       </c>
       <c r="I88" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="J88">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89">
-        <v>2255</v>
+        <v>562</v>
       </c>
       <c r="D89">
-        <v>2274</v>
+        <v>581</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="F89">
-        <v>54.1853874334693</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G89">
-        <v>1.75088485980889</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H89">
-        <v>14467</v>
+        <v>438</v>
       </c>
       <c r="I89" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F90">
-        <v>71.4285714285714</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G90">
-        <v>2.91432539124929</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H90">
-        <v>532</v>
+        <v>386</v>
       </c>
       <c r="I90" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="J90">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>112</v>
+        <v>466</v>
       </c>
       <c r="D91">
-        <v>131</v>
+        <v>484</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F91">
-        <v>62.8289473684211</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G91">
-        <v>4.38155666293078</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H91">
-        <v>912</v>
+        <v>1327</v>
       </c>
       <c r="I91" t="s">
-        <v>291</v>
-      </c>
-      <c r="J91">
-        <v>68</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92">
-        <v>241</v>
+        <v>563</v>
       </c>
       <c r="D92">
-        <v>260</v>
+        <v>581</v>
       </c>
       <c r="E92" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="F92">
-        <v>19.2753623188406</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G92">
-        <v>6.17265819570612</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H92">
-        <v>1380</v>
+        <v>438</v>
       </c>
       <c r="I92" t="s">
-        <v>291</v>
-      </c>
-      <c r="J92">
-        <v>52</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93">
-        <v>272</v>
+        <v>601</v>
       </c>
       <c r="D93">
-        <v>291</v>
+        <v>618</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="F93">
-        <v>28.9645184648805</v>
+        <v>45.7943925233645</v>
       </c>
       <c r="G93">
-        <v>5.81232753140697</v>
+        <v>3.96036636906972</v>
       </c>
       <c r="H93">
-        <v>1381</v>
+        <v>535</v>
       </c>
       <c r="I93" t="s">
-        <v>291</v>
-      </c>
-      <c r="J93">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
       <c r="C94">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="D94">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="F94">
-        <v>28.9645184648805</v>
+        <v>71.5789473684211</v>
       </c>
       <c r="G94">
-        <v>5.81232753140697</v>
+        <v>2.93200291828835</v>
       </c>
       <c r="H94">
-        <v>1381</v>
+        <v>570</v>
       </c>
       <c r="I94" t="s">
-        <v>291</v>
-      </c>
-      <c r="J94">
-        <v>79</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="D95">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="E95" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F95">
-        <v>27.7213352685051</v>
+        <v>63.0836047774158</v>
       </c>
       <c r="G95">
-        <v>5.68995408300113</v>
+        <v>4.36426268842462</v>
       </c>
       <c r="H95">
-        <v>1378</v>
+        <v>921</v>
       </c>
       <c r="I95" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
       <c r="C96">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="D96">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="F96">
-        <v>84.3062926459439</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G96">
-        <v>2.9598765879773</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H96">
-        <v>1319</v>
+        <v>1386</v>
       </c>
       <c r="I96" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="D97">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="E97" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F97">
-        <v>84.5577211394303</v>
+        <v>16.3173652694611</v>
       </c>
       <c r="G97">
-        <v>1.46977716700958</v>
+        <v>5.02576326773487</v>
       </c>
       <c r="H97">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="I97" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
       <c r="C98">
-        <v>8789</v>
+        <v>346</v>
       </c>
       <c r="D98">
-        <v>8808</v>
+        <v>363</v>
       </c>
       <c r="E98" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="F98">
-        <v>58.5034013605442</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G98">
-        <v>4.83247190089833</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H98">
-        <v>5880</v>
+        <v>1341</v>
       </c>
       <c r="I98" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99">
-        <v>2571</v>
+        <v>356</v>
       </c>
       <c r="D99">
-        <v>2590</v>
+        <v>375</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="F99">
-        <v>76.3893207765093</v>
+        <v>82.4961948249619</v>
       </c>
       <c r="G99">
-        <v>2.20598040702089</v>
+        <v>2.13840092526582</v>
       </c>
       <c r="H99">
-        <v>45022</v>
+        <v>1314</v>
       </c>
       <c r="I99" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100">
-        <v>3346</v>
+        <v>386</v>
       </c>
       <c r="D100">
-        <v>3365</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="F100">
-        <v>21.9867430220499</v>
+        <v>74.2222222222222</v>
       </c>
       <c r="G100">
-        <v>5.04730808303746</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="H100">
-        <v>22177</v>
+        <v>1350</v>
       </c>
       <c r="I100" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
       <c r="C101">
-        <v>4149</v>
+        <v>436</v>
       </c>
       <c r="D101">
-        <v>4168</v>
+        <v>452</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="F101">
-        <v>72.4938271604938</v>
+        <v>57.2</v>
       </c>
       <c r="G101">
-        <v>2.75139254135397</v>
+        <v>3.59764397297095</v>
       </c>
       <c r="H101">
-        <v>4050</v>
+        <v>1250</v>
       </c>
       <c r="I101" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4298,25 +4442,28 @@
         <v>106</v>
       </c>
       <c r="C102">
-        <v>4799</v>
+        <v>7216</v>
       </c>
       <c r="D102">
-        <v>4818</v>
+        <v>7235</v>
       </c>
       <c r="E102" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F102">
-        <v>73.0409885473177</v>
+        <v>7.05398680082224</v>
       </c>
       <c r="G102">
-        <v>2.80205958033291</v>
+        <v>8.78588081129575</v>
       </c>
       <c r="H102">
-        <v>6636</v>
+        <v>27729</v>
       </c>
       <c r="I102" t="s">
-        <v>292</v>
+        <v>344</v>
+      </c>
+      <c r="J102">
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4327,25 +4474,25 @@
         <v>107</v>
       </c>
       <c r="C103">
-        <v>5970</v>
+        <v>7794</v>
       </c>
       <c r="D103">
-        <v>5989</v>
+        <v>7813</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="F103">
-        <v>85.3286816011752</v>
+        <v>90.8331223094454</v>
       </c>
       <c r="G103">
-        <v>1.89245037761505</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="H103">
-        <v>5446</v>
+        <v>27643</v>
       </c>
       <c r="I103" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4356,640 +4503,655 @@
         <v>108</v>
       </c>
       <c r="C104">
-        <v>5798</v>
+        <v>1389</v>
       </c>
       <c r="D104">
-        <v>5817</v>
+        <v>1408</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>81.6615556175077</v>
       </c>
       <c r="G104">
-        <v>6.93185922183479</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="H104">
-        <v>4915</v>
+        <v>17935</v>
       </c>
       <c r="I104" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>26939770</v>
+        <v>26796669</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
       </c>
       <c r="C105">
-        <v>98</v>
+        <v>1909</v>
       </c>
       <c r="D105">
-        <v>127</v>
+        <v>1928</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="F105">
-        <v>55.0446998722861</v>
+        <v>1.78214523650899</v>
       </c>
       <c r="G105">
-        <v>5.2490487877587</v>
+        <v>6.65687768109007</v>
       </c>
       <c r="H105">
-        <v>783</v>
+        <v>6004</v>
       </c>
       <c r="I105" t="s">
-        <v>291</v>
+        <v>345</v>
+      </c>
+      <c r="J105">
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>26939770</v>
+        <v>26796669</v>
       </c>
       <c r="B106" t="s">
         <v>110</v>
       </c>
       <c r="C106">
-        <v>312</v>
+        <v>2255</v>
       </c>
       <c r="D106">
-        <v>341</v>
+        <v>2274</v>
       </c>
       <c r="E106" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="F106">
-        <v>21.4126394052045</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G106">
-        <v>4.60505589831112</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H106">
-        <v>1345</v>
+        <v>14467</v>
       </c>
       <c r="I106" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
       <c r="C107">
-        <v>1465</v>
+        <v>79</v>
       </c>
       <c r="D107">
-        <v>1484</v>
+        <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="F107">
-        <v>68.5109699076849</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="G107">
-        <v>2.4702253659487</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="H107">
-        <v>16682</v>
+        <v>532</v>
       </c>
       <c r="I107" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="J107">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B108" t="s">
         <v>112</v>
       </c>
       <c r="C108">
-        <v>2103</v>
+        <v>112</v>
       </c>
       <c r="D108">
-        <v>2124</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="F108">
-        <v>26.0137538534503</v>
+        <v>62.8289473684211</v>
       </c>
       <c r="G108">
-        <v>4.63821755315855</v>
+        <v>4.38155666293078</v>
       </c>
       <c r="H108">
-        <v>8434</v>
+        <v>912</v>
       </c>
       <c r="I108" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J108">
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
       </c>
       <c r="C109">
-        <v>796</v>
+        <v>241</v>
       </c>
       <c r="D109">
-        <v>817</v>
+        <v>260</v>
       </c>
       <c r="E109" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="F109">
-        <v>67.0113244707041</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G109">
-        <v>2.90268267669181</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H109">
-        <v>2031</v>
+        <v>1380</v>
       </c>
       <c r="I109" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J109">
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110">
-        <v>1061</v>
+        <v>272</v>
       </c>
       <c r="D110">
-        <v>1081</v>
+        <v>291</v>
       </c>
       <c r="E110" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="F110">
-        <v>25.0320767397813</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G110">
-        <v>5.55527862724779</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H110">
-        <v>16367</v>
+        <v>1381</v>
       </c>
       <c r="I110" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J110">
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C111">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="D111">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="F111">
-        <v>55.0446998722861</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G111">
-        <v>5.2490487877587</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H111">
-        <v>783</v>
+        <v>1381</v>
       </c>
       <c r="I111" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J111">
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C112">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="D112">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="E112" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="F112">
-        <v>21.4126394052045</v>
+        <v>27.7213352685051</v>
       </c>
       <c r="G112">
-        <v>4.60505589831112</v>
+        <v>5.68995408300113</v>
       </c>
       <c r="H112">
-        <v>1345</v>
+        <v>1378</v>
       </c>
       <c r="I112" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C113">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="D113">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="E113" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F113">
-        <v>70.3252032520325</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G113">
-        <v>2.66017761804901</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H113">
-        <v>492</v>
+        <v>1319</v>
       </c>
       <c r="I113" t="s">
-        <v>291</v>
-      </c>
-      <c r="J113">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C114">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="D114">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="E114" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="F114">
-        <v>59.659511472983</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G114">
-        <v>4.20622313379339</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H114">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="I114" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C115">
-        <v>42</v>
+        <v>8789</v>
       </c>
       <c r="D115">
-        <v>64</v>
+        <v>8808</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="F115">
-        <v>28.8372093023256</v>
+        <v>58.5034013605442</v>
       </c>
       <c r="G115">
-        <v>4.27334109035607</v>
+        <v>4.83247190089833</v>
       </c>
       <c r="H115">
-        <v>430</v>
+        <v>5880</v>
       </c>
       <c r="I115" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C116">
-        <v>414</v>
+        <v>2571</v>
       </c>
       <c r="D116">
-        <v>436</v>
+        <v>2590</v>
       </c>
       <c r="E116" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="F116">
-        <v>0.0750750750750751</v>
+        <v>76.3893207765093</v>
       </c>
       <c r="G116">
-        <v>1.701342905986</v>
+        <v>2.20598040702089</v>
       </c>
       <c r="H116">
-        <v>1332</v>
+        <v>45022</v>
       </c>
       <c r="I116" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C117">
-        <v>41</v>
+        <v>3346</v>
       </c>
       <c r="D117">
-        <v>61</v>
+        <v>3365</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="F117">
-        <v>66.2817551963048</v>
+        <v>21.9867430220499</v>
       </c>
       <c r="G117">
-        <v>4.37524539435632</v>
+        <v>5.04730808303746</v>
       </c>
       <c r="H117">
-        <v>433</v>
+        <v>22177</v>
       </c>
       <c r="I117" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>4149</v>
       </c>
       <c r="D118">
-        <v>79</v>
+        <v>4168</v>
       </c>
       <c r="E118" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="F118">
-        <v>40.4710920770878</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G118">
-        <v>3.86885384896436</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H118">
-        <v>467</v>
+        <v>4050</v>
       </c>
       <c r="I118" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C119">
-        <v>107</v>
+        <v>4799</v>
       </c>
       <c r="D119">
-        <v>127</v>
+        <v>4818</v>
       </c>
       <c r="E119" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="F119">
-        <v>55.0377833753149</v>
+        <v>73.0409885473177</v>
       </c>
       <c r="G119">
-        <v>5.26257053419506</v>
+        <v>2.80205958033291</v>
       </c>
       <c r="H119">
-        <v>794</v>
+        <v>6636</v>
       </c>
       <c r="I119" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C120">
-        <v>240</v>
+        <v>5970</v>
       </c>
       <c r="D120">
-        <v>260</v>
+        <v>5989</v>
       </c>
       <c r="E120" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="F120">
-        <v>3.48583877995643</v>
+        <v>85.3286816011752</v>
       </c>
       <c r="G120">
-        <v>6.7698759592779</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="H120">
-        <v>1377</v>
+        <v>5446</v>
       </c>
       <c r="I120" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>26990633</v>
+        <v>26796669</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C121">
-        <v>271</v>
+        <v>5798</v>
       </c>
       <c r="D121">
-        <v>291</v>
+        <v>5817</v>
       </c>
       <c r="E121" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="F121">
-        <v>5.7204923968139</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>5.80365809729613</v>
+        <v>6.93185922183479</v>
       </c>
       <c r="H121">
-        <v>1381</v>
+        <v>4915</v>
       </c>
       <c r="I121" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C122">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="D122">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F122">
-        <v>57.3593073593074</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G122">
-        <v>4.16980328476335</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H122">
-        <v>1386</v>
+        <v>783</v>
       </c>
       <c r="I122" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C123">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="D123">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="F123">
-        <v>14.8286140089419</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G123">
-        <v>4.77181555488247</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H123">
-        <v>1342</v>
+        <v>801</v>
       </c>
       <c r="I123" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J123">
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C124">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D124">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="F124">
-        <v>31.6104868913858</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G124">
-        <v>5.35698143814368</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H124">
-        <v>1335</v>
+        <v>1345</v>
       </c>
       <c r="I124" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C125">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="D125">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F125">
-        <v>84.3062926459439</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G125">
-        <v>2.9598765879773</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H125">
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="I125" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4997,28 +5159,31 @@
         <v>26990633</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C126">
-        <v>353</v>
+        <v>1465</v>
       </c>
       <c r="D126">
-        <v>373</v>
+        <v>1484</v>
       </c>
       <c r="E126" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="F126">
-        <v>88.4178652535958</v>
+        <v>68.5109699076849</v>
       </c>
       <c r="G126">
-        <v>2.04604471326368</v>
+        <v>2.4702253659487</v>
       </c>
       <c r="H126">
-        <v>1321</v>
+        <v>16682</v>
       </c>
       <c r="I126" t="s">
-        <v>291</v>
+        <v>345</v>
+      </c>
+      <c r="J126">
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5026,28 +5191,28 @@
         <v>26990633</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C127">
-        <v>361</v>
+        <v>2103</v>
       </c>
       <c r="D127">
-        <v>381</v>
+        <v>2124</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="F127">
-        <v>83.0521472392638</v>
+        <v>26.0137538534503</v>
       </c>
       <c r="G127">
-        <v>2.88355234031107</v>
+        <v>4.63821755315855</v>
       </c>
       <c r="H127">
-        <v>1304</v>
+        <v>8434</v>
       </c>
       <c r="I127" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5055,28 +5220,28 @@
         <v>26990633</v>
       </c>
       <c r="B128" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C128">
-        <v>385</v>
+        <v>796</v>
       </c>
       <c r="D128">
-        <v>404</v>
+        <v>817</v>
       </c>
       <c r="E128" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="F128">
-        <v>74.2222222222222</v>
+        <v>67.0113244707041</v>
       </c>
       <c r="G128">
-        <v>3.25838907939314</v>
+        <v>2.90268267669181</v>
       </c>
       <c r="H128">
-        <v>1350</v>
+        <v>2031</v>
       </c>
       <c r="I128" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5084,28 +5249,28 @@
         <v>26990633</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C129">
-        <v>213</v>
+        <v>1061</v>
       </c>
       <c r="D129">
-        <v>233</v>
+        <v>1081</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="F129">
-        <v>2.48719824433065</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G129">
-        <v>4.61165908722239</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H129">
-        <v>1367</v>
+        <v>16367</v>
       </c>
       <c r="I129" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5113,31 +5278,28 @@
         <v>26990633</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C130">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="D130">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="E130" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G130">
-        <v>6.6245118373683</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H130">
-        <v>1373</v>
+        <v>783</v>
       </c>
       <c r="I130" t="s">
-        <v>291</v>
-      </c>
-      <c r="J130">
-        <v>55</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5145,28 +5307,28 @@
         <v>26990633</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>4294</v>
+        <v>312</v>
       </c>
       <c r="D131">
-        <v>4313</v>
+        <v>341</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G131">
-        <v>4.62131369019485</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H131">
-        <v>6372</v>
+        <v>1345</v>
       </c>
       <c r="I131" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5174,1294 +5336,2420 @@
         <v>26990633</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C132">
-        <v>4149</v>
+        <v>78</v>
       </c>
       <c r="D132">
-        <v>4168</v>
+        <v>97</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="F132">
-        <v>72.4938271604938</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G132">
-        <v>2.75139254135397</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H132">
-        <v>4050</v>
+        <v>492</v>
       </c>
       <c r="I132" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J132">
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C133">
-        <v>6244</v>
+        <v>380</v>
       </c>
       <c r="D133">
-        <v>6261</v>
+        <v>399</v>
       </c>
       <c r="E133" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="F133">
-        <v>15.5186861069214</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G133">
-        <v>7.27794197013716</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H133">
-        <v>5967</v>
+        <v>1351</v>
       </c>
       <c r="I133" t="s">
-        <v>295</v>
-      </c>
-      <c r="J133">
-        <v>54</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C134">
-        <v>7343</v>
+        <v>42</v>
       </c>
       <c r="D134">
-        <v>7362</v>
+        <v>64</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F134">
-        <v>45.3404048057149</v>
+        <v>28.8372093023256</v>
       </c>
       <c r="G134">
-        <v>5.63915036449642</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="H134">
-        <v>27717</v>
+        <v>430</v>
       </c>
       <c r="I134" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="C135">
-        <v>6793</v>
+        <v>414</v>
       </c>
       <c r="D135">
-        <v>6812</v>
+        <v>436</v>
       </c>
       <c r="E135" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F135">
-        <v>7.26041788257266</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G135">
-        <v>8.24250514482661</v>
+        <v>1.701342905986</v>
       </c>
       <c r="H135">
-        <v>34268</v>
+        <v>1332</v>
       </c>
       <c r="I135" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C136">
-        <v>7431</v>
+        <v>41</v>
       </c>
       <c r="D136">
-        <v>7450</v>
+        <v>61</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F136">
-        <v>2.11819989155973</v>
+        <v>66.2817551963048</v>
       </c>
       <c r="G136">
-        <v>10.1582510830201</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="H136">
-        <v>27665</v>
+        <v>433</v>
       </c>
       <c r="I136" t="s">
-        <v>295</v>
-      </c>
-      <c r="J136">
-        <v>65</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C137">
-        <v>7614</v>
+        <v>59</v>
       </c>
       <c r="D137">
-        <v>7633</v>
+        <v>79</v>
       </c>
       <c r="E137" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F137">
-        <v>14.2831915707685</v>
+        <v>40.4710920770878</v>
       </c>
       <c r="G137">
-        <v>9.46445437412304</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="H137">
-        <v>33977</v>
+        <v>467</v>
       </c>
       <c r="I137" t="s">
-        <v>295</v>
-      </c>
-      <c r="J137">
-        <v>80</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C138">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="D138">
-        <v>331</v>
+        <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="F138">
-        <v>21.4126394052045</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G138">
-        <v>4.60505589831112</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H138">
-        <v>1345</v>
+        <v>794</v>
       </c>
       <c r="I138" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C139">
-        <v>8513</v>
+        <v>240</v>
       </c>
       <c r="D139">
-        <v>8532</v>
+        <v>260</v>
       </c>
       <c r="E139" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="F139">
-        <v>59.2755978639424</v>
+        <v>3.48583877995643</v>
       </c>
       <c r="G139">
-        <v>3.76299227390448</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="H139">
-        <v>25842</v>
+        <v>1377</v>
       </c>
       <c r="I139" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C140">
-        <v>2255</v>
+        <v>271</v>
       </c>
       <c r="D140">
-        <v>2274</v>
+        <v>291</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="F140">
-        <v>54.1853874334693</v>
+        <v>5.7204923968139</v>
       </c>
       <c r="G140">
-        <v>1.75088485980889</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="H140">
-        <v>14467</v>
+        <v>1381</v>
       </c>
       <c r="I140" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>27194423</v>
+        <v>26990633</v>
       </c>
       <c r="B141" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C141">
-        <v>1061</v>
+        <v>289</v>
       </c>
       <c r="D141">
-        <v>1081</v>
+        <v>309</v>
       </c>
       <c r="E141" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F141">
-        <v>25.0320767397813</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G141">
-        <v>5.55527862724779</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H141">
-        <v>16367</v>
+        <v>1386</v>
       </c>
       <c r="I141" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>27194423</v>
+        <v>26990633</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C142">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="D142">
-        <v>103</v>
+        <v>332</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="F142">
-        <v>74.8760330578512</v>
+        <v>14.8286140089419</v>
       </c>
       <c r="G142">
-        <v>2.71211745502357</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="H142">
-        <v>605</v>
+        <v>1342</v>
       </c>
       <c r="I142" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>27278725</v>
+        <v>26990633</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C143">
-        <v>1188</v>
+        <v>328</v>
       </c>
       <c r="D143">
-        <v>1207</v>
+        <v>348</v>
       </c>
       <c r="E143" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="F143">
-        <v>37.1367189831115</v>
+        <v>31.6104868913858</v>
       </c>
       <c r="G143">
-        <v>5.14132162298742</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="H143">
-        <v>16757</v>
+        <v>1335</v>
       </c>
       <c r="I143" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>27278725</v>
+        <v>26990633</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C144">
-        <v>1444</v>
+        <v>342</v>
       </c>
       <c r="D144">
-        <v>1463</v>
+        <v>362</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F144">
-        <v>58.3692786963815</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G144">
-        <v>3.16737485177446</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H144">
-        <v>16692</v>
+        <v>1319</v>
       </c>
       <c r="I144" t="s">
-        <v>292</v>
-      </c>
-      <c r="J144">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>27278725</v>
+        <v>26990633</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C145">
-        <v>1617</v>
+        <v>353</v>
       </c>
       <c r="D145">
-        <v>1636</v>
+        <v>373</v>
       </c>
       <c r="E145" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="F145">
-        <v>20.9626955475331</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G145">
-        <v>4.63796524150865</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H145">
-        <v>16620</v>
+        <v>1321</v>
       </c>
       <c r="I145" t="s">
-        <v>292</v>
-      </c>
-      <c r="J145">
-        <v>83</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>27278725</v>
+        <v>26990633</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C146">
-        <v>4345</v>
+        <v>361</v>
       </c>
       <c r="D146">
-        <v>4364</v>
+        <v>381</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="F146">
-        <v>73.3260835793071</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G146">
-        <v>4.07019479287684</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H146">
-        <v>6437</v>
+        <v>1304</v>
       </c>
       <c r="I146" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>27278725</v>
+        <v>26990633</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>2861</v>
+        <v>385</v>
       </c>
       <c r="D147">
-        <v>2880</v>
+        <v>404</v>
       </c>
       <c r="E147" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="F147">
-        <v>62.7219154219636</v>
+        <v>74.2222222222222</v>
       </c>
       <c r="G147">
-        <v>3.55607171721226</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="H147">
-        <v>53962</v>
+        <v>1350</v>
       </c>
       <c r="I147" t="s">
-        <v>292</v>
-      </c>
-      <c r="J147">
-        <v>74</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>27341108</v>
+        <v>26990633</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C148">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="D148">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="F148">
-        <v>63.4715025906736</v>
+        <v>2.48719824433065</v>
       </c>
       <c r="G148">
-        <v>3.74626818958162</v>
+        <v>4.61165908722239</v>
       </c>
       <c r="H148">
-        <v>386</v>
+        <v>1367</v>
       </c>
       <c r="I148" t="s">
-        <v>291</v>
-      </c>
-      <c r="J148">
-        <v>69</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>27341108</v>
+        <v>26990633</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C149">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D149">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="E149" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F149">
-        <v>0.154918667699458</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>5.72676752736296</v>
+        <v>6.6245118373683</v>
       </c>
       <c r="H149">
-        <v>1291</v>
+        <v>1373</v>
       </c>
       <c r="I149" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J149">
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>27341108</v>
+        <v>26990633</v>
       </c>
       <c r="B150" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C150">
-        <v>241</v>
+        <v>4294</v>
       </c>
       <c r="D150">
-        <v>260</v>
+        <v>4313</v>
       </c>
       <c r="E150" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F150">
-        <v>19.2753623188406</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>6.17265819570612</v>
+        <v>4.62131369019485</v>
       </c>
       <c r="H150">
-        <v>1380</v>
+        <v>6372</v>
       </c>
       <c r="I150" t="s">
-        <v>291</v>
-      </c>
-      <c r="J150">
-        <v>52</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>27341108</v>
+        <v>26990633</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C151">
-        <v>272</v>
+        <v>4149</v>
       </c>
       <c r="D151">
+        <v>4168</v>
+      </c>
+      <c r="E151" t="s">
         <v>291</v>
       </c>
-      <c r="E151" t="s">
-        <v>274</v>
-      </c>
       <c r="F151">
-        <v>17.2338884866039</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G151">
-        <v>5.81171215849677</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H151">
-        <v>1381</v>
+        <v>4050</v>
       </c>
       <c r="I151" t="s">
-        <v>291</v>
-      </c>
-      <c r="J151">
-        <v>69</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C152">
-        <v>272</v>
+        <v>6244</v>
       </c>
       <c r="D152">
-        <v>291</v>
+        <v>6261</v>
       </c>
       <c r="E152" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="F152">
-        <v>17.2338884866039</v>
+        <v>15.5186861069214</v>
       </c>
       <c r="G152">
-        <v>5.81171215849677</v>
+        <v>7.27813169788748</v>
       </c>
       <c r="H152">
-        <v>1381</v>
+        <v>5967</v>
       </c>
       <c r="I152" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="J152">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C153">
-        <v>290</v>
+        <v>7343</v>
       </c>
       <c r="D153">
-        <v>309</v>
+        <v>7362</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="F153">
-        <v>57.3593073593074</v>
+        <v>45.3404048057149</v>
       </c>
       <c r="G153">
-        <v>4.16980328476335</v>
+        <v>5.63915036449642</v>
       </c>
       <c r="H153">
-        <v>1386</v>
+        <v>27717</v>
       </c>
       <c r="I153" t="s">
-        <v>291</v>
-      </c>
-      <c r="J153">
-        <v>72</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C154">
-        <v>329</v>
+        <v>6793</v>
       </c>
       <c r="D154">
-        <v>348</v>
+        <v>6812</v>
       </c>
       <c r="E154" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F154">
-        <v>16.2808065720687</v>
+        <v>7.26041788257266</v>
       </c>
       <c r="G154">
-        <v>5.45703316142337</v>
+        <v>8.24250514482661</v>
       </c>
       <c r="H154">
-        <v>1339</v>
+        <v>34268</v>
       </c>
       <c r="I154" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C155">
-        <v>354</v>
+        <v>7431</v>
       </c>
       <c r="D155">
-        <v>373</v>
+        <v>7450</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="F155">
-        <v>88.4178652535958</v>
+        <v>2.11819989155973</v>
       </c>
       <c r="G155">
-        <v>2.04604471326368</v>
+        <v>10.1582510830201</v>
       </c>
       <c r="H155">
-        <v>1321</v>
+        <v>27665</v>
       </c>
       <c r="I155" t="s">
-        <v>291</v>
+        <v>344</v>
+      </c>
+      <c r="J155">
+        <v>65</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C156">
-        <v>267</v>
+        <v>7614</v>
       </c>
       <c r="D156">
-        <v>388</v>
+        <v>7633</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F156">
-        <v>30.8745247148289</v>
+        <v>14.2831915707685</v>
       </c>
       <c r="G156">
-        <v>4.32263379872346</v>
+        <v>9.46445437412304</v>
       </c>
       <c r="H156">
-        <v>1315</v>
+        <v>33977</v>
       </c>
       <c r="I156" t="s">
-        <v>291</v>
+        <v>344</v>
+      </c>
+      <c r="J156">
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>27341108</v>
+        <v>27068471</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C157">
-        <v>600</v>
+        <v>312</v>
       </c>
       <c r="D157">
-        <v>619</v>
+        <v>331</v>
       </c>
       <c r="E157" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G157">
-        <v>3.95185630427735</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H157">
-        <v>534</v>
+        <v>1345</v>
       </c>
       <c r="I157" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>27404981</v>
+        <v>27068471</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C158">
-        <v>7782</v>
+        <v>8513</v>
       </c>
       <c r="D158">
-        <v>7801</v>
+        <v>8532</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="F158">
-        <v>80.1132674410216</v>
+        <v>59.2755978639424</v>
       </c>
       <c r="G158">
-        <v>2.40128407782419</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H158">
-        <v>27722</v>
+        <v>25842</v>
       </c>
       <c r="I158" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>27404981</v>
+        <v>27068471</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C159">
-        <v>465</v>
+        <v>2255</v>
       </c>
       <c r="D159">
-        <v>484</v>
+        <v>2274</v>
       </c>
       <c r="E159" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="F159">
-        <v>68.2743029389601</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G159">
-        <v>2.61531160191328</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H159">
-        <v>1327</v>
+        <v>14467</v>
       </c>
       <c r="I159" t="s">
-        <v>291</v>
-      </c>
-      <c r="J159">
-        <v>67</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>27404981</v>
+        <v>27194423</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C160">
-        <v>474</v>
+        <v>1061</v>
       </c>
       <c r="D160">
-        <v>493</v>
+        <v>1081</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F160">
-        <v>72.2727272727273</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G160">
-        <v>2.38177147283091</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H160">
-        <v>1320</v>
+        <v>16367</v>
       </c>
       <c r="I160" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>27404981</v>
+        <v>27194423</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C161">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="D161">
-        <v>504</v>
+        <v>103</v>
       </c>
       <c r="E161" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F161">
-        <v>45.9398496240602</v>
+        <v>74.8760330578512</v>
       </c>
       <c r="G161">
-        <v>2.90589524192873</v>
+        <v>2.71211745502357</v>
       </c>
       <c r="H161">
-        <v>1330</v>
+        <v>605</v>
       </c>
       <c r="I161" t="s">
-        <v>291</v>
-      </c>
-      <c r="J161">
-        <v>78</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>27404981</v>
+        <v>27278725</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C162">
-        <v>415</v>
+        <v>1188</v>
       </c>
       <c r="D162">
-        <v>434</v>
+        <v>1207</v>
       </c>
       <c r="E162" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="F162">
-        <v>84.5577211394303</v>
+        <v>37.1367189831115</v>
       </c>
       <c r="G162">
-        <v>1.46977716700958</v>
+        <v>5.14132162298742</v>
       </c>
       <c r="H162">
-        <v>1334</v>
+        <v>16757</v>
       </c>
       <c r="I162" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>27404981</v>
+        <v>27278725</v>
       </c>
       <c r="B163" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C163">
-        <v>434</v>
+        <v>1444</v>
       </c>
       <c r="D163">
-        <v>453</v>
+        <v>1463</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="F163">
-        <v>76.0608486789431</v>
+        <v>58.3692786963815</v>
       </c>
       <c r="G163">
-        <v>3.58521769673978</v>
+        <v>3.16737485177446</v>
       </c>
       <c r="H163">
-        <v>1249</v>
+        <v>16692</v>
       </c>
       <c r="I163" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="J163">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>27974196</v>
+        <v>27278725</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C164">
-        <v>7794</v>
+        <v>1617</v>
       </c>
       <c r="D164">
-        <v>7813</v>
+        <v>1636</v>
       </c>
       <c r="E164" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="F164">
-        <v>90.8331223094454</v>
+        <v>20.9626955475331</v>
       </c>
       <c r="G164">
-        <v>1.57065421239004</v>
+        <v>4.63796524150865</v>
       </c>
       <c r="H164">
-        <v>27643</v>
+        <v>16620</v>
       </c>
       <c r="I164" t="s">
-        <v>295</v>
+        <v>345</v>
+      </c>
+      <c r="J164">
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>27974196</v>
+        <v>27278725</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C165">
-        <v>1389</v>
+        <v>4345</v>
       </c>
       <c r="D165">
-        <v>1408</v>
+        <v>4364</v>
       </c>
       <c r="E165" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="F165">
-        <v>81.6615556175077</v>
+        <v>73.3260835793071</v>
       </c>
       <c r="G165">
-        <v>2.55131653128207</v>
+        <v>4.07019479287684</v>
       </c>
       <c r="H165">
-        <v>17935</v>
+        <v>6437</v>
       </c>
       <c r="I165" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>27974196</v>
+        <v>27278725</v>
       </c>
       <c r="B166" t="s">
         <v>151</v>
       </c>
       <c r="C166">
-        <v>1483</v>
+        <v>2861</v>
       </c>
       <c r="D166">
-        <v>1502</v>
+        <v>2880</v>
       </c>
       <c r="E166" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="F166">
-        <v>84.8453978906999</v>
+        <v>62.7219154219636</v>
       </c>
       <c r="G166">
-        <v>1.36685241548561</v>
+        <v>3.55607171721226</v>
       </c>
       <c r="H166">
-        <v>16688</v>
+        <v>53962</v>
       </c>
       <c r="I166" t="s">
-        <v>292</v>
+        <v>345</v>
+      </c>
+      <c r="J166">
+        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>27974196</v>
+        <v>27278725</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="C167">
-        <v>1827</v>
+        <v>465</v>
       </c>
       <c r="D167">
-        <v>1846</v>
+        <v>484</v>
       </c>
       <c r="E167" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F167">
-        <v>71.2031047865459</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G167">
-        <v>2.22013327339172</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H167">
-        <v>7730</v>
+        <v>1327</v>
       </c>
       <c r="I167" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J167">
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B168" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C168">
-        <v>2255</v>
+        <v>28</v>
       </c>
       <c r="D168">
-        <v>2274</v>
+        <v>47</v>
       </c>
       <c r="E168" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="F168">
-        <v>54.1853874334693</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G168">
-        <v>1.75088485980889</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H168">
-        <v>14467</v>
+        <v>386</v>
       </c>
       <c r="I168" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J168">
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B169" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C169">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="D169">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="E169" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.154918667699458</v>
       </c>
       <c r="G169">
-        <v>5.53071044204601</v>
+        <v>5.72676752736296</v>
       </c>
       <c r="H169">
-        <v>411</v>
+        <v>1291</v>
       </c>
       <c r="I169" t="s">
-        <v>291</v>
-      </c>
-      <c r="J169">
-        <v>76</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C170">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D170">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="E170" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="F170">
-        <v>71.4285714285714</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G170">
-        <v>2.91432539124929</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H170">
-        <v>532</v>
+        <v>1380</v>
       </c>
       <c r="I170" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="J170">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C171">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="D171">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="E171" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="F171">
-        <v>84.5577211394303</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G171">
-        <v>1.46977716700958</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H171">
-        <v>1334</v>
+        <v>1381</v>
       </c>
       <c r="I171" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J171">
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B172" t="s">
         <v>155</v>
       </c>
       <c r="C172">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="D172">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="E172" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G172">
-        <v>7.10563080535681</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H172">
-        <v>822</v>
+        <v>1381</v>
       </c>
       <c r="I172" t="s">
-        <v>291</v>
+        <v>343</v>
+      </c>
+      <c r="J172">
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>27974196</v>
+        <v>27341108</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C173">
-        <v>4149</v>
+        <v>290</v>
       </c>
       <c r="D173">
-        <v>4168</v>
+        <v>309</v>
       </c>
       <c r="E173" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="F173">
-        <v>72.4938271604938</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G173">
-        <v>2.75139254135397</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H173">
-        <v>4050</v>
+        <v>1386</v>
       </c>
       <c r="I173" t="s">
-        <v>292</v>
+        <v>343</v>
+      </c>
+      <c r="J173">
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
+        <v>27341108</v>
+      </c>
+      <c r="B174" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174">
+        <v>329</v>
+      </c>
+      <c r="D174">
+        <v>348</v>
+      </c>
+      <c r="E174" t="s">
+        <v>319</v>
+      </c>
+      <c r="F174">
+        <v>16.2808065720687</v>
+      </c>
+      <c r="G174">
+        <v>5.45703316142337</v>
+      </c>
+      <c r="H174">
+        <v>1339</v>
+      </c>
+      <c r="I174" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>27341108</v>
+      </c>
+      <c r="B175" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175">
+        <v>354</v>
+      </c>
+      <c r="D175">
+        <v>373</v>
+      </c>
+      <c r="E175" t="s">
+        <v>320</v>
+      </c>
+      <c r="F175">
+        <v>88.4178652535958</v>
+      </c>
+      <c r="G175">
+        <v>2.04604471326368</v>
+      </c>
+      <c r="H175">
+        <v>1321</v>
+      </c>
+      <c r="I175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>27341108</v>
+      </c>
+      <c r="B176" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176">
+        <v>267</v>
+      </c>
+      <c r="D176">
+        <v>388</v>
+      </c>
+      <c r="E176" t="s">
+        <v>321</v>
+      </c>
+      <c r="F176">
+        <v>30.8745247148289</v>
+      </c>
+      <c r="G176">
+        <v>4.32263379872346</v>
+      </c>
+      <c r="H176">
+        <v>1315</v>
+      </c>
+      <c r="I176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>27341108</v>
+      </c>
+      <c r="B177" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177">
+        <v>600</v>
+      </c>
+      <c r="D177">
+        <v>619</v>
+      </c>
+      <c r="E177" t="s">
+        <v>322</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>3.95185630427735</v>
+      </c>
+      <c r="H177">
+        <v>534</v>
+      </c>
+      <c r="I177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>27404981</v>
+      </c>
+      <c r="B178" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178">
+        <v>7782</v>
+      </c>
+      <c r="D178">
+        <v>7801</v>
+      </c>
+      <c r="E178" t="s">
+        <v>323</v>
+      </c>
+      <c r="F178">
+        <v>80.1132674410216</v>
+      </c>
+      <c r="G178">
+        <v>2.40128407782419</v>
+      </c>
+      <c r="H178">
+        <v>27722</v>
+      </c>
+      <c r="I178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>27404981</v>
+      </c>
+      <c r="B179" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179">
+        <v>465</v>
+      </c>
+      <c r="D179">
+        <v>484</v>
+      </c>
+      <c r="E179" t="s">
+        <v>186</v>
+      </c>
+      <c r="F179">
+        <v>68.2743029389601</v>
+      </c>
+      <c r="G179">
+        <v>2.61531160191328</v>
+      </c>
+      <c r="H179">
+        <v>1327</v>
+      </c>
+      <c r="I179" t="s">
+        <v>343</v>
+      </c>
+      <c r="J179">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>27404981</v>
+      </c>
+      <c r="B180" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180">
+        <v>474</v>
+      </c>
+      <c r="D180">
+        <v>493</v>
+      </c>
+      <c r="E180" t="s">
+        <v>324</v>
+      </c>
+      <c r="F180">
+        <v>72.2727272727273</v>
+      </c>
+      <c r="G180">
+        <v>2.38177147283091</v>
+      </c>
+      <c r="H180">
+        <v>1320</v>
+      </c>
+      <c r="I180" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>27404981</v>
+      </c>
+      <c r="B181" t="s">
+        <v>164</v>
+      </c>
+      <c r="C181">
+        <v>485</v>
+      </c>
+      <c r="D181">
+        <v>504</v>
+      </c>
+      <c r="E181" t="s">
+        <v>325</v>
+      </c>
+      <c r="F181">
+        <v>45.9398496240602</v>
+      </c>
+      <c r="G181">
+        <v>2.90589524192873</v>
+      </c>
+      <c r="H181">
+        <v>1330</v>
+      </c>
+      <c r="I181" t="s">
+        <v>343</v>
+      </c>
+      <c r="J181">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>27404981</v>
+      </c>
+      <c r="B182" t="s">
+        <v>165</v>
+      </c>
+      <c r="C182">
+        <v>415</v>
+      </c>
+      <c r="D182">
+        <v>434</v>
+      </c>
+      <c r="E182" t="s">
+        <v>287</v>
+      </c>
+      <c r="F182">
+        <v>84.5577211394303</v>
+      </c>
+      <c r="G182">
+        <v>1.46977716700958</v>
+      </c>
+      <c r="H182">
+        <v>1334</v>
+      </c>
+      <c r="I182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>27404981</v>
+      </c>
+      <c r="B183" t="s">
+        <v>166</v>
+      </c>
+      <c r="C183">
+        <v>434</v>
+      </c>
+      <c r="D183">
+        <v>453</v>
+      </c>
+      <c r="E183" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183">
+        <v>76.0608486789431</v>
+      </c>
+      <c r="G183">
+        <v>3.58521769673978</v>
+      </c>
+      <c r="H183">
+        <v>1249</v>
+      </c>
+      <c r="I183" t="s">
+        <v>343</v>
+      </c>
+      <c r="J183">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>27528385</v>
+      </c>
+      <c r="B184" t="s">
+        <v>125</v>
+      </c>
+      <c r="C184">
+        <v>108</v>
+      </c>
+      <c r="D184">
+        <v>127</v>
+      </c>
+      <c r="E184" t="s">
+        <v>264</v>
+      </c>
+      <c r="F184">
+        <v>54.9313358302122</v>
+      </c>
+      <c r="G184">
+        <v>5.27346382403279</v>
+      </c>
+      <c r="H184">
+        <v>801</v>
+      </c>
+      <c r="I184" t="s">
+        <v>343</v>
+      </c>
+      <c r="J184">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>27528385</v>
+      </c>
+      <c r="B185" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185">
+        <v>312</v>
+      </c>
+      <c r="D185">
+        <v>331</v>
+      </c>
+      <c r="E185" t="s">
+        <v>296</v>
+      </c>
+      <c r="F185">
+        <v>21.4126394052045</v>
+      </c>
+      <c r="G185">
+        <v>4.60505589831112</v>
+      </c>
+      <c r="H185">
+        <v>1345</v>
+      </c>
+      <c r="I185" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
         <v>27974196</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B186" t="s">
         <v>107</v>
       </c>
-      <c r="C174">
+      <c r="C186">
+        <v>7794</v>
+      </c>
+      <c r="D186">
+        <v>7813</v>
+      </c>
+      <c r="E186" t="s">
+        <v>279</v>
+      </c>
+      <c r="F186">
+        <v>90.8331223094454</v>
+      </c>
+      <c r="G186">
+        <v>1.57065421239004</v>
+      </c>
+      <c r="H186">
+        <v>27643</v>
+      </c>
+      <c r="I186" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>27974196</v>
+      </c>
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+      <c r="C187">
+        <v>1389</v>
+      </c>
+      <c r="D187">
+        <v>1408</v>
+      </c>
+      <c r="E187" t="s">
+        <v>280</v>
+      </c>
+      <c r="F187">
+        <v>81.6615556175077</v>
+      </c>
+      <c r="G187">
+        <v>2.55131653128207</v>
+      </c>
+      <c r="H187">
+        <v>17935</v>
+      </c>
+      <c r="I187" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>27974196</v>
+      </c>
+      <c r="B188" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188">
+        <v>1483</v>
+      </c>
+      <c r="D188">
+        <v>1502</v>
+      </c>
+      <c r="E188" t="s">
+        <v>327</v>
+      </c>
+      <c r="F188">
+        <v>84.8453978906999</v>
+      </c>
+      <c r="G188">
+        <v>1.36685241548561</v>
+      </c>
+      <c r="H188">
+        <v>16688</v>
+      </c>
+      <c r="I188" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>27974196</v>
+      </c>
+      <c r="B189" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189">
+        <v>1827</v>
+      </c>
+      <c r="D189">
+        <v>1846</v>
+      </c>
+      <c r="E189" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189">
+        <v>71.2031047865459</v>
+      </c>
+      <c r="G189">
+        <v>2.22013327339172</v>
+      </c>
+      <c r="H189">
+        <v>7730</v>
+      </c>
+      <c r="I189" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>27974196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>110</v>
+      </c>
+      <c r="C190">
+        <v>2255</v>
+      </c>
+      <c r="D190">
+        <v>2274</v>
+      </c>
+      <c r="E190" t="s">
+        <v>217</v>
+      </c>
+      <c r="F190">
+        <v>54.1853874334693</v>
+      </c>
+      <c r="G190">
+        <v>1.75088485980889</v>
+      </c>
+      <c r="H190">
+        <v>14467</v>
+      </c>
+      <c r="I190" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>27974196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>111</v>
+      </c>
+      <c r="C191">
+        <v>79</v>
+      </c>
+      <c r="D191">
+        <v>98</v>
+      </c>
+      <c r="E191" t="s">
+        <v>282</v>
+      </c>
+      <c r="F191">
+        <v>71.4285714285714</v>
+      </c>
+      <c r="G191">
+        <v>2.91432539124929</v>
+      </c>
+      <c r="H191">
+        <v>532</v>
+      </c>
+      <c r="I191" t="s">
+        <v>343</v>
+      </c>
+      <c r="J191">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>27974196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>117</v>
+      </c>
+      <c r="C192">
+        <v>415</v>
+      </c>
+      <c r="D192">
+        <v>434</v>
+      </c>
+      <c r="E192" t="s">
+        <v>287</v>
+      </c>
+      <c r="F192">
+        <v>84.5577211394303</v>
+      </c>
+      <c r="G192">
+        <v>1.46977716700958</v>
+      </c>
+      <c r="H192">
+        <v>1334</v>
+      </c>
+      <c r="I192" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>27974196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>169</v>
+      </c>
+      <c r="C193">
+        <v>379</v>
+      </c>
+      <c r="D193">
+        <v>398</v>
+      </c>
+      <c r="E193" t="s">
+        <v>265</v>
+      </c>
+      <c r="F193">
+        <v>67.9021497405486</v>
+      </c>
+      <c r="G193">
+        <v>4.18899116697892</v>
+      </c>
+      <c r="H193">
+        <v>1349</v>
+      </c>
+      <c r="I193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>27974196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>121</v>
+      </c>
+      <c r="C194">
+        <v>4149</v>
+      </c>
+      <c r="D194">
+        <v>4168</v>
+      </c>
+      <c r="E194" t="s">
+        <v>291</v>
+      </c>
+      <c r="F194">
+        <v>72.4938271604938</v>
+      </c>
+      <c r="G194">
+        <v>2.75139254135397</v>
+      </c>
+      <c r="H194">
+        <v>4050</v>
+      </c>
+      <c r="I194" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>27974196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>123</v>
+      </c>
+      <c r="C195">
         <v>5970</v>
       </c>
-      <c r="D174">
+      <c r="D195">
         <v>5989</v>
       </c>
-      <c r="E174" t="s">
-        <v>290</v>
-      </c>
-      <c r="F174">
+      <c r="E195" t="s">
+        <v>293</v>
+      </c>
+      <c r="F195">
         <v>85.3286816011752</v>
       </c>
-      <c r="G174">
+      <c r="G195">
         <v>1.89245037761505</v>
       </c>
-      <c r="H174">
+      <c r="H195">
         <v>5446</v>
       </c>
-      <c r="I174" t="s">
-        <v>297</v>
+      <c r="I195" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>28176813</v>
+      </c>
+      <c r="B196" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196">
+        <v>4256</v>
+      </c>
+      <c r="D196">
+        <v>4275</v>
+      </c>
+      <c r="E196" t="s">
+        <v>329</v>
+      </c>
+      <c r="F196">
+        <v>5.69450998898852</v>
+      </c>
+      <c r="G196">
+        <v>5.10637089313025</v>
+      </c>
+      <c r="H196">
+        <v>6357</v>
+      </c>
+      <c r="I196" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>28176813</v>
+      </c>
+      <c r="B197" t="s">
+        <v>170</v>
+      </c>
+      <c r="C197">
+        <v>4383</v>
+      </c>
+      <c r="D197">
+        <v>4402</v>
+      </c>
+      <c r="E197" t="s">
+        <v>220</v>
+      </c>
+      <c r="F197">
+        <v>72.9842446709917</v>
+      </c>
+      <c r="G197">
+        <v>2.35872624395286</v>
+      </c>
+      <c r="H197">
+        <v>6474</v>
+      </c>
+      <c r="I197" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>28176813</v>
+      </c>
+      <c r="B198" t="s">
+        <v>171</v>
+      </c>
+      <c r="C198">
+        <v>4500</v>
+      </c>
+      <c r="D198">
+        <v>4519</v>
+      </c>
+      <c r="E198" t="s">
+        <v>330</v>
+      </c>
+      <c r="F198">
+        <v>14.4905195005395</v>
+      </c>
+      <c r="G198">
+        <v>3.73162674282425</v>
+      </c>
+      <c r="H198">
+        <v>6487</v>
+      </c>
+      <c r="I198" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199">
+        <v>28176813</v>
+      </c>
+      <c r="B199" t="s">
+        <v>172</v>
+      </c>
+      <c r="C199">
+        <v>4597</v>
+      </c>
+      <c r="D199">
+        <v>4616</v>
+      </c>
+      <c r="E199" t="s">
+        <v>331</v>
+      </c>
+      <c r="F199">
+        <v>3.58637178720861</v>
+      </c>
+      <c r="G199">
+        <v>6.45036784812112</v>
+      </c>
+      <c r="H199">
+        <v>6692</v>
+      </c>
+      <c r="I199" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>28176813</v>
+      </c>
+      <c r="B200" t="s">
+        <v>173</v>
+      </c>
+      <c r="C200">
+        <v>4553</v>
+      </c>
+      <c r="D200">
+        <v>4572</v>
+      </c>
+      <c r="E200" t="s">
+        <v>332</v>
+      </c>
+      <c r="F200">
+        <v>0.169622205088666</v>
+      </c>
+      <c r="G200">
+        <v>3.51284873138832</v>
+      </c>
+      <c r="H200">
+        <v>6485</v>
+      </c>
+      <c r="I200" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201">
+        <v>28176813</v>
+      </c>
+      <c r="B201" t="s">
+        <v>174</v>
+      </c>
+      <c r="C201">
+        <v>389</v>
+      </c>
+      <c r="D201">
+        <v>408</v>
+      </c>
+      <c r="E201" t="s">
+        <v>333</v>
+      </c>
+      <c r="F201">
+        <v>70.5794947994057</v>
+      </c>
+      <c r="G201">
+        <v>2.90839169635122</v>
+      </c>
+      <c r="H201">
+        <v>1346</v>
+      </c>
+      <c r="I201" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202">
+        <v>28176813</v>
+      </c>
+      <c r="B202" t="s">
+        <v>175</v>
+      </c>
+      <c r="C202">
+        <v>463</v>
+      </c>
+      <c r="D202">
+        <v>482</v>
+      </c>
+      <c r="E202" t="s">
+        <v>334</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>3.02804295570901</v>
+      </c>
+      <c r="H202">
+        <v>1322</v>
+      </c>
+      <c r="I202" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203">
+        <v>28176813</v>
+      </c>
+      <c r="B203" t="s">
+        <v>176</v>
+      </c>
+      <c r="C203">
+        <v>815</v>
+      </c>
+      <c r="D203">
+        <v>834</v>
+      </c>
+      <c r="E203" t="s">
+        <v>335</v>
+      </c>
+      <c r="F203">
+        <v>1.58102766798419</v>
+      </c>
+      <c r="G203">
+        <v>4.75599372639256</v>
+      </c>
+      <c r="H203">
+        <v>6325</v>
+      </c>
+      <c r="I203" t="s">
+        <v>345</v>
+      </c>
+      <c r="J203">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204">
+        <v>28176813</v>
+      </c>
+      <c r="B204" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204">
+        <v>2374</v>
+      </c>
+      <c r="D204">
+        <v>2393</v>
+      </c>
+      <c r="E204" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204">
+        <v>73.3619214351752</v>
+      </c>
+      <c r="G204">
+        <v>3.31899309585453</v>
+      </c>
+      <c r="H204">
+        <v>50837</v>
+      </c>
+      <c r="I204" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205">
+        <v>28176813</v>
+      </c>
+      <c r="B205" t="s">
+        <v>178</v>
+      </c>
+      <c r="C205">
+        <v>2463</v>
+      </c>
+      <c r="D205">
+        <v>2482</v>
+      </c>
+      <c r="E205" t="s">
+        <v>336</v>
+      </c>
+      <c r="F205">
+        <v>60.0215961519584</v>
+      </c>
+      <c r="G205">
+        <v>4.32617782343845</v>
+      </c>
+      <c r="H205">
+        <v>50935</v>
+      </c>
+      <c r="I205" t="s">
+        <v>345</v>
+      </c>
+      <c r="J205">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206">
+        <v>28176813</v>
+      </c>
+      <c r="B206" t="s">
+        <v>179</v>
+      </c>
+      <c r="C206">
+        <v>2310</v>
+      </c>
+      <c r="D206">
+        <v>2329</v>
+      </c>
+      <c r="E206" t="s">
+        <v>337</v>
+      </c>
+      <c r="F206">
+        <v>0.0340483486550902</v>
+      </c>
+      <c r="G206">
+        <v>4.33482735941699</v>
+      </c>
+      <c r="H206">
+        <v>49929</v>
+      </c>
+      <c r="I206" t="s">
+        <v>345</v>
+      </c>
+      <c r="J206">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207">
+        <v>28176813</v>
+      </c>
+      <c r="B207" t="s">
+        <v>180</v>
+      </c>
+      <c r="C207">
+        <v>2303</v>
+      </c>
+      <c r="D207">
+        <v>2322</v>
+      </c>
+      <c r="E207" t="s">
+        <v>338</v>
+      </c>
+      <c r="F207">
+        <v>1.50388033294463</v>
+      </c>
+      <c r="G207">
+        <v>5.32333303993189</v>
+      </c>
+      <c r="H207">
+        <v>49738</v>
+      </c>
+      <c r="I207" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208">
+        <v>28176813</v>
+      </c>
+      <c r="B208" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208">
+        <v>2312</v>
+      </c>
+      <c r="D208">
+        <v>2331</v>
+      </c>
+      <c r="E208" t="s">
+        <v>339</v>
+      </c>
+      <c r="F208">
+        <v>2.12591332198979</v>
+      </c>
+      <c r="G208">
+        <v>2.83813039446907</v>
+      </c>
+      <c r="H208">
+        <v>49955</v>
+      </c>
+      <c r="I208" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>28176813</v>
+      </c>
+      <c r="B209" t="s">
+        <v>182</v>
+      </c>
+      <c r="C209">
+        <v>2662</v>
+      </c>
+      <c r="D209">
+        <v>2681</v>
+      </c>
+      <c r="E209" t="s">
+        <v>340</v>
+      </c>
+      <c r="F209">
+        <v>37.6439855191706</v>
+      </c>
+      <c r="G209">
+        <v>4.55593086049363</v>
+      </c>
+      <c r="H209">
+        <v>48616</v>
+      </c>
+      <c r="I209" t="s">
+        <v>345</v>
+      </c>
+      <c r="J209">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>28176813</v>
+      </c>
+      <c r="B210" t="s">
+        <v>183</v>
+      </c>
+      <c r="C210">
+        <v>2706</v>
+      </c>
+      <c r="D210">
+        <v>2725</v>
+      </c>
+      <c r="E210" t="s">
+        <v>341</v>
+      </c>
+      <c r="F210">
+        <v>75.259476534296</v>
+      </c>
+      <c r="G210">
+        <v>2.21640277623157</v>
+      </c>
+      <c r="H210">
+        <v>53184</v>
+      </c>
+      <c r="I210" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211">
+        <v>28176813</v>
+      </c>
+      <c r="B211" t="s">
+        <v>184</v>
+      </c>
+      <c r="C211">
+        <v>2805</v>
+      </c>
+      <c r="D211">
+        <v>2824</v>
+      </c>
+      <c r="E211" t="s">
+        <v>218</v>
+      </c>
+      <c r="F211">
+        <v>62.5261753423642</v>
+      </c>
+      <c r="G211">
+        <v>3.47312087356067</v>
+      </c>
+      <c r="H211">
+        <v>53963</v>
+      </c>
+      <c r="I211" t="s">
+        <v>345</v>
+      </c>
+      <c r="J211">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212">
+        <v>28176813</v>
+      </c>
+      <c r="B212" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212">
+        <v>3061</v>
+      </c>
+      <c r="D212">
+        <v>3080</v>
+      </c>
+      <c r="E212" t="s">
+        <v>342</v>
+      </c>
+      <c r="F212">
+        <v>2.1894041102964</v>
+      </c>
+      <c r="G212">
+        <v>5.28914209260986</v>
+      </c>
+      <c r="H212">
+        <v>9683</v>
+      </c>
+      <c r="I212" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/results/SupTable1.xlsx
+++ b/results/SupTable1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="440">
   <si>
     <t>Citation</t>
   </si>
@@ -46,6 +46,9 @@
     <t>MIT Score</t>
   </si>
   <si>
+    <t>AS75</t>
+  </si>
+  <si>
     <t>T5</t>
   </si>
   <si>
@@ -1067,6 +1070,270 @@
   </si>
   <si>
     <t>Vpr</t>
+  </si>
+  <si>
+    <t>0.393675595238</t>
+  </si>
+  <si>
+    <t>0.36125</t>
+  </si>
+  <si>
+    <t>0.211839430894</t>
+  </si>
+  <si>
+    <t>0.503571428571</t>
+  </si>
+  <si>
+    <t>0.434821428571</t>
+  </si>
+  <si>
+    <t>0.089897260274</t>
+  </si>
+  <si>
+    <t>0.682060027285</t>
+  </si>
+  <si>
+    <t>0.0237962962963</t>
+  </si>
+  <si>
+    <t>0.511829268293</t>
+  </si>
+  <si>
+    <t>0.681315651261</t>
+  </si>
+  <si>
+    <t>0.0898658906883</t>
+  </si>
+  <si>
+    <t>0.00597786315404</t>
+  </si>
+  <si>
+    <t>0.804779108175</t>
+  </si>
+  <si>
+    <t>0.552272727273</t>
+  </si>
+  <si>
+    <t>0.179738180319</t>
+  </si>
+  <si>
+    <t>0.376573769207</t>
+  </si>
+  <si>
+    <t>0.396176359517</t>
+  </si>
+  <si>
+    <t>0.287851405622</t>
+  </si>
+  <si>
+    <t>0.629771784232</t>
+  </si>
+  <si>
+    <t>0.876060411311</t>
+  </si>
+  <si>
+    <t>0.264642857143</t>
+  </si>
+  <si>
+    <t>0.172697368421</t>
+  </si>
+  <si>
+    <t>0.360833333333</t>
+  </si>
+  <si>
+    <t>0.00518585131894</t>
+  </si>
+  <si>
+    <t>0.0415655339806</t>
+  </si>
+  <si>
+    <t>0.211989795918</t>
+  </si>
+  <si>
+    <t>0.267736486486</t>
+  </si>
+  <si>
+    <t>0.529583333333</t>
+  </si>
+  <si>
+    <t>0.13375</t>
+  </si>
+  <si>
+    <t>0.441369047619</t>
+  </si>
+  <si>
+    <t>0.419473684211</t>
+  </si>
+  <si>
+    <t>0.192380952381</t>
+  </si>
+  <si>
+    <t>0.0526141826923</t>
+  </si>
+  <si>
+    <t>0.068893129771</t>
+  </si>
+  <si>
+    <t>0.1794921875</t>
+  </si>
+  <si>
+    <t>0.126613849765</t>
+  </si>
+  <si>
+    <t>0.122715053763</t>
+  </si>
+  <si>
+    <t>0.556870487365</t>
+  </si>
+  <si>
+    <t>0.0589427312775</t>
+  </si>
+  <si>
+    <t>0.53125</t>
+  </si>
+  <si>
+    <t>0.263732394366</t>
+  </si>
+  <si>
+    <t>0.507142857143</t>
+  </si>
+  <si>
+    <t>0.300892857143</t>
+  </si>
+  <si>
+    <t>0.362083333333</t>
+  </si>
+  <si>
+    <t>0.674174528302</t>
+  </si>
+  <si>
+    <t>0.291628440367</t>
+  </si>
+  <si>
+    <t>0.554842342342</t>
+  </si>
+  <si>
+    <t>0.583974358974</t>
+  </si>
+  <si>
+    <t>0.421184210526</t>
+  </si>
+  <si>
+    <t>0.62875</t>
+  </si>
+  <si>
+    <t>0.55625</t>
+  </si>
+  <si>
+    <t>0.896200696056</t>
+  </si>
+  <si>
+    <t>0.0657040572792</t>
+  </si>
+  <si>
+    <t>0.582857142857</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.116982758621</t>
+  </si>
+  <si>
+    <t>0.0876126126126</t>
+  </si>
+  <si>
+    <t>0.158267716535</t>
+  </si>
+  <si>
+    <t>0.0490326821938</t>
+  </si>
+  <si>
+    <t>0.621617647059</t>
+  </si>
+  <si>
+    <t>0.835129740519</t>
+  </si>
+  <si>
+    <t>0.361661931818</t>
+  </si>
+  <si>
+    <t>0.627151589242</t>
+  </si>
+  <si>
+    <t>0.100767727527</t>
+  </si>
+  <si>
+    <t>0.5111875</t>
+  </si>
+  <si>
+    <t>0.331650174622</t>
+  </si>
+  <si>
+    <t>0.06328125</t>
+  </si>
+  <si>
+    <t>0.0899143835616</t>
+  </si>
+  <si>
+    <t>0.154715737952</t>
+  </si>
+  <si>
+    <t>0.179707256734</t>
+  </si>
+  <si>
+    <t>0.891346153846</t>
+  </si>
+  <si>
+    <t>0.448158352668</t>
+  </si>
+  <si>
+    <t>0.375850582917</t>
+  </si>
+  <si>
+    <t>0.184857780257</t>
+  </si>
+  <si>
+    <t>0.840271618625</t>
+  </si>
+  <si>
+    <t>0.187987325525</t>
+  </si>
+  <si>
+    <t>6.25e-05</t>
+  </si>
+  <si>
+    <t>0.121822033898</t>
+  </si>
+  <si>
+    <t>0.105822981366</t>
+  </si>
+  <si>
+    <t>0.2625</t>
+  </si>
+  <si>
+    <t>0.395535714286</t>
+  </si>
+  <si>
+    <t>0.353620218579</t>
+  </si>
+  <si>
+    <t>0.857123655914</t>
+  </si>
+  <si>
+    <t>0.398884615385</t>
+  </si>
+  <si>
+    <t>0.0453947368421</t>
+  </si>
+  <si>
+    <t>0.174404761905</t>
+  </si>
+  <si>
+    <t>0.582284768212</t>
+  </si>
+  <si>
+    <t>0.323399811905</t>
   </si>
 </sst>
 </file>
@@ -1424,13 +1691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,13 +1728,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>23974631</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>465</v>
@@ -1476,7 +1746,7 @@
         <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F2">
         <v>68.2743029389601</v>
@@ -1488,18 +1758,21 @@
         <v>1327</v>
       </c>
       <c r="I2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J2">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>23974631</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>343</v>
@@ -1508,7 +1781,7 @@
         <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>84.3062926459439</v>
@@ -1520,15 +1793,18 @@
         <v>1319</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>25049410</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>98</v>
@@ -1537,7 +1813,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>55.0446998722861</v>
@@ -1549,15 +1825,18 @@
         <v>783</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>25049410</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>312</v>
@@ -1566,7 +1845,7 @@
         <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F5">
         <v>21.4126394052045</v>
@@ -1578,15 +1857,18 @@
         <v>1345</v>
       </c>
       <c r="I5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>25049410</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -1595,7 +1877,7 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F6">
         <v>70.3252032520325</v>
@@ -1607,18 +1889,21 @@
         <v>492</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J6">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>25049410</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>380</v>
@@ -1627,7 +1912,7 @@
         <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F7">
         <v>59.659511472983</v>
@@ -1639,15 +1924,18 @@
         <v>1351</v>
       </c>
       <c r="I7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>25752527</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>6242</v>
@@ -1656,7 +1944,7 @@
         <v>6261</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8">
         <v>15.5212872946698</v>
@@ -1668,18 +1956,21 @@
         <v>5966</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>25752527</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>6326</v>
@@ -1688,7 +1979,7 @@
         <v>6345</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9">
         <v>69.8326055312955</v>
@@ -1700,18 +1991,21 @@
         <v>24732</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J9">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>25752527</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>7343</v>
@@ -1720,7 +2014,7 @@
         <v>7362</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10">
         <v>45.3404048057149</v>
@@ -1732,15 +2026,18 @@
         <v>27717</v>
       </c>
       <c r="I10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>25752527</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>464</v>
@@ -1749,7 +2046,7 @@
         <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11">
         <v>0.227100681302044</v>
@@ -1761,18 +2058,21 @@
         <v>1321</v>
       </c>
       <c r="I11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J11">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>25752527</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>485</v>
@@ -1781,7 +2081,7 @@
         <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1793,18 +2093,21 @@
         <v>1326</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J12">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>25752527</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>608</v>
@@ -1813,7 +2116,7 @@
         <v>627</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1825,15 +2128,18 @@
         <v>1351</v>
       </c>
       <c r="I13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>25752527</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>798</v>
@@ -1842,7 +2148,7 @@
         <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F14">
         <v>67.1014492753623</v>
@@ -1854,15 +2160,18 @@
         <v>2070</v>
       </c>
       <c r="I14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>25752527</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>952</v>
@@ -1871,7 +2180,7 @@
         <v>971</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>38.203622124327</v>
@@ -1883,15 +2192,18 @@
         <v>16344</v>
       </c>
       <c r="I15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>25752527</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>1254</v>
@@ -1900,7 +2212,7 @@
         <v>1276</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1912,18 +2224,21 @@
         <v>18099</v>
       </c>
       <c r="I16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>25752527</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1465</v>
@@ -1932,7 +2247,7 @@
         <v>1487</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17">
         <v>0.035962598897147</v>
@@ -1944,18 +2259,21 @@
         <v>16684</v>
       </c>
       <c r="I17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J17">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>25752527</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>1822</v>
@@ -1964,7 +2282,7 @@
         <v>1841</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F18">
         <v>84.2949547218629</v>
@@ -1976,18 +2294,21 @@
         <v>7730</v>
       </c>
       <c r="I18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J18">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>25752527</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>2374</v>
@@ -1996,7 +2317,7 @@
         <v>2393</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F19">
         <v>73.3619214351752</v>
@@ -2008,15 +2329,18 @@
         <v>50837</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>25752527</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>3164</v>
@@ -2025,7 +2349,7 @@
         <v>3183</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F20">
         <v>26.7375813281008</v>
@@ -2037,15 +2361,18 @@
         <v>9683</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>25752527</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>4348</v>
@@ -2054,7 +2381,7 @@
         <v>4367</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F21">
         <v>1.96990848456647</v>
@@ -2066,15 +2393,18 @@
         <v>6447</v>
       </c>
       <c r="I21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>25752527</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>8378</v>
@@ -2083,7 +2413,7 @@
         <v>8397</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22">
         <v>0.102096913531768</v>
@@ -2095,15 +2425,18 @@
         <v>25466</v>
       </c>
       <c r="I22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>25752527</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>8568</v>
@@ -2112,7 +2445,7 @@
         <v>8587</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F23">
         <v>73.2113080234226</v>
@@ -2124,15 +2457,18 @@
         <v>25787</v>
       </c>
       <c r="I23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>347</v>
+      </c>
+      <c r="K23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>25752527</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>78</v>
@@ -2141,7 +2477,7 @@
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F24">
         <v>70.3252032520325</v>
@@ -2153,18 +2489,21 @@
         <v>492</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J24">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>25752527</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>221</v>
@@ -2173,7 +2512,7 @@
         <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F25">
         <v>5.97232337946103</v>
@@ -2185,15 +2524,18 @@
         <v>1373</v>
       </c>
       <c r="I25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25752527</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>380</v>
@@ -2202,7 +2544,7 @@
         <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26">
         <v>59.659511472983</v>
@@ -2214,15 +2556,18 @@
         <v>1351</v>
       </c>
       <c r="I26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>25752527</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>562</v>
@@ -2231,7 +2576,7 @@
         <v>581</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F27">
         <v>89.4977168949772</v>
@@ -2243,15 +2588,18 @@
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>25752527</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>5263</v>
@@ -2260,7 +2608,7 @@
         <v>5285</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2272,18 +2620,21 @@
         <v>5801</v>
       </c>
       <c r="I28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J28">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>25752527</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>5463</v>
@@ -2292,7 +2643,7 @@
         <v>5485</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2304,18 +2655,21 @@
         <v>5822</v>
       </c>
       <c r="I29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J29">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>25808449</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -2324,7 +2678,7 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F30">
         <v>63.4715025906736</v>
@@ -2336,18 +2690,21 @@
         <v>386</v>
       </c>
       <c r="I30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J30">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>25808449</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>8532</v>
@@ -2356,7 +2713,7 @@
         <v>8513</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31">
         <v>59.2883388126088</v>
@@ -2368,15 +2725,18 @@
         <v>25855</v>
       </c>
       <c r="I31" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>347</v>
+      </c>
+      <c r="K31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>25808449</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>77</v>
@@ -2385,7 +2745,7 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32">
         <v>86.5424430641822</v>
@@ -2397,15 +2757,18 @@
         <v>483</v>
       </c>
       <c r="I32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>25808449</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>628</v>
@@ -2414,7 +2777,7 @@
         <v>635</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33">
         <v>97.1139971139971</v>
@@ -2426,18 +2789,21 @@
         <v>1386</v>
       </c>
       <c r="I33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J33">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>25808449</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>2255</v>
@@ -2446,7 +2812,7 @@
         <v>2274</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34">
         <v>54.1853874334693</v>
@@ -2458,15 +2824,18 @@
         <v>14467</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>25808449</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>2805</v>
@@ -2475,7 +2844,7 @@
         <v>2824</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35">
         <v>62.5261753423642</v>
@@ -2487,18 +2856,21 @@
         <v>53963</v>
       </c>
       <c r="I35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J35">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>25808449</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>3114</v>
@@ -2507,7 +2879,7 @@
         <v>3133</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F36">
         <v>55.0185873605948</v>
@@ -2519,18 +2891,21 @@
         <v>9684</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J36">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>25808449</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>4383</v>
@@ -2539,7 +2914,7 @@
         <v>4402</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F37">
         <v>72.9842446709917</v>
@@ -2551,15 +2926,18 @@
         <v>6474</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>25808449</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>4452</v>
@@ -2568,7 +2946,7 @@
         <v>4471</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F38">
         <v>79.4725478099938</v>
@@ -2580,18 +2958,21 @@
         <v>6484</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J38">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>25808449</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>8406</v>
@@ -2600,7 +2981,7 @@
         <v>8425</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F39">
         <v>74.7119771128122</v>
@@ -2612,15 +2993,18 @@
         <v>25866</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>26538064</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>78</v>
@@ -2629,7 +3013,7 @@
         <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F40">
         <v>70.3252032520325</v>
@@ -2641,18 +3025,21 @@
         <v>492</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J40">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>26538064</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>380</v>
@@ -2661,7 +3048,7 @@
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41">
         <v>59.659511472983</v>
@@ -2673,15 +3060,18 @@
         <v>1351</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>26538064</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -2690,7 +3080,7 @@
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F42">
         <v>28.8372093023256</v>
@@ -2702,15 +3092,18 @@
         <v>430</v>
       </c>
       <c r="I42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>26538064</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>414</v>
@@ -2719,7 +3112,7 @@
         <v>436</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F43">
         <v>0.0750750750750751</v>
@@ -2731,15 +3124,18 @@
         <v>1332</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>26538064</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>41</v>
@@ -2748,7 +3144,7 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F44">
         <v>66.2817551963048</v>
@@ -2760,15 +3156,18 @@
         <v>433</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>26538064</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>59</v>
@@ -2777,7 +3176,7 @@
         <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F45">
         <v>40.4710920770878</v>
@@ -2789,15 +3188,18 @@
         <v>467</v>
       </c>
       <c r="I45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>26538064</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>107</v>
@@ -2806,7 +3208,7 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F46">
         <v>55.0377833753149</v>
@@ -2818,15 +3220,18 @@
         <v>794</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>26538064</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>240</v>
@@ -2835,7 +3240,7 @@
         <v>260</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F47">
         <v>3.48583877995643</v>
@@ -2847,15 +3252,18 @@
         <v>1377</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>26538064</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>271</v>
@@ -2864,7 +3272,7 @@
         <v>291</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F48">
         <v>5.7204923968139</v>
@@ -2876,15 +3284,18 @@
         <v>1381</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>26538064</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>289</v>
@@ -2893,7 +3304,7 @@
         <v>309</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F49">
         <v>57.3593073593074</v>
@@ -2905,15 +3316,18 @@
         <v>1386</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>26538064</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>312</v>
@@ -2922,7 +3336,7 @@
         <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F50">
         <v>14.8286140089419</v>
@@ -2934,15 +3348,18 @@
         <v>1342</v>
       </c>
       <c r="I50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>26538064</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>328</v>
@@ -2951,7 +3368,7 @@
         <v>348</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F51">
         <v>31.6104868913858</v>
@@ -2963,15 +3380,18 @@
         <v>1335</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>26538064</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>342</v>
@@ -2980,7 +3400,7 @@
         <v>362</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F52">
         <v>84.3062926459439</v>
@@ -2992,15 +3412,18 @@
         <v>1319</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>26538064</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>353</v>
@@ -3009,7 +3432,7 @@
         <v>373</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F53">
         <v>88.4178652535958</v>
@@ -3021,15 +3444,18 @@
         <v>1321</v>
       </c>
       <c r="I53" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>26538064</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>514</v>
@@ -3038,7 +3464,7 @@
         <v>534</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F54">
         <v>96.1148648648649</v>
@@ -3050,15 +3476,18 @@
         <v>1184</v>
       </c>
       <c r="I54" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>26538064</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>562</v>
@@ -3067,7 +3496,7 @@
         <v>581</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F55">
         <v>89.4977168949772</v>
@@ -3079,15 +3508,18 @@
         <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>26581162</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>99</v>
@@ -3096,7 +3528,7 @@
         <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F56">
         <v>45.3503184713376</v>
@@ -3108,15 +3540,18 @@
         <v>785</v>
       </c>
       <c r="I56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>26581162</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>105</v>
@@ -3125,7 +3560,7 @@
         <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F57">
         <v>22.5190839694656</v>
@@ -3137,15 +3572,18 @@
         <v>786</v>
       </c>
       <c r="I57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>26581162</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>120</v>
@@ -3154,7 +3592,7 @@
         <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F58">
         <v>63.0865484880083</v>
@@ -3166,15 +3604,18 @@
         <v>959</v>
       </c>
       <c r="I58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>26581162</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>107</v>
@@ -3183,7 +3624,7 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F59">
         <v>55.0377833753149</v>
@@ -3195,15 +3636,18 @@
         <v>794</v>
       </c>
       <c r="I59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>26581162</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>111</v>
@@ -3212,7 +3656,7 @@
         <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F60">
         <v>62.7753303964758</v>
@@ -3224,15 +3668,18 @@
         <v>908</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>26581162</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>127</v>
@@ -3241,7 +3688,7 @@
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F61">
         <v>69.4672131147541</v>
@@ -3253,15 +3700,18 @@
         <v>976</v>
       </c>
       <c r="I61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>26581162</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>153</v>
@@ -3270,7 +3720,7 @@
         <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F62">
         <v>2.79776179056755</v>
@@ -3282,15 +3732,18 @@
         <v>1251</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>26581162</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>155</v>
@@ -3299,7 +3752,7 @@
         <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F63">
         <v>3.35463258785942</v>
@@ -3311,15 +3764,18 @@
         <v>1252</v>
       </c>
       <c r="I63" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>344</v>
+      </c>
+      <c r="K63" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>26581162</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>203</v>
@@ -3328,7 +3784,7 @@
         <v>223</v>
       </c>
       <c r="E64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F64">
         <v>20.8944281524927</v>
@@ -3340,15 +3796,18 @@
         <v>1364</v>
       </c>
       <c r="I64" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K64" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>26581162</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>221</v>
@@ -3357,7 +3816,7 @@
         <v>241</v>
       </c>
       <c r="E65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F65">
         <v>51.6363636363636</v>
@@ -3369,15 +3828,18 @@
         <v>1375</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>26581162</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66">
         <v>238</v>
@@ -3386,7 +3848,7 @@
         <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F66">
         <v>2.69679300291545</v>
@@ -3398,18 +3860,21 @@
         <v>1372</v>
       </c>
       <c r="I66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J66">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>26581162</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>298</v>
@@ -3418,7 +3883,7 @@
         <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F67">
         <v>56.6495224099926</v>
@@ -3430,15 +3895,18 @@
         <v>1361</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>26581162</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>347</v>
@@ -3447,7 +3915,7 @@
         <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F68">
         <v>0.447093889716841</v>
@@ -3459,15 +3927,18 @@
         <v>1342</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>26581162</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>340</v>
@@ -3476,7 +3947,7 @@
         <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F69">
         <v>85.3787878787879</v>
@@ -3488,15 +3959,18 @@
         <v>1320</v>
       </c>
       <c r="I69" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>26581162</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>343</v>
@@ -3505,7 +3979,7 @@
         <v>363</v>
       </c>
       <c r="E70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F70">
         <v>83.8926174496644</v>
@@ -3517,15 +3991,18 @@
         <v>1341</v>
       </c>
       <c r="I70" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>26581162</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>342</v>
@@ -3534,7 +4011,7 @@
         <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F71">
         <v>83.8926174496644</v>
@@ -3546,15 +4023,18 @@
         <v>1341</v>
       </c>
       <c r="I71" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>26581162</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>342</v>
@@ -3563,7 +4043,7 @@
         <v>363</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F72">
         <v>0.149142431021626</v>
@@ -3575,15 +4055,18 @@
         <v>1341</v>
       </c>
       <c r="I72" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K72" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>26581162</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>342</v>
@@ -3592,7 +4075,7 @@
         <v>362</v>
       </c>
       <c r="E73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F73">
         <v>84.3062926459439</v>
@@ -3604,15 +4087,18 @@
         <v>1319</v>
       </c>
       <c r="I73" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>26581162</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>355</v>
@@ -3621,7 +4107,7 @@
         <v>376</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F74">
         <v>0.0750750750750751</v>
@@ -3633,15 +4119,18 @@
         <v>1332</v>
       </c>
       <c r="I74" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>26581162</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>361</v>
@@ -3650,7 +4139,7 @@
         <v>382</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F75">
         <v>83.0521472392638</v>
@@ -3662,15 +4151,18 @@
         <v>1304</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>26581162</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>353</v>
@@ -3679,7 +4171,7 @@
         <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F76">
         <v>88.4178652535958</v>
@@ -3691,15 +4183,18 @@
         <v>1321</v>
       </c>
       <c r="I76" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>26581162</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>371</v>
@@ -3708,7 +4203,7 @@
         <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3720,15 +4215,18 @@
         <v>1329</v>
       </c>
       <c r="I77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>26581162</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>27</v>
@@ -3737,7 +4235,7 @@
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F78">
         <v>62.5994694960212</v>
@@ -3749,15 +4247,18 @@
         <v>377</v>
       </c>
       <c r="I78" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>26581162</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <v>44</v>
@@ -3766,7 +4267,7 @@
         <v>64</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F79">
         <v>28.5714285714286</v>
@@ -3778,15 +4279,18 @@
         <v>434</v>
       </c>
       <c r="I79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K79" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>26581162</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>60</v>
@@ -3795,7 +4299,7 @@
         <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F80">
         <v>89.7654584221748</v>
@@ -3807,15 +4311,18 @@
         <v>469</v>
       </c>
       <c r="I80" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>26581162</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81">
         <v>77</v>
@@ -3824,7 +4331,7 @@
         <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F81">
         <v>86.5424430641822</v>
@@ -3836,15 +4343,18 @@
         <v>483</v>
       </c>
       <c r="I81" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>26581162</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>77</v>
@@ -3853,7 +4363,7 @@
         <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F82">
         <v>70.4918032786885</v>
@@ -3865,15 +4375,18 @@
         <v>488</v>
       </c>
       <c r="I82" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>26607397</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>28</v>
@@ -3882,7 +4395,7 @@
         <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F83">
         <v>63.4715025906736</v>
@@ -3894,18 +4407,21 @@
         <v>386</v>
       </c>
       <c r="I83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J83">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>26607397</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>78</v>
@@ -3914,7 +4430,7 @@
         <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3926,18 +4442,21 @@
         <v>493</v>
       </c>
       <c r="I84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J84">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>26607397</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>108</v>
@@ -3946,7 +4465,7 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F85">
         <v>54.9313358302122</v>
@@ -3958,18 +4477,21 @@
         <v>801</v>
       </c>
       <c r="I85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J85">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>26607397</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>343</v>
@@ -3978,7 +4500,7 @@
         <v>362</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F86">
         <v>84.3062926459439</v>
@@ -3990,15 +4512,18 @@
         <v>1319</v>
       </c>
       <c r="I86" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>26607397</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>379</v>
@@ -4007,7 +4532,7 @@
         <v>398</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F87">
         <v>67.9021497405486</v>
@@ -4019,15 +4544,18 @@
         <v>1349</v>
       </c>
       <c r="I87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>26607397</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>464</v>
@@ -4036,7 +4564,7 @@
         <v>483</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F88">
         <v>72.108843537415</v>
@@ -4048,18 +4576,21 @@
         <v>1323</v>
       </c>
       <c r="I88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J88">
         <v>69</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>26607397</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>562</v>
@@ -4068,7 +4599,7 @@
         <v>581</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F89">
         <v>89.4977168949772</v>
@@ -4080,15 +4611,18 @@
         <v>438</v>
       </c>
       <c r="I89" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>26775808</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -4097,7 +4631,7 @@
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F90">
         <v>63.4715025906736</v>
@@ -4109,18 +4643,21 @@
         <v>386</v>
       </c>
       <c r="I90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J90">
         <v>69</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>26775808</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>466</v>
@@ -4129,7 +4666,7 @@
         <v>484</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F91">
         <v>68.2743029389601</v>
@@ -4141,15 +4678,18 @@
         <v>1327</v>
       </c>
       <c r="I91" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>26775808</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>563</v>
@@ -4158,7 +4698,7 @@
         <v>581</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F92">
         <v>89.4977168949772</v>
@@ -4170,15 +4710,18 @@
         <v>438</v>
       </c>
       <c r="I92" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>26775808</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <v>601</v>
@@ -4187,7 +4730,7 @@
         <v>618</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F93">
         <v>45.7943925233645</v>
@@ -4199,15 +4742,18 @@
         <v>535</v>
       </c>
       <c r="I93" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>26775808</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>80</v>
@@ -4216,7 +4762,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F94">
         <v>71.5789473684211</v>
@@ -4228,15 +4774,18 @@
         <v>570</v>
       </c>
       <c r="I94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K94" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>26775808</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>113</v>
@@ -4245,7 +4794,7 @@
         <v>131</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F95">
         <v>63.0836047774158</v>
@@ -4257,15 +4806,18 @@
         <v>921</v>
       </c>
       <c r="I95" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>26775808</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96">
         <v>291</v>
@@ -4274,7 +4826,7 @@
         <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F96">
         <v>57.3593073593074</v>
@@ -4286,15 +4838,18 @@
         <v>1386</v>
       </c>
       <c r="I96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>26775808</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>331</v>
@@ -4303,7 +4858,7 @@
         <v>349</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F97">
         <v>16.3173652694611</v>
@@ -4315,15 +4870,18 @@
         <v>1336</v>
       </c>
       <c r="I97" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>26775808</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98">
         <v>346</v>
@@ -4332,7 +4890,7 @@
         <v>363</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98">
         <v>83.8926174496644</v>
@@ -4344,15 +4902,18 @@
         <v>1341</v>
       </c>
       <c r="I98" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>26775808</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99">
         <v>356</v>
@@ -4361,7 +4922,7 @@
         <v>375</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F99">
         <v>82.4961948249619</v>
@@ -4373,15 +4934,18 @@
         <v>1314</v>
       </c>
       <c r="I99" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>26775808</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100">
         <v>386</v>
@@ -4390,7 +4954,7 @@
         <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F100">
         <v>74.2222222222222</v>
@@ -4402,15 +4966,18 @@
         <v>1350</v>
       </c>
       <c r="I100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K100" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>26775808</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101">
         <v>436</v>
@@ -4419,7 +4986,7 @@
         <v>452</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F101">
         <v>57.2</v>
@@ -4431,15 +4998,18 @@
         <v>1250</v>
       </c>
       <c r="I101" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>26796669</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102">
         <v>7216</v>
@@ -4448,7 +5018,7 @@
         <v>7235</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F102">
         <v>7.05398680082224</v>
@@ -4460,18 +5030,21 @@
         <v>27729</v>
       </c>
       <c r="I102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J102">
         <v>53</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>26796669</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103">
         <v>7794</v>
@@ -4480,7 +5053,7 @@
         <v>7813</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F103">
         <v>90.8331223094454</v>
@@ -4492,15 +5065,18 @@
         <v>27643</v>
       </c>
       <c r="I103" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>26796669</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104">
         <v>1389</v>
@@ -4509,7 +5085,7 @@
         <v>1408</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F104">
         <v>81.6615556175077</v>
@@ -4521,15 +5097,18 @@
         <v>17935</v>
       </c>
       <c r="I104" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>26796669</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105">
         <v>1909</v>
@@ -4538,7 +5117,7 @@
         <v>1928</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F105">
         <v>1.78214523650899</v>
@@ -4550,18 +5129,21 @@
         <v>6004</v>
       </c>
       <c r="I105" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J105">
         <v>67</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>26796669</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106">
         <v>2255</v>
@@ -4570,7 +5152,7 @@
         <v>2274</v>
       </c>
       <c r="E106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F106">
         <v>54.1853874334693</v>
@@ -4582,15 +5164,18 @@
         <v>14467</v>
       </c>
       <c r="I106" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K106" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>26796669</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107">
         <v>79</v>
@@ -4599,7 +5184,7 @@
         <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F107">
         <v>71.4285714285714</v>
@@ -4611,18 +5196,21 @@
         <v>532</v>
       </c>
       <c r="I107" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J107">
         <v>76</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>26796669</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108">
         <v>112</v>
@@ -4631,7 +5219,7 @@
         <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F108">
         <v>62.8289473684211</v>
@@ -4643,18 +5231,21 @@
         <v>912</v>
       </c>
       <c r="I108" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J108">
         <v>68</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>26796669</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>241</v>
@@ -4663,7 +5254,7 @@
         <v>260</v>
       </c>
       <c r="E109" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F109">
         <v>19.2753623188406</v>
@@ -4675,18 +5266,21 @@
         <v>1380</v>
       </c>
       <c r="I109" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J109">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>26796669</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110">
         <v>272</v>
@@ -4695,7 +5289,7 @@
         <v>291</v>
       </c>
       <c r="E110" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F110">
         <v>28.9645184648805</v>
@@ -4707,18 +5301,21 @@
         <v>1381</v>
       </c>
       <c r="I110" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J110">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>26796669</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111">
         <v>272</v>
@@ -4727,7 +5324,7 @@
         <v>291</v>
       </c>
       <c r="E111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F111">
         <v>28.9645184648805</v>
@@ -4739,18 +5336,21 @@
         <v>1381</v>
       </c>
       <c r="I111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J111">
         <v>79</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>26796669</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112">
         <v>278</v>
@@ -4759,7 +5359,7 @@
         <v>297</v>
       </c>
       <c r="E112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F112">
         <v>27.7213352685051</v>
@@ -4771,15 +5371,18 @@
         <v>1378</v>
       </c>
       <c r="I112" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K112" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>26796669</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113">
         <v>343</v>
@@ -4788,7 +5391,7 @@
         <v>362</v>
       </c>
       <c r="E113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F113">
         <v>84.3062926459439</v>
@@ -4800,15 +5403,18 @@
         <v>1319</v>
       </c>
       <c r="I113" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>26796669</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114">
         <v>415</v>
@@ -4817,7 +5423,7 @@
         <v>434</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F114">
         <v>84.5577211394303</v>
@@ -4829,15 +5435,18 @@
         <v>1334</v>
       </c>
       <c r="I114" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>26796669</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115">
         <v>8789</v>
@@ -4846,7 +5455,7 @@
         <v>8808</v>
       </c>
       <c r="E115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F115">
         <v>58.5034013605442</v>
@@ -4858,15 +5467,18 @@
         <v>5880</v>
       </c>
       <c r="I115" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>349</v>
+      </c>
+      <c r="K115" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>26796669</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116">
         <v>2571</v>
@@ -4875,7 +5487,7 @@
         <v>2590</v>
       </c>
       <c r="E116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F116">
         <v>76.3893207765093</v>
@@ -4887,15 +5499,18 @@
         <v>45022</v>
       </c>
       <c r="I116" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>26796669</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117">
         <v>3346</v>
@@ -4904,7 +5519,7 @@
         <v>3365</v>
       </c>
       <c r="E117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F117">
         <v>21.9867430220499</v>
@@ -4916,15 +5531,18 @@
         <v>22177</v>
       </c>
       <c r="I117" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>26796669</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118">
         <v>4149</v>
@@ -4933,7 +5551,7 @@
         <v>4168</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F118">
         <v>72.4938271604938</v>
@@ -4945,15 +5563,18 @@
         <v>4050</v>
       </c>
       <c r="I118" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>26796669</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119">
         <v>4799</v>
@@ -4962,7 +5583,7 @@
         <v>4818</v>
       </c>
       <c r="E119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F119">
         <v>73.0409885473177</v>
@@ -4974,15 +5595,18 @@
         <v>6636</v>
       </c>
       <c r="I119" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>26796669</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120">
         <v>5970</v>
@@ -4991,7 +5615,7 @@
         <v>5989</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F120">
         <v>85.3286816011752</v>
@@ -5003,15 +5627,18 @@
         <v>5446</v>
       </c>
       <c r="I120" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>350</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>26796669</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121">
         <v>5798</v>
@@ -5020,7 +5647,7 @@
         <v>5817</v>
       </c>
       <c r="E121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5032,15 +5659,18 @@
         <v>4915</v>
       </c>
       <c r="I121" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>351</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>26939770</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122">
         <v>98</v>
@@ -5049,7 +5679,7 @@
         <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F122">
         <v>55.0446998722861</v>
@@ -5061,15 +5691,18 @@
         <v>783</v>
       </c>
       <c r="I122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K122" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>26939770</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>108</v>
@@ -5078,7 +5711,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F123">
         <v>54.9313358302122</v>
@@ -5090,18 +5723,21 @@
         <v>801</v>
       </c>
       <c r="I123" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J123">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>26939770</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>312</v>
@@ -5110,7 +5746,7 @@
         <v>331</v>
       </c>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F124">
         <v>21.4126394052045</v>
@@ -5122,15 +5758,18 @@
         <v>1345</v>
       </c>
       <c r="I124" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K124" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>26939770</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>312</v>
@@ -5139,7 +5778,7 @@
         <v>341</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F125">
         <v>21.4126394052045</v>
@@ -5151,15 +5790,18 @@
         <v>1345</v>
       </c>
       <c r="I125" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K125" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>26990633</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>1465</v>
@@ -5168,7 +5810,7 @@
         <v>1484</v>
       </c>
       <c r="E126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F126">
         <v>68.5109699076849</v>
@@ -5180,18 +5822,21 @@
         <v>16682</v>
       </c>
       <c r="I126" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J126">
         <v>58</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>26990633</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>2103</v>
@@ -5200,7 +5845,7 @@
         <v>2124</v>
       </c>
       <c r="E127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F127">
         <v>26.0137538534503</v>
@@ -5212,15 +5857,18 @@
         <v>8434</v>
       </c>
       <c r="I127" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K127" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>26990633</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>796</v>
@@ -5229,7 +5877,7 @@
         <v>817</v>
       </c>
       <c r="E128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F128">
         <v>67.0113244707041</v>
@@ -5241,15 +5889,18 @@
         <v>2031</v>
       </c>
       <c r="I128" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K128" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>26990633</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>1061</v>
@@ -5258,7 +5909,7 @@
         <v>1081</v>
       </c>
       <c r="E129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F129">
         <v>25.0320767397813</v>
@@ -5270,15 +5921,18 @@
         <v>16367</v>
       </c>
       <c r="I129" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K129" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>26990633</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130">
         <v>98</v>
@@ -5287,7 +5941,7 @@
         <v>127</v>
       </c>
       <c r="E130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F130">
         <v>55.0446998722861</v>
@@ -5299,15 +5953,18 @@
         <v>783</v>
       </c>
       <c r="I130" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K130" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>26990633</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C131">
         <v>312</v>
@@ -5316,7 +5973,7 @@
         <v>341</v>
       </c>
       <c r="E131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F131">
         <v>21.4126394052045</v>
@@ -5328,15 +5985,18 @@
         <v>1345</v>
       </c>
       <c r="I131" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K131" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>26990633</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C132">
         <v>78</v>
@@ -5345,7 +6005,7 @@
         <v>97</v>
       </c>
       <c r="E132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F132">
         <v>70.3252032520325</v>
@@ -5357,18 +6017,21 @@
         <v>492</v>
       </c>
       <c r="I132" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J132">
         <v>81</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>26990633</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C133">
         <v>380</v>
@@ -5377,7 +6040,7 @@
         <v>399</v>
       </c>
       <c r="E133" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F133">
         <v>59.659511472983</v>
@@ -5389,15 +6052,18 @@
         <v>1351</v>
       </c>
       <c r="I133" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K133" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>26990633</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C134">
         <v>42</v>
@@ -5406,7 +6072,7 @@
         <v>64</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F134">
         <v>28.8372093023256</v>
@@ -5418,15 +6084,18 @@
         <v>430</v>
       </c>
       <c r="I134" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>26990633</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C135">
         <v>414</v>
@@ -5435,7 +6104,7 @@
         <v>436</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F135">
         <v>0.0750750750750751</v>
@@ -5447,15 +6116,18 @@
         <v>1332</v>
       </c>
       <c r="I135" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>26990633</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136">
         <v>41</v>
@@ -5464,7 +6136,7 @@
         <v>61</v>
       </c>
       <c r="E136" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F136">
         <v>66.2817551963048</v>
@@ -5476,15 +6148,18 @@
         <v>433</v>
       </c>
       <c r="I136" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K136" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>26990633</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C137">
         <v>59</v>
@@ -5493,7 +6168,7 @@
         <v>79</v>
       </c>
       <c r="E137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F137">
         <v>40.4710920770878</v>
@@ -5505,15 +6180,18 @@
         <v>467</v>
       </c>
       <c r="I137" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>26990633</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C138">
         <v>107</v>
@@ -5522,7 +6200,7 @@
         <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F138">
         <v>55.0377833753149</v>
@@ -5534,15 +6212,18 @@
         <v>794</v>
       </c>
       <c r="I138" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K138" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>26990633</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C139">
         <v>240</v>
@@ -5551,7 +6232,7 @@
         <v>260</v>
       </c>
       <c r="E139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F139">
         <v>3.48583877995643</v>
@@ -5563,15 +6244,18 @@
         <v>1377</v>
       </c>
       <c r="I139" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K139" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>26990633</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C140">
         <v>271</v>
@@ -5580,7 +6264,7 @@
         <v>291</v>
       </c>
       <c r="E140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F140">
         <v>5.7204923968139</v>
@@ -5592,15 +6276,18 @@
         <v>1381</v>
       </c>
       <c r="I140" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K140" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>26990633</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C141">
         <v>289</v>
@@ -5609,7 +6296,7 @@
         <v>309</v>
       </c>
       <c r="E141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F141">
         <v>57.3593073593074</v>
@@ -5621,15 +6308,18 @@
         <v>1386</v>
       </c>
       <c r="I141" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>26990633</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C142">
         <v>312</v>
@@ -5638,7 +6328,7 @@
         <v>332</v>
       </c>
       <c r="E142" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F142">
         <v>14.8286140089419</v>
@@ -5650,15 +6340,18 @@
         <v>1342</v>
       </c>
       <c r="I142" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K142" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>26990633</v>
       </c>
       <c r="B143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C143">
         <v>328</v>
@@ -5667,7 +6360,7 @@
         <v>348</v>
       </c>
       <c r="E143" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F143">
         <v>31.6104868913858</v>
@@ -5679,15 +6372,18 @@
         <v>1335</v>
       </c>
       <c r="I143" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K143" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>26990633</v>
       </c>
       <c r="B144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C144">
         <v>342</v>
@@ -5696,7 +6392,7 @@
         <v>362</v>
       </c>
       <c r="E144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F144">
         <v>84.3062926459439</v>
@@ -5708,15 +6404,18 @@
         <v>1319</v>
       </c>
       <c r="I144" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>26990633</v>
       </c>
       <c r="B145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C145">
         <v>353</v>
@@ -5725,7 +6424,7 @@
         <v>373</v>
       </c>
       <c r="E145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F145">
         <v>88.4178652535958</v>
@@ -5737,15 +6436,18 @@
         <v>1321</v>
       </c>
       <c r="I145" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>26990633</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C146">
         <v>361</v>
@@ -5754,7 +6456,7 @@
         <v>381</v>
       </c>
       <c r="E146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F146">
         <v>83.0521472392638</v>
@@ -5766,15 +6468,18 @@
         <v>1304</v>
       </c>
       <c r="I146" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>26990633</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C147">
         <v>385</v>
@@ -5783,7 +6488,7 @@
         <v>404</v>
       </c>
       <c r="E147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F147">
         <v>74.2222222222222</v>
@@ -5795,15 +6500,18 @@
         <v>1350</v>
       </c>
       <c r="I147" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K147" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>26990633</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C148">
         <v>213</v>
@@ -5812,7 +6520,7 @@
         <v>233</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F148">
         <v>2.48719824433065</v>
@@ -5824,15 +6532,18 @@
         <v>1367</v>
       </c>
       <c r="I148" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K148" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>26990633</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149">
         <v>237</v>
@@ -5841,7 +6552,7 @@
         <v>257</v>
       </c>
       <c r="E149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -5853,18 +6564,21 @@
         <v>1373</v>
       </c>
       <c r="I149" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J149">
         <v>55</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>26990633</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C150">
         <v>4294</v>
@@ -5873,7 +6587,7 @@
         <v>4313</v>
       </c>
       <c r="E150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5885,15 +6599,18 @@
         <v>6372</v>
       </c>
       <c r="I150" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>26990633</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C151">
         <v>4149</v>
@@ -5902,7 +6619,7 @@
         <v>4168</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F151">
         <v>72.4938271604938</v>
@@ -5914,15 +6631,18 @@
         <v>4050</v>
       </c>
       <c r="I151" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K151" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>27068471</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C152">
         <v>6244</v>
@@ -5931,7 +6651,7 @@
         <v>6261</v>
       </c>
       <c r="E152" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F152">
         <v>15.5186861069214</v>
@@ -5943,18 +6663,21 @@
         <v>5967</v>
       </c>
       <c r="I152" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J152">
         <v>54</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>27068471</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C153">
         <v>7343</v>
@@ -5963,7 +6686,7 @@
         <v>7362</v>
       </c>
       <c r="E153" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F153">
         <v>45.3404048057149</v>
@@ -5975,15 +6698,18 @@
         <v>27717</v>
       </c>
       <c r="I153" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K153" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>27068471</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C154">
         <v>6793</v>
@@ -5992,7 +6718,7 @@
         <v>6812</v>
       </c>
       <c r="E154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F154">
         <v>7.26041788257266</v>
@@ -6004,15 +6730,18 @@
         <v>34268</v>
       </c>
       <c r="I154" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>27068471</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155">
         <v>7431</v>
@@ -6021,7 +6750,7 @@
         <v>7450</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F155">
         <v>2.11819989155973</v>
@@ -6033,18 +6762,21 @@
         <v>27665</v>
       </c>
       <c r="I155" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J155">
         <v>65</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>27068471</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C156">
         <v>7614</v>
@@ -6053,7 +6785,7 @@
         <v>7633</v>
       </c>
       <c r="E156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F156">
         <v>14.2831915707685</v>
@@ -6065,18 +6797,21 @@
         <v>33977</v>
       </c>
       <c r="I156" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J156">
         <v>80</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>27068471</v>
       </c>
       <c r="B157" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C157">
         <v>312</v>
@@ -6085,7 +6820,7 @@
         <v>331</v>
       </c>
       <c r="E157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F157">
         <v>21.4126394052045</v>
@@ -6097,15 +6832,18 @@
         <v>1345</v>
       </c>
       <c r="I157" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K157" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>27068471</v>
       </c>
       <c r="B158" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C158">
         <v>8513</v>
@@ -6114,7 +6852,7 @@
         <v>8532</v>
       </c>
       <c r="E158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F158">
         <v>59.2755978639424</v>
@@ -6126,15 +6864,18 @@
         <v>25842</v>
       </c>
       <c r="I158" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>347</v>
+      </c>
+      <c r="K158" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>27068471</v>
       </c>
       <c r="B159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C159">
         <v>2255</v>
@@ -6143,7 +6884,7 @@
         <v>2274</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F159">
         <v>54.1853874334693</v>
@@ -6155,15 +6896,18 @@
         <v>14467</v>
       </c>
       <c r="I159" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K159" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>27194423</v>
       </c>
       <c r="B160" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C160">
         <v>1061</v>
@@ -6172,7 +6916,7 @@
         <v>1081</v>
       </c>
       <c r="E160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F160">
         <v>25.0320767397813</v>
@@ -6184,15 +6928,18 @@
         <v>16367</v>
       </c>
       <c r="I160" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K160" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>27194423</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C161">
         <v>83</v>
@@ -6201,7 +6948,7 @@
         <v>103</v>
       </c>
       <c r="E161" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F161">
         <v>74.8760330578512</v>
@@ -6213,15 +6960,18 @@
         <v>605</v>
       </c>
       <c r="I161" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K161" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>27278725</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C162">
         <v>1188</v>
@@ -6230,7 +6980,7 @@
         <v>1207</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F162">
         <v>37.1367189831115</v>
@@ -6242,15 +6992,18 @@
         <v>16757</v>
       </c>
       <c r="I162" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K162" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>27278725</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C163">
         <v>1444</v>
@@ -6259,7 +7012,7 @@
         <v>1463</v>
       </c>
       <c r="E163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F163">
         <v>58.3692786963815</v>
@@ -6271,18 +7024,21 @@
         <v>16692</v>
       </c>
       <c r="I163" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J163">
         <v>81</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>27278725</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C164">
         <v>1617</v>
@@ -6291,7 +7047,7 @@
         <v>1636</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F164">
         <v>20.9626955475331</v>
@@ -6303,18 +7059,21 @@
         <v>16620</v>
       </c>
       <c r="I164" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J164">
         <v>83</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>27278725</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C165">
         <v>4345</v>
@@ -6323,7 +7082,7 @@
         <v>4364</v>
       </c>
       <c r="E165" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F165">
         <v>73.3260835793071</v>
@@ -6335,15 +7094,18 @@
         <v>6437</v>
       </c>
       <c r="I165" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K165" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>27278725</v>
       </c>
       <c r="B166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C166">
         <v>2861</v>
@@ -6352,7 +7114,7 @@
         <v>2880</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F166">
         <v>62.7219154219636</v>
@@ -6364,18 +7126,21 @@
         <v>53962</v>
       </c>
       <c r="I166" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J166">
         <v>74</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>27278725</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167">
         <v>465</v>
@@ -6384,7 +7149,7 @@
         <v>484</v>
       </c>
       <c r="E167" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F167">
         <v>68.2743029389601</v>
@@ -6396,18 +7161,21 @@
         <v>1327</v>
       </c>
       <c r="I167" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J167">
         <v>67</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>27341108</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C168">
         <v>28</v>
@@ -6416,7 +7184,7 @@
         <v>47</v>
       </c>
       <c r="E168" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F168">
         <v>63.4715025906736</v>
@@ -6428,18 +7196,21 @@
         <v>386</v>
       </c>
       <c r="I168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J168">
         <v>69</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>27341108</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C169">
         <v>165</v>
@@ -6448,7 +7219,7 @@
         <v>184</v>
       </c>
       <c r="E169" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F169">
         <v>0.154918667699458</v>
@@ -6460,15 +7231,18 @@
         <v>1291</v>
       </c>
       <c r="I169" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K169" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>27341108</v>
       </c>
       <c r="B170" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C170">
         <v>241</v>
@@ -6477,7 +7251,7 @@
         <v>260</v>
       </c>
       <c r="E170" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F170">
         <v>19.2753623188406</v>
@@ -6489,18 +7263,21 @@
         <v>1380</v>
       </c>
       <c r="I170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J170">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>27341108</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C171">
         <v>272</v>
@@ -6509,7 +7286,7 @@
         <v>291</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F171">
         <v>17.2338884866039</v>
@@ -6521,18 +7298,21 @@
         <v>1381</v>
       </c>
       <c r="I171" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J171">
         <v>69</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>27341108</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C172">
         <v>272</v>
@@ -6541,7 +7321,7 @@
         <v>291</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F172">
         <v>17.2338884866039</v>
@@ -6553,18 +7333,21 @@
         <v>1381</v>
       </c>
       <c r="I172" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J172">
         <v>79</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>27341108</v>
       </c>
       <c r="B173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C173">
         <v>290</v>
@@ -6573,7 +7356,7 @@
         <v>309</v>
       </c>
       <c r="E173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F173">
         <v>57.3593073593074</v>
@@ -6585,18 +7368,21 @@
         <v>1386</v>
       </c>
       <c r="I173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J173">
         <v>72</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>27341108</v>
       </c>
       <c r="B174" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C174">
         <v>329</v>
@@ -6605,7 +7391,7 @@
         <v>348</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F174">
         <v>16.2808065720687</v>
@@ -6617,15 +7403,18 @@
         <v>1339</v>
       </c>
       <c r="I174" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K174" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>27341108</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C175">
         <v>354</v>
@@ -6634,7 +7423,7 @@
         <v>373</v>
       </c>
       <c r="E175" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F175">
         <v>88.4178652535958</v>
@@ -6646,15 +7435,18 @@
         <v>1321</v>
       </c>
       <c r="I175" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>27341108</v>
       </c>
       <c r="B176" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C176">
         <v>267</v>
@@ -6663,7 +7455,7 @@
         <v>388</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F176">
         <v>30.8745247148289</v>
@@ -6675,15 +7467,18 @@
         <v>1315</v>
       </c>
       <c r="I176" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K176" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>27341108</v>
       </c>
       <c r="B177" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C177">
         <v>600</v>
@@ -6692,7 +7487,7 @@
         <v>619</v>
       </c>
       <c r="E177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -6704,15 +7499,18 @@
         <v>534</v>
       </c>
       <c r="I177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>27404981</v>
       </c>
       <c r="B178" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C178">
         <v>7782</v>
@@ -6721,7 +7519,7 @@
         <v>7801</v>
       </c>
       <c r="E178" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F178">
         <v>80.1132674410216</v>
@@ -6733,15 +7531,18 @@
         <v>27722</v>
       </c>
       <c r="I178" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>27404981</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C179">
         <v>465</v>
@@ -6750,7 +7551,7 @@
         <v>484</v>
       </c>
       <c r="E179" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F179">
         <v>68.2743029389601</v>
@@ -6762,18 +7563,21 @@
         <v>1327</v>
       </c>
       <c r="I179" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J179">
         <v>67</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>27404981</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C180">
         <v>474</v>
@@ -6782,7 +7586,7 @@
         <v>493</v>
       </c>
       <c r="E180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F180">
         <v>72.2727272727273</v>
@@ -6794,15 +7598,18 @@
         <v>1320</v>
       </c>
       <c r="I180" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K180" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>27404981</v>
       </c>
       <c r="B181" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C181">
         <v>485</v>
@@ -6811,7 +7618,7 @@
         <v>504</v>
       </c>
       <c r="E181" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F181">
         <v>45.9398496240602</v>
@@ -6823,18 +7630,21 @@
         <v>1330</v>
       </c>
       <c r="I181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J181">
         <v>78</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182">
         <v>27404981</v>
       </c>
       <c r="B182" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C182">
         <v>415</v>
@@ -6843,7 +7653,7 @@
         <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F182">
         <v>84.5577211394303</v>
@@ -6855,15 +7665,18 @@
         <v>1334</v>
       </c>
       <c r="I182" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>27404981</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C183">
         <v>434</v>
@@ -6872,7 +7685,7 @@
         <v>453</v>
       </c>
       <c r="E183" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F183">
         <v>76.0608486789431</v>
@@ -6884,18 +7697,21 @@
         <v>1249</v>
       </c>
       <c r="I183" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J183">
         <v>65</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>27528385</v>
       </c>
       <c r="B184" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C184">
         <v>108</v>
@@ -6904,7 +7720,7 @@
         <v>127</v>
       </c>
       <c r="E184" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F184">
         <v>54.9313358302122</v>
@@ -6916,18 +7732,21 @@
         <v>801</v>
       </c>
       <c r="I184" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J184">
         <v>65</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>27528385</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C185">
         <v>312</v>
@@ -6936,7 +7755,7 @@
         <v>331</v>
       </c>
       <c r="E185" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F185">
         <v>21.4126394052045</v>
@@ -6948,15 +7767,18 @@
         <v>1345</v>
       </c>
       <c r="I185" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K185" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>27974196</v>
       </c>
       <c r="B186" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C186">
         <v>7794</v>
@@ -6965,7 +7787,7 @@
         <v>7813</v>
       </c>
       <c r="E186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F186">
         <v>90.8331223094454</v>
@@ -6977,15 +7799,18 @@
         <v>27643</v>
       </c>
       <c r="I186" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>27974196</v>
       </c>
       <c r="B187" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C187">
         <v>1389</v>
@@ -6994,7 +7819,7 @@
         <v>1408</v>
       </c>
       <c r="E187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F187">
         <v>81.6615556175077</v>
@@ -7006,15 +7831,18 @@
         <v>17935</v>
       </c>
       <c r="I187" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K187" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>27974196</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C188">
         <v>1483</v>
@@ -7023,7 +7851,7 @@
         <v>1502</v>
       </c>
       <c r="E188" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F188">
         <v>84.8453978906999</v>
@@ -7035,15 +7863,18 @@
         <v>16688</v>
       </c>
       <c r="I188" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>27974196</v>
       </c>
       <c r="B189" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C189">
         <v>1827</v>
@@ -7052,7 +7883,7 @@
         <v>1846</v>
       </c>
       <c r="E189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F189">
         <v>71.2031047865459</v>
@@ -7064,15 +7895,18 @@
         <v>7730</v>
       </c>
       <c r="I189" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K189" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>27974196</v>
       </c>
       <c r="B190" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C190">
         <v>2255</v>
@@ -7081,7 +7915,7 @@
         <v>2274</v>
       </c>
       <c r="E190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F190">
         <v>54.1853874334693</v>
@@ -7093,15 +7927,18 @@
         <v>14467</v>
       </c>
       <c r="I190" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K190" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>27974196</v>
       </c>
       <c r="B191" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C191">
         <v>79</v>
@@ -7110,7 +7947,7 @@
         <v>98</v>
       </c>
       <c r="E191" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F191">
         <v>71.4285714285714</v>
@@ -7122,18 +7959,21 @@
         <v>532</v>
       </c>
       <c r="I191" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J191">
         <v>76</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>27974196</v>
       </c>
       <c r="B192" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C192">
         <v>415</v>
@@ -7142,7 +7982,7 @@
         <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F192">
         <v>84.5577211394303</v>
@@ -7154,15 +7994,18 @@
         <v>1334</v>
       </c>
       <c r="I192" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>27974196</v>
       </c>
       <c r="B193" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C193">
         <v>379</v>
@@ -7171,7 +8014,7 @@
         <v>398</v>
       </c>
       <c r="E193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F193">
         <v>67.9021497405486</v>
@@ -7183,15 +8026,18 @@
         <v>1349</v>
       </c>
       <c r="I193" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K193" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>27974196</v>
       </c>
       <c r="B194" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C194">
         <v>4149</v>
@@ -7200,7 +8046,7 @@
         <v>4168</v>
       </c>
       <c r="E194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F194">
         <v>72.4938271604938</v>
@@ -7212,15 +8058,18 @@
         <v>4050</v>
       </c>
       <c r="I194" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K194" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>27974196</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C195">
         <v>5970</v>
@@ -7229,7 +8078,7 @@
         <v>5989</v>
       </c>
       <c r="E195" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F195">
         <v>85.3286816011752</v>
@@ -7241,15 +8090,18 @@
         <v>5446</v>
       </c>
       <c r="I195" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+        <v>350</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>28176813</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C196">
         <v>4256</v>
@@ -7258,7 +8110,7 @@
         <v>4275</v>
       </c>
       <c r="E196" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F196">
         <v>5.69450998898852</v>
@@ -7270,15 +8122,18 @@
         <v>6357</v>
       </c>
       <c r="I196" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K196" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>28176813</v>
       </c>
       <c r="B197" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C197">
         <v>4383</v>
@@ -7287,7 +8142,7 @@
         <v>4402</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F197">
         <v>72.9842446709917</v>
@@ -7299,15 +8154,18 @@
         <v>6474</v>
       </c>
       <c r="I197" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K197" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>28176813</v>
       </c>
       <c r="B198" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C198">
         <v>4500</v>
@@ -7316,7 +8174,7 @@
         <v>4519</v>
       </c>
       <c r="E198" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F198">
         <v>14.4905195005395</v>
@@ -7328,15 +8186,18 @@
         <v>6487</v>
       </c>
       <c r="I198" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K198" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>28176813</v>
       </c>
       <c r="B199" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C199">
         <v>4597</v>
@@ -7345,7 +8206,7 @@
         <v>4616</v>
       </c>
       <c r="E199" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F199">
         <v>3.58637178720861</v>
@@ -7357,15 +8218,18 @@
         <v>6692</v>
       </c>
       <c r="I199" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>28176813</v>
       </c>
       <c r="B200" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C200">
         <v>4553</v>
@@ -7374,7 +8238,7 @@
         <v>4572</v>
       </c>
       <c r="E200" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F200">
         <v>0.169622205088666</v>
@@ -7386,15 +8250,18 @@
         <v>6485</v>
       </c>
       <c r="I200" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>28176813</v>
       </c>
       <c r="B201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C201">
         <v>389</v>
@@ -7403,7 +8270,7 @@
         <v>408</v>
       </c>
       <c r="E201" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F201">
         <v>70.5794947994057</v>
@@ -7415,15 +8282,18 @@
         <v>1346</v>
       </c>
       <c r="I201" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K201" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>28176813</v>
       </c>
       <c r="B202" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C202">
         <v>463</v>
@@ -7432,7 +8302,7 @@
         <v>482</v>
       </c>
       <c r="E202" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -7444,15 +8314,18 @@
         <v>1322</v>
       </c>
       <c r="I202" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+        <v>344</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>28176813</v>
       </c>
       <c r="B203" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C203">
         <v>815</v>
@@ -7461,7 +8334,7 @@
         <v>834</v>
       </c>
       <c r="E203" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F203">
         <v>1.58102766798419</v>
@@ -7473,18 +8346,21 @@
         <v>6325</v>
       </c>
       <c r="I203" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J203">
         <v>92</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>28176813</v>
       </c>
       <c r="B204" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C204">
         <v>2374</v>
@@ -7493,7 +8369,7 @@
         <v>2393</v>
       </c>
       <c r="E204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F204">
         <v>73.3619214351752</v>
@@ -7505,15 +8381,18 @@
         <v>50837</v>
       </c>
       <c r="I204" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K204" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>28176813</v>
       </c>
       <c r="B205" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C205">
         <v>2463</v>
@@ -7522,7 +8401,7 @@
         <v>2482</v>
       </c>
       <c r="E205" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F205">
         <v>60.0215961519584</v>
@@ -7534,18 +8413,21 @@
         <v>50935</v>
       </c>
       <c r="I205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J205">
         <v>78</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>28176813</v>
       </c>
       <c r="B206" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C206">
         <v>2310</v>
@@ -7554,7 +8436,7 @@
         <v>2329</v>
       </c>
       <c r="E206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F206">
         <v>0.0340483486550902</v>
@@ -7566,18 +8448,21 @@
         <v>49929</v>
       </c>
       <c r="I206" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J206">
         <v>77</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>28176813</v>
       </c>
       <c r="B207" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C207">
         <v>2303</v>
@@ -7586,7 +8471,7 @@
         <v>2322</v>
       </c>
       <c r="E207" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F207">
         <v>1.50388033294463</v>
@@ -7598,15 +8483,18 @@
         <v>49738</v>
       </c>
       <c r="I207" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>28176813</v>
       </c>
       <c r="B208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C208">
         <v>2312</v>
@@ -7615,7 +8503,7 @@
         <v>2331</v>
       </c>
       <c r="E208" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F208">
         <v>2.12591332198979</v>
@@ -7627,15 +8515,18 @@
         <v>49955</v>
       </c>
       <c r="I208" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209">
         <v>28176813</v>
       </c>
       <c r="B209" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C209">
         <v>2662</v>
@@ -7644,7 +8535,7 @@
         <v>2681</v>
       </c>
       <c r="E209" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F209">
         <v>37.6439855191706</v>
@@ -7656,18 +8547,21 @@
         <v>48616</v>
       </c>
       <c r="I209" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J209">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210">
         <v>28176813</v>
       </c>
       <c r="B210" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C210">
         <v>2706</v>
@@ -7676,7 +8570,7 @@
         <v>2725</v>
       </c>
       <c r="E210" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F210">
         <v>75.259476534296</v>
@@ -7688,15 +8582,18 @@
         <v>53184</v>
       </c>
       <c r="I210" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+        <v>346</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211">
         <v>28176813</v>
       </c>
       <c r="B211" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C211">
         <v>2805</v>
@@ -7705,7 +8602,7 @@
         <v>2824</v>
       </c>
       <c r="E211" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F211">
         <v>62.5261753423642</v>
@@ -7717,18 +8614,21 @@
         <v>53963</v>
       </c>
       <c r="I211" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J211">
         <v>68</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212">
         <v>28176813</v>
       </c>
       <c r="B212" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C212">
         <v>3061</v>
@@ -7737,7 +8637,7 @@
         <v>3080</v>
       </c>
       <c r="E212" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F212">
         <v>2.1894041102964</v>
@@ -7749,7 +8649,10 @@
         <v>9683</v>
       </c>
       <c r="I212" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/SupTable1.xlsx
+++ b/results/SupTable1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="371">
   <si>
     <t>Citation</t>
   </si>
@@ -46,7 +46,7 @@
     <t>MIT Score</t>
   </si>
   <si>
-    <t>AS75</t>
+    <t>AS50</t>
   </si>
   <si>
     <t>T5</t>
@@ -157,6 +157,12 @@
     <t>T9</t>
   </si>
   <si>
+    <t>gRNA 2</t>
+  </si>
+  <si>
+    <t>gRNA1</t>
+  </si>
+  <si>
     <t>LTR-E</t>
   </si>
   <si>
@@ -478,9 +484,6 @@
     <t>gRNA 1</t>
   </si>
   <si>
-    <t>gRNA 2</t>
-  </si>
-  <si>
     <t>gRNA 3</t>
   </si>
   <si>
@@ -520,6 +523,15 @@
     <t>gRNA-TataA2</t>
   </si>
   <si>
+    <t>dCas9 NF-kB</t>
+  </si>
+  <si>
+    <t>dCas9 Sp1-1</t>
+  </si>
+  <si>
+    <t>dCas9 Sp1-2</t>
+  </si>
+  <si>
     <t>gGag3</t>
   </si>
   <si>
@@ -577,6 +589,24 @@
     <t>RT6</t>
   </si>
   <si>
+    <t>GagB</t>
+  </si>
+  <si>
+    <t>GagC</t>
+  </si>
+  <si>
+    <t>GagD</t>
+  </si>
+  <si>
+    <t>PolB</t>
+  </si>
+  <si>
+    <t>gLTR</t>
+  </si>
+  <si>
+    <t>gtat</t>
+  </si>
+  <si>
     <t>GTTAGACCAGATCTGAGCCT.NGG</t>
   </si>
   <si>
@@ -688,6 +718,12 @@
     <t>CCN.GACAGGCCCGAAGGAATAGA</t>
   </si>
   <si>
+    <t>CCN.GACTGTACTGGGTCTCTCTG</t>
+  </si>
+  <si>
+    <t>TTAGACCAGATCTGAGCCT.NGG</t>
+  </si>
+  <si>
     <t>GATCTGTGGATCTACCACACACA.NGG</t>
   </si>
   <si>
@@ -820,9 +856,6 @@
     <t>GGTTAGACCAGATCTGAGCC.NGG</t>
   </si>
   <si>
-    <t>TTAGACCAGATCTGAGCCT.NGG</t>
-  </si>
-  <si>
     <t>CCCGTCTGTTGTGTGACTC.NGG</t>
   </si>
   <si>
@@ -1000,6 +1033,15 @@
     <t>AGCTGCTTTTTGCCTGTACT.NGG</t>
   </si>
   <si>
+    <t>CTACAAGGGACTTTCCGCTG.NGG</t>
+  </si>
+  <si>
+    <t>GCATGGGCGGGACCGGGGAG.NGG</t>
+  </si>
+  <si>
+    <t>GCGTGGCATGGGCGGGACCG.NGG</t>
+  </si>
+  <si>
     <t>CCN.AGGGGAAGTGACATAGCAGG</t>
   </si>
   <si>
@@ -1048,6 +1090,12 @@
     <t>CTT.TTAGAAAACAAAATCCAGAC</t>
   </si>
   <si>
+    <t>GTTACACCCTATGAGCCAGCA.NGG</t>
+  </si>
+  <si>
+    <t>ACCCACCTCCCAACCCCGAG.NGG</t>
+  </si>
+  <si>
     <t>LTR</t>
   </si>
   <si>
@@ -1072,268 +1120,13 @@
     <t>Vpr</t>
   </si>
   <si>
-    <t>0.393675595238</t>
-  </si>
-  <si>
-    <t>0.36125</t>
-  </si>
-  <si>
-    <t>0.211839430894</t>
-  </si>
-  <si>
-    <t>0.503571428571</t>
-  </si>
-  <si>
-    <t>0.434821428571</t>
-  </si>
-  <si>
-    <t>0.089897260274</t>
-  </si>
-  <si>
-    <t>0.682060027285</t>
-  </si>
-  <si>
-    <t>0.0237962962963</t>
-  </si>
-  <si>
-    <t>0.511829268293</t>
-  </si>
-  <si>
-    <t>0.681315651261</t>
-  </si>
-  <si>
-    <t>0.0898658906883</t>
-  </si>
-  <si>
-    <t>0.00597786315404</t>
-  </si>
-  <si>
-    <t>0.804779108175</t>
-  </si>
-  <si>
-    <t>0.552272727273</t>
-  </si>
-  <si>
-    <t>0.179738180319</t>
-  </si>
-  <si>
-    <t>0.376573769207</t>
-  </si>
-  <si>
-    <t>0.396176359517</t>
-  </si>
-  <si>
-    <t>0.287851405622</t>
-  </si>
-  <si>
-    <t>0.629771784232</t>
-  </si>
-  <si>
-    <t>0.876060411311</t>
-  </si>
-  <si>
-    <t>0.264642857143</t>
-  </si>
-  <si>
-    <t>0.172697368421</t>
-  </si>
-  <si>
-    <t>0.360833333333</t>
-  </si>
-  <si>
-    <t>0.00518585131894</t>
-  </si>
-  <si>
-    <t>0.0415655339806</t>
-  </si>
-  <si>
-    <t>0.211989795918</t>
-  </si>
-  <si>
-    <t>0.267736486486</t>
-  </si>
-  <si>
-    <t>0.529583333333</t>
-  </si>
-  <si>
-    <t>0.13375</t>
-  </si>
-  <si>
-    <t>0.441369047619</t>
-  </si>
-  <si>
-    <t>0.419473684211</t>
-  </si>
-  <si>
-    <t>0.192380952381</t>
-  </si>
-  <si>
-    <t>0.0526141826923</t>
-  </si>
-  <si>
-    <t>0.068893129771</t>
-  </si>
-  <si>
-    <t>0.1794921875</t>
-  </si>
-  <si>
-    <t>0.126613849765</t>
-  </si>
-  <si>
-    <t>0.122715053763</t>
-  </si>
-  <si>
-    <t>0.556870487365</t>
-  </si>
-  <si>
-    <t>0.0589427312775</t>
-  </si>
-  <si>
-    <t>0.53125</t>
-  </si>
-  <si>
-    <t>0.263732394366</t>
-  </si>
-  <si>
-    <t>0.507142857143</t>
-  </si>
-  <si>
-    <t>0.300892857143</t>
-  </si>
-  <si>
-    <t>0.362083333333</t>
-  </si>
-  <si>
-    <t>0.674174528302</t>
-  </si>
-  <si>
-    <t>0.291628440367</t>
-  </si>
-  <si>
-    <t>0.554842342342</t>
-  </si>
-  <si>
-    <t>0.583974358974</t>
-  </si>
-  <si>
-    <t>0.421184210526</t>
-  </si>
-  <si>
-    <t>0.62875</t>
-  </si>
-  <si>
-    <t>0.55625</t>
-  </si>
-  <si>
-    <t>0.896200696056</t>
-  </si>
-  <si>
-    <t>0.0657040572792</t>
-  </si>
-  <si>
-    <t>0.582857142857</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.116982758621</t>
-  </si>
-  <si>
-    <t>0.0876126126126</t>
-  </si>
-  <si>
-    <t>0.158267716535</t>
-  </si>
-  <si>
-    <t>0.0490326821938</t>
-  </si>
-  <si>
-    <t>0.621617647059</t>
-  </si>
-  <si>
-    <t>0.835129740519</t>
-  </si>
-  <si>
-    <t>0.361661931818</t>
-  </si>
-  <si>
-    <t>0.627151589242</t>
-  </si>
-  <si>
-    <t>0.100767727527</t>
-  </si>
-  <si>
-    <t>0.5111875</t>
-  </si>
-  <si>
-    <t>0.331650174622</t>
-  </si>
-  <si>
-    <t>0.06328125</t>
-  </si>
-  <si>
-    <t>0.0899143835616</t>
-  </si>
-  <si>
-    <t>0.154715737952</t>
-  </si>
-  <si>
-    <t>0.179707256734</t>
-  </si>
-  <si>
-    <t>0.891346153846</t>
-  </si>
-  <si>
-    <t>0.448158352668</t>
-  </si>
-  <si>
-    <t>0.375850582917</t>
-  </si>
-  <si>
-    <t>0.184857780257</t>
-  </si>
-  <si>
-    <t>0.840271618625</t>
-  </si>
-  <si>
-    <t>0.187987325525</t>
-  </si>
-  <si>
-    <t>6.25e-05</t>
-  </si>
-  <si>
-    <t>0.121822033898</t>
-  </si>
-  <si>
-    <t>0.105822981366</t>
-  </si>
-  <si>
-    <t>0.2625</t>
-  </si>
-  <si>
-    <t>0.395535714286</t>
-  </si>
-  <si>
-    <t>0.353620218579</t>
-  </si>
-  <si>
-    <t>0.857123655914</t>
-  </si>
-  <si>
-    <t>0.398884615385</t>
-  </si>
-  <si>
-    <t>0.0453947368421</t>
-  </si>
-  <si>
-    <t>0.174404761905</t>
-  </si>
-  <si>
-    <t>0.582284768212</t>
-  </si>
-  <si>
-    <t>0.323399811905</t>
+    <t>Gag</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tat </t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1746,7 +1539,7 @@
         <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>68.2743029389601</v>
@@ -1758,13 +1551,13 @@
         <v>1327</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J2">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
-        <v>352</v>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1781,7 +1574,7 @@
         <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>84.3062926459439</v>
@@ -1793,7 +1586,7 @@
         <v>1319</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1813,7 +1606,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F4">
         <v>55.0446998722861</v>
@@ -1825,10 +1618,10 @@
         <v>783</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" t="s">
-        <v>353</v>
+        <v>360</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1845,7 +1638,7 @@
         <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>21.4126394052045</v>
@@ -1857,10 +1650,10 @@
         <v>1345</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
-      </c>
-      <c r="K5" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="K5">
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1877,7 +1670,7 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>70.3252032520325</v>
@@ -1889,13 +1682,13 @@
         <v>492</v>
       </c>
       <c r="I6" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J6">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
-        <v>355</v>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1912,7 +1705,7 @@
         <v>399</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F7">
         <v>59.659511472983</v>
@@ -1924,10 +1717,10 @@
         <v>1351</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K7" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1944,7 +1737,7 @@
         <v>6261</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F8">
         <v>15.5212872946698</v>
@@ -1956,13 +1749,13 @@
         <v>5966</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="J8">
         <v>66</v>
       </c>
-      <c r="K8" t="s">
-        <v>357</v>
+      <c r="K8">
+        <v>0.246127946127946</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1979,7 +1772,7 @@
         <v>6345</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F9">
         <v>69.8326055312955</v>
@@ -1991,13 +1784,13 @@
         <v>24732</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="J9">
         <v>82</v>
       </c>
-      <c r="K9" t="s">
-        <v>358</v>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2014,7 +1807,7 @@
         <v>7362</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F10">
         <v>45.3404048057149</v>
@@ -2026,10 +1819,10 @@
         <v>27717</v>
       </c>
       <c r="I10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K10" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="K10">
+        <v>0.666202027516293</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2046,7 +1839,7 @@
         <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F11">
         <v>0.227100681302044</v>
@@ -2058,7 +1851,7 @@
         <v>1321</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -2081,7 +1874,7 @@
         <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2093,7 +1886,7 @@
         <v>1326</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J12">
         <v>78</v>
@@ -2116,7 +1909,7 @@
         <v>627</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2128,7 +1921,7 @@
         <v>1351</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2148,7 +1941,7 @@
         <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F14">
         <v>67.1014492753623</v>
@@ -2160,10 +1953,10 @@
         <v>2070</v>
       </c>
       <c r="I14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K14" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="K14">
+        <v>0.88102541630149</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2180,7 +1973,7 @@
         <v>971</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F15">
         <v>38.203622124327</v>
@@ -2192,10 +1985,10 @@
         <v>16344</v>
       </c>
       <c r="I15" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.331281138790036</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2212,7 +2005,7 @@
         <v>1276</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2224,7 +2017,7 @@
         <v>18099</v>
       </c>
       <c r="I16" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J16">
         <v>34</v>
@@ -2247,7 +2040,7 @@
         <v>1487</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F17">
         <v>0.035962598897147</v>
@@ -2259,7 +2052,7 @@
         <v>16684</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J17">
         <v>58</v>
@@ -2282,7 +2075,7 @@
         <v>1841</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F18">
         <v>84.2949547218629</v>
@@ -2294,7 +2087,7 @@
         <v>7730</v>
       </c>
       <c r="I18" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J18">
         <v>53</v>
@@ -2317,7 +2110,7 @@
         <v>2393</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F19">
         <v>73.3619214351752</v>
@@ -2329,10 +2122,10 @@
         <v>50837</v>
       </c>
       <c r="I19" t="s">
-        <v>346</v>
-      </c>
-      <c r="K19" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2349,7 +2142,7 @@
         <v>3183</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F20">
         <v>26.7375813281008</v>
@@ -2361,10 +2154,10 @@
         <v>9683</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" t="s">
         <v>362</v>
+      </c>
+      <c r="K20">
+        <v>0.177913533834586</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2381,7 +2174,7 @@
         <v>4367</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F21">
         <v>1.96990848456647</v>
@@ -2393,7 +2186,7 @@
         <v>6447</v>
       </c>
       <c r="I21" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2413,7 +2206,7 @@
         <v>8397</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F22">
         <v>0.102096913531768</v>
@@ -2425,10 +2218,10 @@
         <v>25466</v>
       </c>
       <c r="I22" t="s">
-        <v>345</v>
-      </c>
-      <c r="K22" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="K22">
+        <v>0.0253902914989633</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2445,7 +2238,7 @@
         <v>8587</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F23">
         <v>73.2113080234226</v>
@@ -2457,10 +2250,10 @@
         <v>25787</v>
       </c>
       <c r="I23" t="s">
-        <v>347</v>
-      </c>
-      <c r="K23" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2477,7 +2270,7 @@
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F24">
         <v>70.3252032520325</v>
@@ -2489,13 +2282,13 @@
         <v>492</v>
       </c>
       <c r="I24" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J24">
         <v>81</v>
       </c>
-      <c r="K24" t="s">
-        <v>355</v>
+      <c r="K24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2512,7 +2305,7 @@
         <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F25">
         <v>5.97232337946103</v>
@@ -2524,7 +2317,7 @@
         <v>1373</v>
       </c>
       <c r="I25" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2544,7 +2337,7 @@
         <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F26">
         <v>59.659511472983</v>
@@ -2556,10 +2349,10 @@
         <v>1351</v>
       </c>
       <c r="I26" t="s">
-        <v>344</v>
-      </c>
-      <c r="K26" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2576,7 +2369,7 @@
         <v>581</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F27">
         <v>89.4977168949772</v>
@@ -2588,7 +2381,7 @@
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2608,7 +2401,7 @@
         <v>5285</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2620,7 +2413,7 @@
         <v>5801</v>
       </c>
       <c r="I28" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J28">
         <v>41</v>
@@ -2643,7 +2436,7 @@
         <v>5485</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2655,7 +2448,7 @@
         <v>5822</v>
       </c>
       <c r="I29" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="J29">
         <v>85</v>
@@ -2666,37 +2459,37 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>25808449</v>
+        <v>25781496</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>484</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F30">
-        <v>63.4715025906736</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G30">
-        <v>3.74626818958162</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H30">
-        <v>386</v>
+        <v>1327</v>
       </c>
       <c r="I30" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J30">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>365</v>
+        <v>67</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2704,31 +2497,34 @@
         <v>25808449</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>8532</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>8513</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F31">
-        <v>59.2883388126088</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G31">
-        <v>3.76299227390448</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H31">
-        <v>25855</v>
+        <v>386</v>
       </c>
       <c r="I31" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31" t="s">
-        <v>366</v>
+        <v>360</v>
+      </c>
+      <c r="J31">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2736,28 +2532,28 @@
         <v>25808449</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>8532</v>
       </c>
       <c r="D32">
-        <v>96</v>
+        <v>8513</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F32">
-        <v>86.5424430641822</v>
+        <v>59.2883388126088</v>
       </c>
       <c r="G32">
-        <v>2.71686075827078</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H32">
-        <v>483</v>
+        <v>25855</v>
       </c>
       <c r="I32" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2768,31 +2564,28 @@
         <v>25808449</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>628</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>635</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F33">
-        <v>97.1139971139971</v>
+        <v>86.5424430641822</v>
       </c>
       <c r="G33">
-        <v>0.392901631328193</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="H33">
-        <v>1386</v>
+        <v>483</v>
       </c>
       <c r="I33" t="s">
-        <v>344</v>
-      </c>
-      <c r="J33">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2803,31 +2596,34 @@
         <v>25808449</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>2255</v>
+        <v>628</v>
       </c>
       <c r="D34">
-        <v>2274</v>
+        <v>635</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F34">
-        <v>54.1853874334693</v>
+        <v>97.1139971139971</v>
       </c>
       <c r="G34">
-        <v>1.75088485980889</v>
+        <v>0.392901631328193</v>
       </c>
       <c r="H34">
-        <v>14467</v>
+        <v>1386</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
-      </c>
-      <c r="K34" t="s">
-        <v>367</v>
+        <v>360</v>
+      </c>
+      <c r="J34">
+        <v>98</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2835,34 +2631,31 @@
         <v>25808449</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C35">
-        <v>2805</v>
+        <v>2255</v>
       </c>
       <c r="D35">
-        <v>2824</v>
+        <v>2274</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F35">
-        <v>62.5261753423642</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G35">
-        <v>3.47312087356067</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H35">
-        <v>53963</v>
+        <v>14467</v>
       </c>
       <c r="I35" t="s">
-        <v>346</v>
-      </c>
-      <c r="J35">
-        <v>68</v>
-      </c>
-      <c r="K35" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2870,34 +2663,34 @@
         <v>25808449</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>3114</v>
+        <v>2805</v>
       </c>
       <c r="D36">
-        <v>3133</v>
+        <v>2824</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F36">
-        <v>55.0185873605948</v>
+        <v>62.5261753423642</v>
       </c>
       <c r="G36">
-        <v>3.88955388634754</v>
+        <v>3.47312087356067</v>
       </c>
       <c r="H36">
-        <v>9684</v>
+        <v>53963</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J36">
-        <v>54</v>
-      </c>
-      <c r="K36" t="s">
-        <v>369</v>
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2905,31 +2698,34 @@
         <v>25808449</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>4383</v>
+        <v>3114</v>
       </c>
       <c r="D37">
-        <v>4402</v>
+        <v>3133</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F37">
-        <v>72.9842446709917</v>
+        <v>55.0185873605948</v>
       </c>
       <c r="G37">
-        <v>2.35872624395286</v>
+        <v>3.88955388634754</v>
       </c>
       <c r="H37">
-        <v>6474</v>
+        <v>9684</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" t="s">
-        <v>370</v>
+        <v>362</v>
+      </c>
+      <c r="J37">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2937,31 +2733,28 @@
         <v>25808449</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>4452</v>
+        <v>4383</v>
       </c>
       <c r="D38">
-        <v>4471</v>
+        <v>4402</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F38">
-        <v>79.4725478099938</v>
+        <v>72.9842446709917</v>
       </c>
       <c r="G38">
-        <v>2.02289446764389</v>
+        <v>2.35872624395286</v>
       </c>
       <c r="H38">
-        <v>6484</v>
+        <v>6474</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
-      </c>
-      <c r="J38">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2972,130 +2765,133 @@
         <v>25808449</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>8406</v>
+        <v>4452</v>
       </c>
       <c r="D39">
-        <v>8425</v>
+        <v>4471</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F39">
-        <v>74.7119771128122</v>
+        <v>79.4725478099938</v>
       </c>
       <c r="G39">
-        <v>4.46329462909989</v>
+        <v>2.02289446764389</v>
       </c>
       <c r="H39">
-        <v>25866</v>
+        <v>6484</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
-      </c>
-      <c r="K39" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+      <c r="J39">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>26538064</v>
+        <v>25808449</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>78</v>
+        <v>8406</v>
       </c>
       <c r="D40">
-        <v>97</v>
+        <v>8425</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="F40">
-        <v>70.3252032520325</v>
+        <v>74.7119771128122</v>
       </c>
       <c r="G40">
-        <v>2.66017761804901</v>
+        <v>4.46329462909989</v>
       </c>
       <c r="H40">
-        <v>492</v>
+        <v>25866</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
-      </c>
-      <c r="J40">
-        <v>81</v>
-      </c>
-      <c r="K40" t="s">
-        <v>355</v>
+        <v>361</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>26538064</v>
+        <v>26035832</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="D41">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="E41" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F41">
-        <v>59.659511472983</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4.20622313379339</v>
+        <v>3.53410202454606</v>
       </c>
       <c r="H41">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
-      </c>
-      <c r="K41" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="J41">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>26538064</v>
+        <v>26035832</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="D42">
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F42">
-        <v>28.8372093023256</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G42">
-        <v>4.27334109035607</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H42">
-        <v>430</v>
+        <v>1327</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
-      </c>
-      <c r="K42" t="s">
-        <v>372</v>
+        <v>360</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3103,28 +2899,31 @@
         <v>26538064</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="D43">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="F43">
-        <v>0.0750750750750751</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G43">
-        <v>1.701342905986</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H43">
-        <v>1332</v>
+        <v>492</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J43">
+        <v>81</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3135,31 +2934,31 @@
         <v>26538064</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="D44">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F44">
-        <v>66.2817551963048</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G44">
-        <v>4.37524539435632</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H44">
-        <v>433</v>
+        <v>1351</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
-      </c>
-      <c r="K44" t="s">
-        <v>373</v>
+        <v>360</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3167,31 +2966,31 @@
         <v>26538064</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D45">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F45">
-        <v>40.4710920770878</v>
+        <v>28.8372093023256</v>
       </c>
       <c r="G45">
-        <v>3.86885384896436</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="H45">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I45" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.687383177570093</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3199,31 +2998,31 @@
         <v>26538064</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="D46">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F46">
-        <v>55.0377833753149</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G46">
-        <v>5.26257053419506</v>
+        <v>1.701342905986</v>
       </c>
       <c r="H46">
-        <v>794</v>
+        <v>1332</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
-      </c>
-      <c r="K46" t="s">
-        <v>374</v>
+        <v>360</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3231,31 +3030,31 @@
         <v>26538064</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F47">
-        <v>3.48583877995643</v>
+        <v>66.2817551963048</v>
       </c>
       <c r="G47">
-        <v>6.7698759592779</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="H47">
-        <v>1377</v>
+        <v>433</v>
       </c>
       <c r="I47" t="s">
-        <v>344</v>
-      </c>
-      <c r="K47" t="s">
-        <v>375</v>
+        <v>360</v>
+      </c>
+      <c r="K47">
+        <v>0.890988372093023</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3263,31 +3062,31 @@
         <v>26538064</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F48">
-        <v>5.7204923968139</v>
+        <v>40.4710920770878</v>
       </c>
       <c r="G48">
-        <v>5.80365809729613</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="H48">
-        <v>1381</v>
+        <v>467</v>
       </c>
       <c r="I48" t="s">
-        <v>344</v>
-      </c>
-      <c r="K48" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+      <c r="K48">
+        <v>0.44375</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3295,28 +3094,28 @@
         <v>26538064</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="D49">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F49">
-        <v>57.3593073593074</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G49">
-        <v>4.16980328476335</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H49">
-        <v>1386</v>
+        <v>794</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3327,31 +3126,31 @@
         <v>26538064</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D50">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F50">
-        <v>14.8286140089419</v>
+        <v>3.48583877995643</v>
       </c>
       <c r="G50">
-        <v>4.77181555488247</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="H50">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
-      </c>
-      <c r="K50" t="s">
-        <v>377</v>
+        <v>360</v>
+      </c>
+      <c r="K50">
+        <v>0.0464628297362111</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3359,31 +3158,31 @@
         <v>26538064</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D51">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="E51" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F51">
-        <v>31.6104868913858</v>
+        <v>5.7204923968139</v>
       </c>
       <c r="G51">
-        <v>5.35698143814368</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="H51">
-        <v>1335</v>
+        <v>1381</v>
       </c>
       <c r="I51" t="s">
-        <v>344</v>
-      </c>
-      <c r="K51" t="s">
-        <v>378</v>
+        <v>360</v>
+      </c>
+      <c r="K51">
+        <v>0.127478902953586</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3391,28 +3190,28 @@
         <v>26538064</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="D52">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E52" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F52">
-        <v>84.3062926459439</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G52">
-        <v>2.9598765879773</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H52">
-        <v>1319</v>
+        <v>1386</v>
       </c>
       <c r="I52" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3423,31 +3222,31 @@
         <v>26538064</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="D53">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="E53" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F53">
-        <v>88.4178652535958</v>
+        <v>14.8286140089419</v>
       </c>
       <c r="G53">
-        <v>2.04604471326368</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="H53">
-        <v>1321</v>
+        <v>1342</v>
       </c>
       <c r="I53" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.6168</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3455,31 +3254,31 @@
         <v>26538064</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="D54">
-        <v>534</v>
+        <v>348</v>
       </c>
       <c r="E54" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F54">
-        <v>96.1148648648649</v>
+        <v>31.6104868913858</v>
       </c>
       <c r="G54">
-        <v>0.597196805495579</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="H54">
-        <v>1184</v>
+        <v>1335</v>
       </c>
       <c r="I54" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.494469026548672</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3487,28 +3286,28 @@
         <v>26538064</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55">
-        <v>562</v>
+        <v>342</v>
       </c>
       <c r="D55">
-        <v>581</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="F55">
-        <v>89.4977168949772</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G55">
-        <v>1.22978373627946</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H55">
-        <v>438</v>
+        <v>1319</v>
       </c>
       <c r="I55" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3516,98 +3315,98 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>26581162</v>
+        <v>26538064</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="D56">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F56">
-        <v>45.3503184713376</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G56">
-        <v>4.57742836429659</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H56">
-        <v>785</v>
+        <v>1321</v>
       </c>
       <c r="I56" t="s">
-        <v>344</v>
-      </c>
-      <c r="K56" t="s">
-        <v>379</v>
+        <v>360</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>26581162</v>
+        <v>26538064</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="D57">
-        <v>126</v>
+        <v>534</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F57">
-        <v>22.5190839694656</v>
+        <v>96.1148648648649</v>
       </c>
       <c r="G57">
-        <v>5.24062805296641</v>
+        <v>0.597196805495579</v>
       </c>
       <c r="H57">
-        <v>786</v>
+        <v>1184</v>
       </c>
       <c r="I57" t="s">
-        <v>344</v>
-      </c>
-      <c r="K57" t="s">
-        <v>380</v>
+        <v>360</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>26581162</v>
+        <v>26538064</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>120</v>
+        <v>562</v>
       </c>
       <c r="D58">
-        <v>140</v>
+        <v>581</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F58">
-        <v>63.0865484880083</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G58">
-        <v>3.92337309848527</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H58">
-        <v>959</v>
+        <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>344</v>
-      </c>
-      <c r="K58" t="s">
-        <v>381</v>
+        <v>360</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3615,31 +3414,31 @@
         <v>26581162</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D59">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F59">
-        <v>55.0377833753149</v>
+        <v>45.3503184713376</v>
       </c>
       <c r="G59">
-        <v>5.26257053419506</v>
+        <v>4.57742836429659</v>
       </c>
       <c r="H59">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="I59" t="s">
-        <v>344</v>
-      </c>
-      <c r="K59" t="s">
-        <v>374</v>
+        <v>360</v>
+      </c>
+      <c r="K59">
+        <v>0.595056497175141</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3647,31 +3446,31 @@
         <v>26581162</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F60">
-        <v>62.7753303964758</v>
+        <v>22.5190839694656</v>
       </c>
       <c r="G60">
-        <v>4.37385317057862</v>
+        <v>5.24062805296641</v>
       </c>
       <c r="H60">
-        <v>908</v>
+        <v>786</v>
       </c>
       <c r="I60" t="s">
-        <v>344</v>
-      </c>
-      <c r="K60" t="s">
-        <v>382</v>
+        <v>360</v>
+      </c>
+      <c r="K60">
+        <v>0.233</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3679,31 +3478,31 @@
         <v>26581162</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D61">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F61">
-        <v>69.4672131147541</v>
+        <v>63.0865484880083</v>
       </c>
       <c r="G61">
-        <v>4.14157489871247</v>
+        <v>3.92337309848527</v>
       </c>
       <c r="H61">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="I61" t="s">
-        <v>344</v>
-      </c>
-      <c r="K61" t="s">
-        <v>383</v>
+        <v>360</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3711,31 +3510,31 @@
         <v>26581162</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D62">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F62">
-        <v>2.79776179056755</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G62">
-        <v>5.68106698847909</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H62">
-        <v>1251</v>
+        <v>794</v>
       </c>
       <c r="I62" t="s">
-        <v>344</v>
-      </c>
-      <c r="K62" t="s">
-        <v>384</v>
+        <v>360</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3743,31 +3542,31 @@
         <v>26581162</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D63">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F63">
-        <v>3.35463258785942</v>
+        <v>62.7753303964758</v>
       </c>
       <c r="G63">
-        <v>6.18484081253769</v>
+        <v>4.37385317057862</v>
       </c>
       <c r="H63">
-        <v>1252</v>
+        <v>908</v>
       </c>
       <c r="I63" t="s">
-        <v>344</v>
-      </c>
-      <c r="K63" t="s">
-        <v>385</v>
+        <v>360</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3775,31 +3574,31 @@
         <v>26581162</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="D64">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F64">
-        <v>20.8944281524927</v>
+        <v>69.4672131147541</v>
       </c>
       <c r="G64">
-        <v>4.8697879664293</v>
+        <v>4.14157489871247</v>
       </c>
       <c r="H64">
-        <v>1364</v>
+        <v>976</v>
       </c>
       <c r="I64" t="s">
-        <v>344</v>
-      </c>
-      <c r="K64" t="s">
-        <v>386</v>
+        <v>360</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3807,31 +3606,31 @@
         <v>26581162</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="D65">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F65">
-        <v>51.6363636363636</v>
+        <v>2.79776179056755</v>
       </c>
       <c r="G65">
-        <v>5.68356546928615</v>
+        <v>5.68106698847909</v>
       </c>
       <c r="H65">
-        <v>1375</v>
+        <v>1251</v>
       </c>
       <c r="I65" t="s">
-        <v>344</v>
-      </c>
-      <c r="K65" t="s">
-        <v>387</v>
+        <v>360</v>
+      </c>
+      <c r="K65">
+        <v>0.0902043269230769</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3839,34 +3638,31 @@
         <v>26581162</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="D66">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F66">
-        <v>2.69679300291545</v>
+        <v>3.35463258785942</v>
       </c>
       <c r="G66">
-        <v>5.88921427859597</v>
+        <v>6.18484081253769</v>
       </c>
       <c r="H66">
-        <v>1372</v>
+        <v>1252</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
-      </c>
-      <c r="J66">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.162388059701493</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3874,31 +3670,31 @@
         <v>26581162</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="D67">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="E67" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F67">
-        <v>56.6495224099926</v>
+        <v>20.8944281524927</v>
       </c>
       <c r="G67">
-        <v>3.93361586002584</v>
+        <v>4.8697879664293</v>
       </c>
       <c r="H67">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="I67" t="s">
-        <v>344</v>
-      </c>
-      <c r="K67" t="s">
-        <v>388</v>
+        <v>360</v>
+      </c>
+      <c r="K67">
+        <v>0.368535469107552</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3906,28 +3702,28 @@
         <v>26581162</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="D68">
-        <v>367</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F68">
-        <v>0.447093889716841</v>
+        <v>51.6363636363636</v>
       </c>
       <c r="G68">
-        <v>2.30132169775563</v>
+        <v>5.68356546928615</v>
       </c>
       <c r="H68">
-        <v>1342</v>
+        <v>1375</v>
       </c>
       <c r="I68" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3938,31 +3734,34 @@
         <v>26581162</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69">
-        <v>340</v>
+        <v>238</v>
       </c>
       <c r="D69">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="E69" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F69">
-        <v>85.3787878787879</v>
+        <v>2.69679300291545</v>
       </c>
       <c r="G69">
-        <v>3.0777750939932</v>
+        <v>5.88921427859597</v>
       </c>
       <c r="H69">
-        <v>1320</v>
+        <v>1372</v>
       </c>
       <c r="I69" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J69">
+        <v>56</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.0241860465116279</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3970,28 +3769,28 @@
         <v>26581162</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="D70">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F70">
-        <v>83.8926174496644</v>
+        <v>56.6495224099926</v>
       </c>
       <c r="G70">
-        <v>2.29987765443434</v>
+        <v>3.93361586002584</v>
       </c>
       <c r="H70">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="I70" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4002,28 +3801,28 @@
         <v>26581162</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D71">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F71">
-        <v>83.8926174496644</v>
+        <v>0.447093889716841</v>
       </c>
       <c r="G71">
-        <v>2.29987765443434</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H71">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="I71" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4034,31 +3833,31 @@
         <v>26581162</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D72">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F72">
-        <v>0.149142431021626</v>
+        <v>85.3787878787879</v>
       </c>
       <c r="G72">
-        <v>2.30132169775563</v>
+        <v>3.0777750939932</v>
       </c>
       <c r="H72">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="I72" t="s">
-        <v>344</v>
-      </c>
-      <c r="K72" t="s">
-        <v>389</v>
+        <v>360</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4066,28 +3865,28 @@
         <v>26581162</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D73">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F73">
-        <v>84.3062926459439</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G73">
-        <v>2.9598765879773</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H73">
-        <v>1319</v>
+        <v>1341</v>
       </c>
       <c r="I73" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4098,31 +3897,31 @@
         <v>26581162</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D74">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F74">
-        <v>0.0750750750750751</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G74">
-        <v>3.21096109494894</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H74">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="I74" t="s">
-        <v>344</v>
-      </c>
-      <c r="K74" t="s">
-        <v>390</v>
+        <v>360</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4130,31 +3929,31 @@
         <v>26581162</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D75">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F75">
-        <v>83.0521472392638</v>
+        <v>0.149142431021626</v>
       </c>
       <c r="G75">
-        <v>2.88355234031107</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="H75">
-        <v>1304</v>
+        <v>1341</v>
       </c>
       <c r="I75" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>0.571999097472924</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4162,28 +3961,28 @@
         <v>26581162</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D76">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F76">
-        <v>88.4178652535958</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G76">
-        <v>2.04604471326368</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H76">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I76" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4194,31 +3993,31 @@
         <v>26581162</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D77">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G77">
-        <v>4.3307332875547</v>
+        <v>3.21096109494894</v>
       </c>
       <c r="H77">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="I77" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>0.0736123348017621</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4226,31 +4025,31 @@
         <v>26581162</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="D78">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F78">
-        <v>62.5994694960212</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G78">
-        <v>3.79020057310525</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H78">
-        <v>377</v>
+        <v>1304</v>
       </c>
       <c r="I78" t="s">
-        <v>344</v>
-      </c>
-      <c r="K78" t="s">
-        <v>391</v>
+        <v>360</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4258,31 +4057,31 @@
         <v>26581162</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="D79">
-        <v>64</v>
+        <v>373</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F79">
-        <v>28.5714285714286</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G79">
-        <v>4.28905468307688</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H79">
-        <v>434</v>
+        <v>1321</v>
       </c>
       <c r="I79" t="s">
-        <v>344</v>
-      </c>
-      <c r="K79" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4290,28 +4089,28 @@
         <v>26581162</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="D80">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F80">
-        <v>89.7654584221748</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>2.82799410341281</v>
+        <v>4.3307332875547</v>
       </c>
       <c r="H80">
-        <v>469</v>
+        <v>1329</v>
       </c>
       <c r="I80" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4322,28 +4121,28 @@
         <v>26581162</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D81">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F81">
-        <v>86.5424430641822</v>
+        <v>62.5994694960212</v>
       </c>
       <c r="G81">
-        <v>2.71686075827078</v>
+        <v>3.79020057310525</v>
       </c>
       <c r="H81">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="I81" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4354,136 +4153,127 @@
         <v>26581162</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F82">
-        <v>70.4918032786885</v>
+        <v>28.5714285714286</v>
       </c>
       <c r="G82">
-        <v>2.62871100998389</v>
+        <v>4.28905468307688</v>
       </c>
       <c r="H82">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="I82" t="s">
-        <v>344</v>
-      </c>
-      <c r="K82" t="s">
-        <v>393</v>
+        <v>360</v>
+      </c>
+      <c r="K82">
+        <v>0.684722222222222</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D83">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="F83">
-        <v>63.4715025906736</v>
+        <v>89.7654584221748</v>
       </c>
       <c r="G83">
-        <v>3.74626818958162</v>
+        <v>2.82799410341281</v>
       </c>
       <c r="H83">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="I83" t="s">
-        <v>344</v>
-      </c>
-      <c r="J83">
-        <v>69</v>
-      </c>
-      <c r="K83" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84">
         <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>86.5424430641822</v>
       </c>
       <c r="G84">
-        <v>2.66017761804901</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="H84">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I84" t="s">
-        <v>344</v>
-      </c>
-      <c r="J84">
-        <v>81</v>
-      </c>
-      <c r="K84" t="s">
-        <v>394</v>
+        <v>360</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>26607397</v>
+        <v>26581162</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D85">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F85">
-        <v>54.9313358302122</v>
+        <v>70.4918032786885</v>
       </c>
       <c r="G85">
-        <v>5.27346382403279</v>
+        <v>2.62871100998389</v>
       </c>
       <c r="H85">
-        <v>801</v>
+        <v>488</v>
       </c>
       <c r="I85" t="s">
-        <v>344</v>
-      </c>
-      <c r="J85">
-        <v>65</v>
-      </c>
-      <c r="K85" t="s">
-        <v>395</v>
+        <v>360</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4491,28 +4281,31 @@
         <v>26607397</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="D86">
-        <v>362</v>
+        <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="F86">
-        <v>84.3062926459439</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G86">
-        <v>2.9598765879773</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H86">
-        <v>1319</v>
+        <v>386</v>
       </c>
       <c r="I86" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J86">
+        <v>69</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4523,31 +4316,34 @@
         <v>26607397</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="D87">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F87">
-        <v>67.9021497405486</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>4.18899116697892</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H87">
-        <v>1349</v>
+        <v>493</v>
       </c>
       <c r="I87" t="s">
-        <v>344</v>
-      </c>
-      <c r="K87" t="s">
-        <v>396</v>
+        <v>360</v>
+      </c>
+      <c r="J87">
+        <v>81</v>
+      </c>
+      <c r="K87">
+        <v>0.681213017751479</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4555,34 +4351,34 @@
         <v>26607397</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F88">
-        <v>72.108843537415</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G88">
-        <v>3.2988062868948</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H88">
-        <v>1323</v>
+        <v>801</v>
       </c>
       <c r="I88" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J88">
-        <v>69</v>
-      </c>
-      <c r="K88" t="s">
-        <v>397</v>
+        <v>65</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4590,28 +4386,28 @@
         <v>26607397</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89">
-        <v>562</v>
+        <v>343</v>
       </c>
       <c r="D89">
-        <v>581</v>
+        <v>362</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F89">
-        <v>89.4977168949772</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G89">
-        <v>1.22978373627946</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H89">
-        <v>438</v>
+        <v>1319</v>
       </c>
       <c r="I89" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4619,86 +4415,86 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>26775808</v>
+        <v>26607397</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="D90">
-        <v>47</v>
+        <v>398</v>
       </c>
       <c r="E90" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="F90">
-        <v>63.4715025906736</v>
+        <v>67.9021497405486</v>
       </c>
       <c r="G90">
-        <v>3.74626818958162</v>
+        <v>4.18899116697892</v>
       </c>
       <c r="H90">
-        <v>386</v>
+        <v>1349</v>
       </c>
       <c r="I90" t="s">
-        <v>344</v>
-      </c>
-      <c r="J90">
-        <v>69</v>
-      </c>
-      <c r="K90" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>26775808</v>
+        <v>26607397</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D91">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F91">
-        <v>68.2743029389601</v>
+        <v>72.108843537415</v>
       </c>
       <c r="G91">
-        <v>2.61531160191328</v>
+        <v>3.2988062868948</v>
       </c>
       <c r="H91">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I91" t="s">
-        <v>344</v>
-      </c>
-      <c r="K91" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="J91">
+        <v>69</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>26775808</v>
+        <v>26607397</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D92">
         <v>581</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="F92">
         <v>89.4977168949772</v>
@@ -4710,7 +4506,7 @@
         <v>438</v>
       </c>
       <c r="I92" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4721,31 +4517,34 @@
         <v>26775808</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93">
-        <v>601</v>
+        <v>28</v>
       </c>
       <c r="D93">
-        <v>618</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="F93">
-        <v>45.7943925233645</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G93">
-        <v>3.96036636906972</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H93">
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>344</v>
-      </c>
-      <c r="K93" t="s">
-        <v>398</v>
+        <v>360</v>
+      </c>
+      <c r="J93">
+        <v>69</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4753,31 +4552,31 @@
         <v>26775808</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="D94">
-        <v>98</v>
+        <v>484</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F94">
-        <v>71.5789473684211</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G94">
-        <v>2.93200291828835</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H94">
-        <v>570</v>
+        <v>1327</v>
       </c>
       <c r="I94" t="s">
-        <v>344</v>
-      </c>
-      <c r="K94" t="s">
-        <v>399</v>
+        <v>360</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4785,31 +4584,31 @@
         <v>26775808</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95">
-        <v>113</v>
+        <v>563</v>
       </c>
       <c r="D95">
-        <v>131</v>
+        <v>581</v>
       </c>
       <c r="E95" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F95">
-        <v>63.0836047774158</v>
+        <v>89.4977168949772</v>
       </c>
       <c r="G95">
-        <v>4.36426268842462</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="H95">
-        <v>921</v>
+        <v>438</v>
       </c>
       <c r="I95" t="s">
-        <v>344</v>
-      </c>
-      <c r="K95" t="s">
-        <v>400</v>
+        <v>360</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4817,31 +4616,31 @@
         <v>26775808</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96">
-        <v>291</v>
+        <v>601</v>
       </c>
       <c r="D96">
-        <v>309</v>
+        <v>618</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F96">
-        <v>57.3593073593074</v>
+        <v>45.7943925233645</v>
       </c>
       <c r="G96">
-        <v>4.16980328476335</v>
+        <v>3.96036636906972</v>
       </c>
       <c r="H96">
-        <v>1386</v>
+        <v>535</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.699107142857144</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4849,28 +4648,28 @@
         <v>26775808</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="D97">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F97">
-        <v>16.3173652694611</v>
+        <v>71.5789473684211</v>
       </c>
       <c r="G97">
-        <v>5.02576326773487</v>
+        <v>2.93200291828835</v>
       </c>
       <c r="H97">
-        <v>1336</v>
+        <v>570</v>
       </c>
       <c r="I97" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4881,28 +4680,28 @@
         <v>26775808</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="D98">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F98">
-        <v>83.8926174496644</v>
+        <v>63.0836047774158</v>
       </c>
       <c r="G98">
-        <v>2.29987765443434</v>
+        <v>4.36426268842462</v>
       </c>
       <c r="H98">
-        <v>1341</v>
+        <v>921</v>
       </c>
       <c r="I98" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4913,28 +4712,28 @@
         <v>26775808</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="D99">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F99">
-        <v>82.4961948249619</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G99">
-        <v>2.13840092526582</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H99">
-        <v>1314</v>
+        <v>1386</v>
       </c>
       <c r="I99" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4945,31 +4744,31 @@
         <v>26775808</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="D100">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F100">
-        <v>74.2222222222222</v>
+        <v>16.3173652694611</v>
       </c>
       <c r="G100">
-        <v>3.25838907939314</v>
+        <v>5.02576326773487</v>
       </c>
       <c r="H100">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="I100" t="s">
-        <v>344</v>
-      </c>
-      <c r="K100" t="s">
-        <v>401</v>
+        <v>360</v>
+      </c>
+      <c r="K100">
+        <v>0.101565995525727</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4977,63 +4776,60 @@
         <v>26775808</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="D101">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F101">
-        <v>57.2</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G101">
-        <v>3.59764397297095</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H101">
-        <v>1250</v>
+        <v>1341</v>
       </c>
       <c r="I101" t="s">
-        <v>344</v>
-      </c>
-      <c r="K101" t="s">
-        <v>402</v>
+        <v>360</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102">
-        <v>7216</v>
+        <v>356</v>
       </c>
       <c r="D102">
-        <v>7235</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F102">
-        <v>7.05398680082224</v>
+        <v>82.4961948249619</v>
       </c>
       <c r="G102">
-        <v>8.78588081129575</v>
+        <v>2.13840092526582</v>
       </c>
       <c r="H102">
-        <v>27729</v>
+        <v>1314</v>
       </c>
       <c r="I102" t="s">
-        <v>345</v>
-      </c>
-      <c r="J102">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -5041,31 +4837,31 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103">
-        <v>7794</v>
+        <v>386</v>
       </c>
       <c r="D103">
-        <v>7813</v>
+        <v>404</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F103">
-        <v>90.8331223094454</v>
+        <v>74.2222222222222</v>
       </c>
       <c r="G103">
-        <v>1.57065421239004</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="H103">
-        <v>27643</v>
+        <v>1350</v>
       </c>
       <c r="I103" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -5073,34 +4869,34 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>26796669</v>
+        <v>26775808</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104">
-        <v>1389</v>
+        <v>436</v>
       </c>
       <c r="D104">
-        <v>1408</v>
+        <v>452</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F104">
-        <v>81.6615556175077</v>
+        <v>57.2</v>
       </c>
       <c r="G104">
-        <v>2.55131653128207</v>
+        <v>3.59764397297095</v>
       </c>
       <c r="H104">
-        <v>17935</v>
+        <v>1250</v>
       </c>
       <c r="I104" t="s">
-        <v>346</v>
-      </c>
-      <c r="K104" t="s">
-        <v>403</v>
+        <v>360</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5108,34 +4904,34 @@
         <v>26796669</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105">
-        <v>1909</v>
+        <v>7216</v>
       </c>
       <c r="D105">
-        <v>1928</v>
+        <v>7235</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F105">
-        <v>1.78214523650899</v>
+        <v>7.05398680082224</v>
       </c>
       <c r="G105">
-        <v>6.65687768109007</v>
+        <v>8.78588081129575</v>
       </c>
       <c r="H105">
-        <v>6004</v>
+        <v>27729</v>
       </c>
       <c r="I105" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="J105">
-        <v>67</v>
-      </c>
-      <c r="K105" t="s">
-        <v>404</v>
+        <v>53</v>
+      </c>
+      <c r="K105">
+        <v>0.0531718281718281</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5143,31 +4939,31 @@
         <v>26796669</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106">
-        <v>2255</v>
+        <v>7794</v>
       </c>
       <c r="D106">
-        <v>2274</v>
+        <v>7813</v>
       </c>
       <c r="E106" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="F106">
-        <v>54.1853874334693</v>
+        <v>90.8331223094454</v>
       </c>
       <c r="G106">
-        <v>1.75088485980889</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="H106">
-        <v>14467</v>
+        <v>27643</v>
       </c>
       <c r="I106" t="s">
-        <v>346</v>
-      </c>
-      <c r="K106" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5175,34 +4971,31 @@
         <v>26796669</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107">
-        <v>79</v>
+        <v>1389</v>
       </c>
       <c r="D107">
-        <v>98</v>
+        <v>1408</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F107">
-        <v>71.4285714285714</v>
+        <v>81.6615556175077</v>
       </c>
       <c r="G107">
-        <v>2.91432539124929</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="H107">
-        <v>532</v>
+        <v>17935</v>
       </c>
       <c r="I107" t="s">
-        <v>344</v>
-      </c>
-      <c r="J107">
-        <v>76</v>
-      </c>
-      <c r="K107" t="s">
-        <v>405</v>
+        <v>362</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5210,34 +5003,34 @@
         <v>26796669</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108">
-        <v>112</v>
+        <v>1909</v>
       </c>
       <c r="D108">
-        <v>131</v>
+        <v>1928</v>
       </c>
       <c r="E108" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F108">
-        <v>62.8289473684211</v>
+        <v>1.78214523650899</v>
       </c>
       <c r="G108">
-        <v>4.38155666293078</v>
+        <v>6.65687768109007</v>
       </c>
       <c r="H108">
-        <v>912</v>
+        <v>6004</v>
       </c>
       <c r="I108" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="J108">
-        <v>68</v>
-      </c>
-      <c r="K108" t="s">
-        <v>406</v>
+        <v>67</v>
+      </c>
+      <c r="K108">
+        <v>0.109142857142857</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5245,31 +5038,28 @@
         <v>26796669</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109">
-        <v>241</v>
+        <v>2255</v>
       </c>
       <c r="D109">
-        <v>260</v>
+        <v>2274</v>
       </c>
       <c r="E109" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="F109">
-        <v>19.2753623188406</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G109">
-        <v>6.17265819570612</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H109">
-        <v>1380</v>
+        <v>14467</v>
       </c>
       <c r="I109" t="s">
-        <v>344</v>
-      </c>
-      <c r="J109">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5280,34 +5070,34 @@
         <v>26796669</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="D110">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F110">
-        <v>28.9645184648805</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="G110">
-        <v>5.81232753140697</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="H110">
-        <v>1381</v>
+        <v>532</v>
       </c>
       <c r="I110" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J110">
-        <v>69</v>
-      </c>
-      <c r="K110" t="s">
-        <v>407</v>
+        <v>76</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5318,31 +5108,31 @@
         <v>115</v>
       </c>
       <c r="C111">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="D111">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F111">
-        <v>28.9645184648805</v>
+        <v>62.8289473684211</v>
       </c>
       <c r="G111">
-        <v>5.81232753140697</v>
+        <v>4.38155666293078</v>
       </c>
       <c r="H111">
-        <v>1381</v>
+        <v>912</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J111">
-        <v>79</v>
-      </c>
-      <c r="K111" t="s">
-        <v>407</v>
+        <v>68</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5353,28 +5143,31 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="D112">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E112" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F112">
-        <v>27.7213352685051</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G112">
-        <v>5.68995408300113</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H112">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="I112" t="s">
-        <v>344</v>
-      </c>
-      <c r="K112" t="s">
-        <v>408</v>
+        <v>360</v>
+      </c>
+      <c r="J112">
+        <v>52</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5385,28 +5178,31 @@
         <v>117</v>
       </c>
       <c r="C113">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="D113">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="F113">
-        <v>84.3062926459439</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G113">
-        <v>2.9598765879773</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H113">
-        <v>1319</v>
+        <v>1381</v>
       </c>
       <c r="I113" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J113">
+        <v>69</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>0.386304347826087</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5414,31 +5210,34 @@
         <v>26796669</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="D114">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="E114" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F114">
-        <v>84.5577211394303</v>
+        <v>28.9645184648805</v>
       </c>
       <c r="G114">
-        <v>1.46977716700958</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="H114">
-        <v>1334</v>
+        <v>1381</v>
       </c>
       <c r="I114" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J114">
+        <v>79</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>0.386304347826087</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5446,31 +5245,31 @@
         <v>26796669</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115">
-        <v>8789</v>
+        <v>278</v>
       </c>
       <c r="D115">
-        <v>8808</v>
+        <v>297</v>
       </c>
       <c r="E115" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F115">
-        <v>58.5034013605442</v>
+        <v>27.7213352685051</v>
       </c>
       <c r="G115">
-        <v>4.83247190089833</v>
+        <v>5.68995408300113</v>
       </c>
       <c r="H115">
-        <v>5880</v>
+        <v>1378</v>
       </c>
       <c r="I115" t="s">
-        <v>349</v>
-      </c>
-      <c r="K115" t="s">
-        <v>409</v>
+        <v>360</v>
+      </c>
+      <c r="K115">
+        <v>0.408571428571428</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5478,28 +5277,28 @@
         <v>26796669</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116">
-        <v>2571</v>
+        <v>343</v>
       </c>
       <c r="D116">
-        <v>2590</v>
+        <v>362</v>
       </c>
       <c r="E116" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="F116">
-        <v>76.3893207765093</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G116">
-        <v>2.20598040702089</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H116">
-        <v>45022</v>
+        <v>1319</v>
       </c>
       <c r="I116" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5510,31 +5309,31 @@
         <v>26796669</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117">
-        <v>3346</v>
+        <v>415</v>
       </c>
       <c r="D117">
-        <v>3365</v>
+        <v>434</v>
       </c>
       <c r="E117" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F117">
-        <v>21.9867430220499</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G117">
-        <v>5.04730808303746</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H117">
-        <v>22177</v>
+        <v>1334</v>
       </c>
       <c r="I117" t="s">
-        <v>346</v>
-      </c>
-      <c r="K117" t="s">
-        <v>410</v>
+        <v>360</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5542,31 +5341,31 @@
         <v>26796669</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118">
-        <v>4149</v>
+        <v>8789</v>
       </c>
       <c r="D118">
-        <v>4168</v>
+        <v>8808</v>
       </c>
       <c r="E118" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F118">
-        <v>72.4938271604938</v>
+        <v>58.5034013605442</v>
       </c>
       <c r="G118">
-        <v>2.75139254135397</v>
+        <v>4.83247190089833</v>
       </c>
       <c r="H118">
-        <v>4050</v>
+        <v>5880</v>
       </c>
       <c r="I118" t="s">
-        <v>346</v>
-      </c>
-      <c r="K118" t="s">
-        <v>411</v>
+        <v>365</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5574,31 +5373,31 @@
         <v>26796669</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119">
-        <v>4799</v>
+        <v>2571</v>
       </c>
       <c r="D119">
-        <v>4818</v>
+        <v>2590</v>
       </c>
       <c r="E119" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F119">
-        <v>73.0409885473177</v>
+        <v>76.3893207765093</v>
       </c>
       <c r="G119">
-        <v>2.80205958033291</v>
+        <v>2.20598040702089</v>
       </c>
       <c r="H119">
-        <v>6636</v>
+        <v>45022</v>
       </c>
       <c r="I119" t="s">
-        <v>346</v>
-      </c>
-      <c r="K119" t="s">
-        <v>412</v>
+        <v>362</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5606,31 +5405,31 @@
         <v>26796669</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120">
-        <v>5970</v>
+        <v>3346</v>
       </c>
       <c r="D120">
-        <v>5989</v>
+        <v>3365</v>
       </c>
       <c r="E120" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F120">
-        <v>85.3286816011752</v>
+        <v>21.9867430220499</v>
       </c>
       <c r="G120">
-        <v>1.89245037761505</v>
+        <v>5.04730808303746</v>
       </c>
       <c r="H120">
-        <v>5446</v>
+        <v>22177</v>
       </c>
       <c r="I120" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>0.0978455002601006</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5638,28 +5437,28 @@
         <v>26796669</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121">
-        <v>5798</v>
+        <v>4149</v>
       </c>
       <c r="D121">
-        <v>5817</v>
+        <v>4168</v>
       </c>
       <c r="E121" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G121">
-        <v>6.93185922183479</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H121">
-        <v>4915</v>
+        <v>4050</v>
       </c>
       <c r="I121" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5667,101 +5466,98 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>26939770</v>
+        <v>26796669</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122">
-        <v>98</v>
+        <v>4799</v>
       </c>
       <c r="D122">
-        <v>127</v>
+        <v>4818</v>
       </c>
       <c r="E122" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="F122">
-        <v>55.0446998722861</v>
+        <v>73.0409885473177</v>
       </c>
       <c r="G122">
-        <v>5.2490487877587</v>
+        <v>2.80205958033291</v>
       </c>
       <c r="H122">
-        <v>783</v>
+        <v>6636</v>
       </c>
       <c r="I122" t="s">
-        <v>344</v>
-      </c>
-      <c r="K122" t="s">
-        <v>413</v>
+        <v>362</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>26939770</v>
+        <v>26796669</v>
       </c>
       <c r="B123" t="s">
         <v>126</v>
       </c>
       <c r="C123">
-        <v>108</v>
+        <v>5970</v>
       </c>
       <c r="D123">
-        <v>127</v>
+        <v>5989</v>
       </c>
       <c r="E123" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F123">
-        <v>54.9313358302122</v>
+        <v>85.3286816011752</v>
       </c>
       <c r="G123">
-        <v>5.27346382403279</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="H123">
-        <v>801</v>
+        <v>5446</v>
       </c>
       <c r="I123" t="s">
-        <v>344</v>
-      </c>
-      <c r="J123">
-        <v>65</v>
-      </c>
-      <c r="K123" t="s">
-        <v>413</v>
+        <v>366</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>26939770</v>
+        <v>26796669</v>
       </c>
       <c r="B124" t="s">
         <v>127</v>
       </c>
       <c r="C124">
-        <v>312</v>
+        <v>5798</v>
       </c>
       <c r="D124">
-        <v>331</v>
+        <v>5817</v>
       </c>
       <c r="E124" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F124">
-        <v>21.4126394052045</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>4.60505589831112</v>
+        <v>6.93185922183479</v>
       </c>
       <c r="H124">
-        <v>1345</v>
+        <v>4915</v>
       </c>
       <c r="I124" t="s">
-        <v>344</v>
-      </c>
-      <c r="K124" t="s">
-        <v>354</v>
+        <v>367</v>
+      </c>
+      <c r="K124">
+        <v>0.012597911227154</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5769,130 +5565,130 @@
         <v>26939770</v>
       </c>
       <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>98</v>
+      </c>
+      <c r="D125">
         <v>127</v>
       </c>
-      <c r="C125">
-        <v>312</v>
-      </c>
-      <c r="D125">
-        <v>341</v>
-      </c>
       <c r="E125" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F125">
-        <v>21.4126394052045</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G125">
-        <v>4.60505589831112</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H125">
-        <v>1345</v>
+        <v>783</v>
       </c>
       <c r="I125" t="s">
-        <v>344</v>
-      </c>
-      <c r="K125" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
       </c>
       <c r="C126">
-        <v>1465</v>
+        <v>108</v>
       </c>
       <c r="D126">
-        <v>1484</v>
+        <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F126">
-        <v>68.5109699076849</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G126">
-        <v>2.4702253659487</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H126">
-        <v>16682</v>
+        <v>801</v>
       </c>
       <c r="I126" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="J126">
-        <v>58</v>
-      </c>
-      <c r="K126" t="s">
-        <v>414</v>
+        <v>65</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
       </c>
       <c r="C127">
-        <v>2103</v>
+        <v>312</v>
       </c>
       <c r="D127">
-        <v>2124</v>
+        <v>331</v>
       </c>
       <c r="E127" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F127">
-        <v>26.0137538534503</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G127">
-        <v>4.63821755315855</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H127">
-        <v>8434</v>
+        <v>1345</v>
       </c>
       <c r="I127" t="s">
-        <v>346</v>
-      </c>
-      <c r="K127" t="s">
-        <v>415</v>
+        <v>360</v>
+      </c>
+      <c r="K127">
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>26990633</v>
+        <v>26939770</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128">
-        <v>796</v>
+        <v>312</v>
       </c>
       <c r="D128">
-        <v>817</v>
+        <v>341</v>
       </c>
       <c r="E128" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F128">
-        <v>67.0113244707041</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G128">
-        <v>2.90268267669181</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H128">
-        <v>2031</v>
+        <v>1345</v>
       </c>
       <c r="I128" t="s">
-        <v>346</v>
-      </c>
-      <c r="K128" t="s">
-        <v>416</v>
+        <v>360</v>
+      </c>
+      <c r="K128">
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5900,31 +5696,34 @@
         <v>26990633</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129">
-        <v>1061</v>
+        <v>1465</v>
       </c>
       <c r="D129">
-        <v>1081</v>
+        <v>1484</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F129">
-        <v>25.0320767397813</v>
+        <v>68.5109699076849</v>
       </c>
       <c r="G129">
-        <v>5.55527862724779</v>
+        <v>2.4702253659487</v>
       </c>
       <c r="H129">
-        <v>16367</v>
+        <v>16682</v>
       </c>
       <c r="I129" t="s">
-        <v>346</v>
-      </c>
-      <c r="K129" t="s">
-        <v>417</v>
+        <v>362</v>
+      </c>
+      <c r="J129">
+        <v>58</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5932,31 +5731,31 @@
         <v>26990633</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C130">
-        <v>98</v>
+        <v>2103</v>
       </c>
       <c r="D130">
-        <v>127</v>
+        <v>2124</v>
       </c>
       <c r="E130" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="F130">
-        <v>55.0446998722861</v>
+        <v>26.0137538534503</v>
       </c>
       <c r="G130">
-        <v>5.2490487877587</v>
+        <v>4.63821755315855</v>
       </c>
       <c r="H130">
-        <v>783</v>
+        <v>8434</v>
       </c>
       <c r="I130" t="s">
-        <v>344</v>
-      </c>
-      <c r="K130" t="s">
-        <v>353</v>
+        <v>362</v>
+      </c>
+      <c r="K130">
+        <v>0.404043280182232</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5964,31 +5763,31 @@
         <v>26990633</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C131">
-        <v>312</v>
+        <v>796</v>
       </c>
       <c r="D131">
-        <v>341</v>
+        <v>817</v>
       </c>
       <c r="E131" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="F131">
-        <v>21.4126394052045</v>
+        <v>67.0113244707041</v>
       </c>
       <c r="G131">
-        <v>4.60505589831112</v>
+        <v>2.90268267669181</v>
       </c>
       <c r="H131">
-        <v>1345</v>
+        <v>2031</v>
       </c>
       <c r="I131" t="s">
-        <v>344</v>
-      </c>
-      <c r="K131" t="s">
-        <v>354</v>
+        <v>362</v>
+      </c>
+      <c r="K131">
+        <v>0.880931065353626</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5996,34 +5795,31 @@
         <v>26990633</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="C132">
-        <v>78</v>
+        <v>1061</v>
       </c>
       <c r="D132">
-        <v>97</v>
+        <v>1081</v>
       </c>
       <c r="E132" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="F132">
-        <v>70.3252032520325</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G132">
-        <v>2.66017761804901</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H132">
-        <v>492</v>
+        <v>16367</v>
       </c>
       <c r="I132" t="s">
-        <v>344</v>
-      </c>
-      <c r="J132">
-        <v>81</v>
-      </c>
-      <c r="K132" t="s">
-        <v>355</v>
+        <v>362</v>
+      </c>
+      <c r="K132">
+        <v>0.732547942960171</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6031,31 +5827,31 @@
         <v>26990633</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="D133">
-        <v>399</v>
+        <v>127</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F133">
-        <v>59.659511472983</v>
+        <v>55.0446998722861</v>
       </c>
       <c r="G133">
-        <v>4.20622313379339</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="H133">
-        <v>1351</v>
+        <v>783</v>
       </c>
       <c r="I133" t="s">
-        <v>344</v>
-      </c>
-      <c r="K133" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6063,31 +5859,31 @@
         <v>26990633</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="D134">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="E134" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F134">
-        <v>28.8372093023256</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G134">
-        <v>4.27334109035607</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H134">
-        <v>430</v>
+        <v>1345</v>
       </c>
       <c r="I134" t="s">
-        <v>344</v>
-      </c>
-      <c r="K134" t="s">
-        <v>372</v>
+        <v>360</v>
+      </c>
+      <c r="K134">
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6095,28 +5891,31 @@
         <v>26990633</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C135">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="D135">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="F135">
-        <v>0.0750750750750751</v>
+        <v>70.3252032520325</v>
       </c>
       <c r="G135">
-        <v>1.701342905986</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="H135">
-        <v>1332</v>
+        <v>492</v>
       </c>
       <c r="I135" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J135">
+        <v>81</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -6127,31 +5926,31 @@
         <v>26990633</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C136">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="D136">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="E136" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F136">
-        <v>66.2817551963048</v>
+        <v>59.659511472983</v>
       </c>
       <c r="G136">
-        <v>4.37524539435632</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="H136">
-        <v>433</v>
+        <v>1351</v>
       </c>
       <c r="I136" t="s">
-        <v>344</v>
-      </c>
-      <c r="K136" t="s">
-        <v>373</v>
+        <v>360</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6159,31 +5958,31 @@
         <v>26990633</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C137">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D137">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F137">
-        <v>40.4710920770878</v>
+        <v>28.8372093023256</v>
       </c>
       <c r="G137">
-        <v>3.86885384896436</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="H137">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I137" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>0.687383177570093</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6191,31 +5990,31 @@
         <v>26990633</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C138">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="D138">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="E138" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F138">
-        <v>55.0377833753149</v>
+        <v>0.0750750750750751</v>
       </c>
       <c r="G138">
-        <v>5.26257053419506</v>
+        <v>1.701342905986</v>
       </c>
       <c r="H138">
-        <v>794</v>
+        <v>1332</v>
       </c>
       <c r="I138" t="s">
-        <v>344</v>
-      </c>
-      <c r="K138" t="s">
-        <v>374</v>
+        <v>360</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6223,31 +6022,31 @@
         <v>26990633</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C139">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="D139">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="E139" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F139">
-        <v>3.48583877995643</v>
+        <v>66.2817551963048</v>
       </c>
       <c r="G139">
-        <v>6.7698759592779</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="H139">
-        <v>1377</v>
+        <v>433</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
-      </c>
-      <c r="K139" t="s">
-        <v>375</v>
+        <v>360</v>
+      </c>
+      <c r="K139">
+        <v>0.890988372093023</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6255,31 +6054,31 @@
         <v>26990633</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="D140">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F140">
-        <v>5.7204923968139</v>
+        <v>40.4710920770878</v>
       </c>
       <c r="G140">
-        <v>5.80365809729613</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="H140">
-        <v>1381</v>
+        <v>467</v>
       </c>
       <c r="I140" t="s">
-        <v>344</v>
-      </c>
-      <c r="K140" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+      <c r="K140">
+        <v>0.44375</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6287,28 +6086,28 @@
         <v>26990633</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C141">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="D141">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="E141" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F141">
-        <v>57.3593073593074</v>
+        <v>55.0377833753149</v>
       </c>
       <c r="G141">
-        <v>4.16980328476335</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="H141">
-        <v>1386</v>
+        <v>794</v>
       </c>
       <c r="I141" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6319,31 +6118,31 @@
         <v>26990633</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C142">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D142">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="E142" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F142">
-        <v>14.8286140089419</v>
+        <v>3.48583877995643</v>
       </c>
       <c r="G142">
-        <v>4.77181555488247</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="H142">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="I142" t="s">
-        <v>344</v>
-      </c>
-      <c r="K142" t="s">
-        <v>377</v>
+        <v>360</v>
+      </c>
+      <c r="K142">
+        <v>0.0464628297362111</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6351,31 +6150,31 @@
         <v>26990633</v>
       </c>
       <c r="B143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C143">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="D143">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="E143" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F143">
-        <v>31.6104868913858</v>
+        <v>5.7204923968139</v>
       </c>
       <c r="G143">
-        <v>5.35698143814368</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="H143">
-        <v>1335</v>
+        <v>1381</v>
       </c>
       <c r="I143" t="s">
-        <v>344</v>
-      </c>
-      <c r="K143" t="s">
-        <v>378</v>
+        <v>360</v>
+      </c>
+      <c r="K143">
+        <v>0.127478902953586</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6383,28 +6182,28 @@
         <v>26990633</v>
       </c>
       <c r="B144" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C144">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="D144">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E144" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F144">
-        <v>84.3062926459439</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G144">
-        <v>2.9598765879773</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H144">
-        <v>1319</v>
+        <v>1386</v>
       </c>
       <c r="I144" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6415,31 +6214,31 @@
         <v>26990633</v>
       </c>
       <c r="B145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C145">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="D145">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="E145" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F145">
-        <v>88.4178652535958</v>
+        <v>14.8286140089419</v>
       </c>
       <c r="G145">
-        <v>2.04604471326368</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="H145">
-        <v>1321</v>
+        <v>1342</v>
       </c>
       <c r="I145" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>0.6168</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6447,31 +6246,31 @@
         <v>26990633</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C146">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="D146">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="E146" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="F146">
-        <v>83.0521472392638</v>
+        <v>31.6104868913858</v>
       </c>
       <c r="G146">
-        <v>2.88355234031107</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="H146">
-        <v>1304</v>
+        <v>1335</v>
       </c>
       <c r="I146" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>0.494469026548672</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6479,31 +6278,31 @@
         <v>26990633</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C147">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D147">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="E147" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="F147">
-        <v>74.2222222222222</v>
+        <v>84.3062926459439</v>
       </c>
       <c r="G147">
-        <v>3.25838907939314</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="H147">
-        <v>1350</v>
+        <v>1319</v>
       </c>
       <c r="I147" t="s">
-        <v>344</v>
-      </c>
-      <c r="K147" t="s">
-        <v>401</v>
+        <v>360</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6511,31 +6310,31 @@
         <v>26990633</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C148">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="D148">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="E148" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="F148">
-        <v>2.48719824433065</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G148">
-        <v>4.61165908722239</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H148">
-        <v>1367</v>
+        <v>1321</v>
       </c>
       <c r="I148" t="s">
-        <v>344</v>
-      </c>
-      <c r="K148" t="s">
-        <v>418</v>
+        <v>360</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6543,31 +6342,28 @@
         <v>26990633</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C149">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="D149">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>83.0521472392638</v>
       </c>
       <c r="G149">
-        <v>6.6245118373683</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="H149">
-        <v>1373</v>
+        <v>1304</v>
       </c>
       <c r="I149" t="s">
-        <v>344</v>
-      </c>
-      <c r="J149">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -6578,28 +6374,28 @@
         <v>26990633</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150">
-        <v>4294</v>
+        <v>385</v>
       </c>
       <c r="D150">
-        <v>4313</v>
+        <v>404</v>
       </c>
       <c r="E150" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>74.2222222222222</v>
       </c>
       <c r="G150">
-        <v>4.62131369019485</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="H150">
-        <v>6372</v>
+        <v>1350</v>
       </c>
       <c r="I150" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6610,127 +6406,127 @@
         <v>26990633</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151">
-        <v>4149</v>
+        <v>213</v>
       </c>
       <c r="D151">
-        <v>4168</v>
+        <v>233</v>
       </c>
       <c r="E151" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="F151">
-        <v>72.4938271604938</v>
+        <v>2.48719824433065</v>
       </c>
       <c r="G151">
-        <v>2.75139254135397</v>
+        <v>4.61165908722239</v>
       </c>
       <c r="H151">
-        <v>4050</v>
+        <v>1367</v>
       </c>
       <c r="I151" t="s">
-        <v>346</v>
-      </c>
-      <c r="K151" t="s">
-        <v>411</v>
+        <v>360</v>
+      </c>
+      <c r="K151">
+        <v>0.168950177935943</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152">
-        <v>6244</v>
+        <v>237</v>
       </c>
       <c r="D152">
-        <v>6261</v>
+        <v>257</v>
       </c>
       <c r="E152" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="F152">
-        <v>15.5186861069214</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>7.27813169788748</v>
+        <v>6.6245118373683</v>
       </c>
       <c r="H152">
-        <v>5967</v>
+        <v>1373</v>
       </c>
       <c r="I152" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="J152">
-        <v>54</v>
-      </c>
-      <c r="K152" t="s">
-        <v>419</v>
+        <v>55</v>
+      </c>
+      <c r="K152">
+        <v>0.025703642384106</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C153">
-        <v>7343</v>
+        <v>4294</v>
       </c>
       <c r="D153">
-        <v>7362</v>
+        <v>4313</v>
       </c>
       <c r="E153" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="F153">
-        <v>45.3404048057149</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>5.63915036449642</v>
+        <v>4.62131369019485</v>
       </c>
       <c r="H153">
-        <v>27717</v>
+        <v>6372</v>
       </c>
       <c r="I153" t="s">
-        <v>345</v>
-      </c>
-      <c r="K153" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154">
-        <v>27068471</v>
+        <v>26990633</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C154">
-        <v>6793</v>
+        <v>4149</v>
       </c>
       <c r="D154">
-        <v>6812</v>
+        <v>4168</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F154">
-        <v>7.26041788257266</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G154">
-        <v>8.24250514482661</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H154">
-        <v>34268</v>
+        <v>4050</v>
       </c>
       <c r="I154" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -6741,34 +6537,34 @@
         <v>27068471</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C155">
-        <v>7431</v>
+        <v>6244</v>
       </c>
       <c r="D155">
-        <v>7450</v>
+        <v>6261</v>
       </c>
       <c r="E155" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="F155">
-        <v>2.11819989155973</v>
+        <v>15.5186861069214</v>
       </c>
       <c r="G155">
-        <v>10.1582510830201</v>
+        <v>7.27813169788748</v>
       </c>
       <c r="H155">
-        <v>27665</v>
+        <v>5967</v>
       </c>
       <c r="I155" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="J155">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>0.246212121212121</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6776,34 +6572,31 @@
         <v>27068471</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156">
-        <v>7614</v>
+        <v>7343</v>
       </c>
       <c r="D156">
-        <v>7633</v>
+        <v>7362</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="F156">
-        <v>14.2831915707685</v>
+        <v>45.3404048057149</v>
       </c>
       <c r="G156">
-        <v>9.46445437412304</v>
+        <v>5.63915036449642</v>
       </c>
       <c r="H156">
-        <v>33977</v>
+        <v>27717</v>
       </c>
       <c r="I156" t="s">
-        <v>345</v>
-      </c>
-      <c r="J156">
-        <v>80</v>
-      </c>
-      <c r="K156" t="s">
-        <v>420</v>
+        <v>361</v>
+      </c>
+      <c r="K156">
+        <v>0.666202027516293</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6811,31 +6604,31 @@
         <v>27068471</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157">
-        <v>312</v>
+        <v>6793</v>
       </c>
       <c r="D157">
-        <v>331</v>
+        <v>6812</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F157">
-        <v>21.4126394052045</v>
+        <v>7.26041788257266</v>
       </c>
       <c r="G157">
-        <v>4.60505589831112</v>
+        <v>8.24250514482661</v>
       </c>
       <c r="H157">
-        <v>1345</v>
+        <v>34268</v>
       </c>
       <c r="I157" t="s">
-        <v>344</v>
-      </c>
-      <c r="K157" t="s">
-        <v>354</v>
+        <v>361</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6843,31 +6636,34 @@
         <v>27068471</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C158">
-        <v>8513</v>
+        <v>7431</v>
       </c>
       <c r="D158">
-        <v>8532</v>
+        <v>7450</v>
       </c>
       <c r="E158" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="F158">
-        <v>59.2755978639424</v>
+        <v>2.11819989155973</v>
       </c>
       <c r="G158">
-        <v>3.76299227390448</v>
+        <v>10.1582510830201</v>
       </c>
       <c r="H158">
-        <v>25842</v>
+        <v>27665</v>
       </c>
       <c r="I158" t="s">
-        <v>347</v>
-      </c>
-      <c r="K158" t="s">
-        <v>421</v>
+        <v>361</v>
+      </c>
+      <c r="J158">
+        <v>65</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -6875,197 +6671,194 @@
         <v>27068471</v>
       </c>
       <c r="B159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C159">
-        <v>2255</v>
+        <v>7614</v>
       </c>
       <c r="D159">
-        <v>2274</v>
+        <v>7633</v>
       </c>
       <c r="E159" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F159">
-        <v>54.1853874334693</v>
+        <v>14.2831915707685</v>
       </c>
       <c r="G159">
-        <v>1.75088485980889</v>
+        <v>9.46445437412304</v>
       </c>
       <c r="H159">
-        <v>14467</v>
+        <v>33977</v>
       </c>
       <c r="I159" t="s">
-        <v>346</v>
-      </c>
-      <c r="K159" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="J159">
+        <v>80</v>
+      </c>
+      <c r="K159">
+        <v>0.349103117035875</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160">
-        <v>27194423</v>
+        <v>27068471</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C160">
-        <v>1061</v>
+        <v>312</v>
       </c>
       <c r="D160">
-        <v>1081</v>
+        <v>331</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F160">
-        <v>25.0320767397813</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G160">
-        <v>5.55527862724779</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H160">
-        <v>16367</v>
+        <v>1345</v>
       </c>
       <c r="I160" t="s">
-        <v>346</v>
-      </c>
-      <c r="K160" t="s">
-        <v>417</v>
+        <v>360</v>
+      </c>
+      <c r="K160">
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161">
-        <v>27194423</v>
+        <v>27068471</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C161">
-        <v>83</v>
+        <v>8513</v>
       </c>
       <c r="D161">
-        <v>103</v>
+        <v>8532</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="F161">
-        <v>74.8760330578512</v>
+        <v>59.2755978639424</v>
       </c>
       <c r="G161">
-        <v>2.71211745502357</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="H161">
-        <v>605</v>
+        <v>25842</v>
       </c>
       <c r="I161" t="s">
-        <v>344</v>
-      </c>
-      <c r="K161" t="s">
-        <v>422</v>
+        <v>363</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162">
-        <v>27278725</v>
+        <v>27068471</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C162">
-        <v>1188</v>
+        <v>2255</v>
       </c>
       <c r="D162">
-        <v>1207</v>
+        <v>2274</v>
       </c>
       <c r="E162" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F162">
-        <v>37.1367189831115</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G162">
-        <v>5.14132162298742</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H162">
-        <v>16757</v>
+        <v>14467</v>
       </c>
       <c r="I162" t="s">
-        <v>346</v>
-      </c>
-      <c r="K162" t="s">
-        <v>423</v>
+        <v>362</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163">
-        <v>27278725</v>
+        <v>27194423</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C163">
-        <v>1444</v>
+        <v>1061</v>
       </c>
       <c r="D163">
-        <v>1463</v>
+        <v>1081</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F163">
-        <v>58.3692786963815</v>
+        <v>25.0320767397813</v>
       </c>
       <c r="G163">
-        <v>3.16737485177446</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="H163">
-        <v>16692</v>
+        <v>16367</v>
       </c>
       <c r="I163" t="s">
-        <v>346</v>
-      </c>
-      <c r="J163">
-        <v>81</v>
-      </c>
-      <c r="K163" t="s">
-        <v>424</v>
+        <v>362</v>
+      </c>
+      <c r="K163">
+        <v>0.732547942960171</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164">
-        <v>27278725</v>
+        <v>27194423</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C164">
-        <v>1617</v>
+        <v>83</v>
       </c>
       <c r="D164">
-        <v>1636</v>
+        <v>103</v>
       </c>
       <c r="E164" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F164">
-        <v>20.9626955475331</v>
+        <v>74.8760330578512</v>
       </c>
       <c r="G164">
-        <v>4.63796524150865</v>
+        <v>2.71211745502357</v>
       </c>
       <c r="H164">
-        <v>16620</v>
+        <v>605</v>
       </c>
       <c r="I164" t="s">
-        <v>346</v>
-      </c>
-      <c r="J164">
-        <v>83</v>
-      </c>
-      <c r="K164" t="s">
-        <v>425</v>
+        <v>360</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7073,31 +6866,31 @@
         <v>27278725</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C165">
-        <v>4345</v>
+        <v>1188</v>
       </c>
       <c r="D165">
-        <v>4364</v>
+        <v>1207</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F165">
-        <v>73.3260835793071</v>
+        <v>37.1367189831115</v>
       </c>
       <c r="G165">
-        <v>4.07019479287684</v>
+        <v>5.14132162298742</v>
       </c>
       <c r="H165">
-        <v>6437</v>
+        <v>16757</v>
       </c>
       <c r="I165" t="s">
-        <v>346</v>
-      </c>
-      <c r="K165" t="s">
-        <v>426</v>
+        <v>362</v>
+      </c>
+      <c r="K165">
+        <v>0.786337270618013</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7105,34 +6898,34 @@
         <v>27278725</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C166">
-        <v>2861</v>
+        <v>1444</v>
       </c>
       <c r="D166">
-        <v>2880</v>
+        <v>1463</v>
       </c>
       <c r="E166" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F166">
-        <v>62.7219154219636</v>
+        <v>58.3692786963815</v>
       </c>
       <c r="G166">
-        <v>3.55607171721226</v>
+        <v>3.16737485177446</v>
       </c>
       <c r="H166">
-        <v>53962</v>
+        <v>16692</v>
       </c>
       <c r="I166" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J166">
-        <v>74</v>
-      </c>
-      <c r="K166" t="s">
-        <v>427</v>
+        <v>81</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7140,133 +6933,133 @@
         <v>27278725</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="C167">
-        <v>465</v>
+        <v>1617</v>
       </c>
       <c r="D167">
-        <v>484</v>
+        <v>1636</v>
       </c>
       <c r="E167" t="s">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="F167">
-        <v>68.2743029389601</v>
+        <v>20.9626955475331</v>
       </c>
       <c r="G167">
-        <v>2.61531160191328</v>
+        <v>4.63796524150865</v>
       </c>
       <c r="H167">
-        <v>1327</v>
+        <v>16620</v>
       </c>
       <c r="I167" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="J167">
-        <v>67</v>
-      </c>
-      <c r="K167" t="s">
-        <v>352</v>
+        <v>83</v>
+      </c>
+      <c r="K167">
+        <v>0.362922465208747</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168">
-        <v>27341108</v>
+        <v>27278725</v>
       </c>
       <c r="B168" t="s">
         <v>153</v>
       </c>
       <c r="C168">
-        <v>28</v>
+        <v>4345</v>
       </c>
       <c r="D168">
-        <v>47</v>
+        <v>4364</v>
       </c>
       <c r="E168" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="F168">
-        <v>63.4715025906736</v>
+        <v>73.3260835793071</v>
       </c>
       <c r="G168">
-        <v>3.74626818958162</v>
+        <v>4.07019479287684</v>
       </c>
       <c r="H168">
-        <v>386</v>
+        <v>6437</v>
       </c>
       <c r="I168" t="s">
-        <v>344</v>
-      </c>
-      <c r="J168">
-        <v>69</v>
-      </c>
-      <c r="K168" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169">
-        <v>27341108</v>
+        <v>27278725</v>
       </c>
       <c r="B169" t="s">
         <v>154</v>
       </c>
       <c r="C169">
-        <v>165</v>
+        <v>2861</v>
       </c>
       <c r="D169">
-        <v>184</v>
+        <v>2880</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F169">
-        <v>0.154918667699458</v>
+        <v>62.7219154219636</v>
       </c>
       <c r="G169">
-        <v>5.72676752736296</v>
+        <v>3.55607171721226</v>
       </c>
       <c r="H169">
-        <v>1291</v>
+        <v>53962</v>
       </c>
       <c r="I169" t="s">
-        <v>344</v>
-      </c>
-      <c r="K169" t="s">
-        <v>428</v>
+        <v>362</v>
+      </c>
+      <c r="J169">
+        <v>74</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170">
-        <v>27341108</v>
+        <v>27278725</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="C170">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="D170">
-        <v>260</v>
+        <v>484</v>
       </c>
       <c r="E170" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F170">
-        <v>19.2753623188406</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G170">
-        <v>6.17265819570612</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H170">
-        <v>1380</v>
+        <v>1327</v>
       </c>
       <c r="I170" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J170">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -7277,34 +7070,34 @@
         <v>27341108</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C171">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="D171">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="E171" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="F171">
-        <v>17.2338884866039</v>
+        <v>63.4715025906736</v>
       </c>
       <c r="G171">
-        <v>5.81171215849677</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="H171">
-        <v>1381</v>
+        <v>386</v>
       </c>
       <c r="I171" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J171">
         <v>69</v>
       </c>
-      <c r="K171" t="s">
-        <v>429</v>
+      <c r="K171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7312,34 +7105,31 @@
         <v>27341108</v>
       </c>
       <c r="B172" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C172">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="D172">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="E172" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F172">
-        <v>17.2338884866039</v>
+        <v>0.154918667699458</v>
       </c>
       <c r="G172">
-        <v>5.81171215849677</v>
+        <v>5.72676752736296</v>
       </c>
       <c r="H172">
-        <v>1381</v>
+        <v>1291</v>
       </c>
       <c r="I172" t="s">
-        <v>344</v>
-      </c>
-      <c r="J172">
-        <v>79</v>
-      </c>
-      <c r="K172" t="s">
-        <v>429</v>
+        <v>360</v>
+      </c>
+      <c r="K172">
+        <v>0.0269583333333334</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -7347,31 +7137,31 @@
         <v>27341108</v>
       </c>
       <c r="B173" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C173">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="D173">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="F173">
-        <v>57.3593073593074</v>
+        <v>19.2753623188406</v>
       </c>
       <c r="G173">
-        <v>4.16980328476335</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="H173">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="I173" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J173">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7382,31 +7172,34 @@
         <v>27341108</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C174">
+        <v>272</v>
+      </c>
+      <c r="D174">
+        <v>291</v>
+      </c>
+      <c r="E174" t="s">
         <v>329</v>
       </c>
-      <c r="D174">
-        <v>348</v>
-      </c>
-      <c r="E174" t="s">
-        <v>320</v>
-      </c>
       <c r="F174">
-        <v>16.2808065720687</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G174">
-        <v>5.45703316142337</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H174">
-        <v>1339</v>
+        <v>1381</v>
       </c>
       <c r="I174" t="s">
-        <v>344</v>
-      </c>
-      <c r="K174" t="s">
-        <v>430</v>
+        <v>360</v>
+      </c>
+      <c r="J174">
+        <v>69</v>
+      </c>
+      <c r="K174">
+        <v>0.399657534246575</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7414,31 +7207,34 @@
         <v>27341108</v>
       </c>
       <c r="B175" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C175">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="D175">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F175">
-        <v>88.4178652535958</v>
+        <v>17.2338884866039</v>
       </c>
       <c r="G175">
-        <v>2.04604471326368</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="H175">
-        <v>1321</v>
+        <v>1381</v>
       </c>
       <c r="I175" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J175">
+        <v>79</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>0.399657534246575</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -7446,31 +7242,34 @@
         <v>27341108</v>
       </c>
       <c r="B176" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C176">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D176">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="E176" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F176">
-        <v>30.8745247148289</v>
+        <v>57.3593073593074</v>
       </c>
       <c r="G176">
-        <v>4.32263379872346</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="H176">
-        <v>1315</v>
+        <v>1386</v>
       </c>
       <c r="I176" t="s">
-        <v>344</v>
-      </c>
-      <c r="K176" t="s">
-        <v>431</v>
+        <v>360</v>
+      </c>
+      <c r="J176">
+        <v>72</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7478,60 +7277,60 @@
         <v>27341108</v>
       </c>
       <c r="B177" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C177">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="D177">
-        <v>619</v>
+        <v>348</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>16.2808065720687</v>
       </c>
       <c r="G177">
-        <v>3.95185630427735</v>
+        <v>5.45703316142337</v>
       </c>
       <c r="H177">
-        <v>534</v>
+        <v>1339</v>
       </c>
       <c r="I177" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>0.196723300970874</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178">
-        <v>27404981</v>
+        <v>27341108</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C178">
-        <v>7782</v>
+        <v>354</v>
       </c>
       <c r="D178">
-        <v>7801</v>
+        <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F178">
-        <v>80.1132674410216</v>
+        <v>88.4178652535958</v>
       </c>
       <c r="G178">
-        <v>2.40128407782419</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="H178">
-        <v>27722</v>
+        <v>1321</v>
       </c>
       <c r="I178" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -7539,69 +7338,66 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179">
-        <v>27404981</v>
+        <v>27341108</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C179">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="D179">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="E179" t="s">
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="F179">
-        <v>68.2743029389601</v>
+        <v>30.8745247148289</v>
       </c>
       <c r="G179">
-        <v>2.61531160191328</v>
+        <v>4.32263379872346</v>
       </c>
       <c r="H179">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="I179" t="s">
-        <v>344</v>
-      </c>
-      <c r="J179">
-        <v>67</v>
-      </c>
-      <c r="K179" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="K179">
+        <v>0.386292270531401</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180">
-        <v>27404981</v>
+        <v>27341108</v>
       </c>
       <c r="B180" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C180">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="D180">
-        <v>493</v>
+        <v>619</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F180">
-        <v>72.2727272727273</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>2.38177147283091</v>
+        <v>3.95185630427735</v>
       </c>
       <c r="H180">
-        <v>1320</v>
+        <v>534</v>
       </c>
       <c r="I180" t="s">
-        <v>344</v>
-      </c>
-      <c r="K180" t="s">
-        <v>432</v>
+        <v>360</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7609,34 +7405,31 @@
         <v>27404981</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C181">
-        <v>485</v>
+        <v>7782</v>
       </c>
       <c r="D181">
-        <v>504</v>
+        <v>7801</v>
       </c>
       <c r="E181" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F181">
-        <v>45.9398496240602</v>
+        <v>80.1132674410216</v>
       </c>
       <c r="G181">
-        <v>2.90589524192873</v>
+        <v>2.40128407782419</v>
       </c>
       <c r="H181">
-        <v>1330</v>
+        <v>27722</v>
       </c>
       <c r="I181" t="s">
-        <v>344</v>
-      </c>
-      <c r="J181">
-        <v>78</v>
-      </c>
-      <c r="K181" t="s">
-        <v>433</v>
+        <v>361</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -7644,28 +7437,31 @@
         <v>27404981</v>
       </c>
       <c r="B182" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C182">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="D182">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="E182" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="F182">
-        <v>84.5577211394303</v>
+        <v>68.2743029389601</v>
       </c>
       <c r="G182">
-        <v>1.46977716700958</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="H182">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="I182" t="s">
-        <v>344</v>
+        <v>360</v>
+      </c>
+      <c r="J182">
+        <v>67</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -7676,130 +7472,130 @@
         <v>27404981</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C183">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D183">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F183">
-        <v>76.0608486789431</v>
+        <v>72.2727272727273</v>
       </c>
       <c r="G183">
-        <v>3.58521769673978</v>
+        <v>2.38177147283091</v>
       </c>
       <c r="H183">
-        <v>1249</v>
+        <v>1320</v>
       </c>
       <c r="I183" t="s">
-        <v>344</v>
-      </c>
-      <c r="J183">
-        <v>65</v>
-      </c>
-      <c r="K183" t="s">
-        <v>434</v>
+        <v>360</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184">
-        <v>27528385</v>
+        <v>27404981</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C184">
-        <v>108</v>
+        <v>485</v>
       </c>
       <c r="D184">
-        <v>127</v>
+        <v>504</v>
       </c>
       <c r="E184" t="s">
-        <v>265</v>
+        <v>337</v>
       </c>
       <c r="F184">
-        <v>54.9313358302122</v>
+        <v>45.9398496240602</v>
       </c>
       <c r="G184">
-        <v>5.27346382403279</v>
+        <v>2.90589524192873</v>
       </c>
       <c r="H184">
-        <v>801</v>
+        <v>1330</v>
       </c>
       <c r="I184" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="J184">
-        <v>65</v>
-      </c>
-      <c r="K184" t="s">
-        <v>395</v>
+        <v>78</v>
+      </c>
+      <c r="K184">
+        <v>0.399043715846995</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="A185">
-        <v>27528385</v>
+        <v>27404981</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C185">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="D185">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F185">
-        <v>21.4126394052045</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G185">
-        <v>4.60505589831112</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H185">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="I185" t="s">
-        <v>344</v>
-      </c>
-      <c r="K185" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:11">
       <c r="A186">
-        <v>27974196</v>
+        <v>27404981</v>
       </c>
       <c r="B186" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C186">
-        <v>7794</v>
+        <v>434</v>
       </c>
       <c r="D186">
-        <v>7813</v>
+        <v>453</v>
       </c>
       <c r="E186" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="F186">
-        <v>90.8331223094454</v>
+        <v>76.0608486789431</v>
       </c>
       <c r="G186">
-        <v>1.57065421239004</v>
+        <v>3.58521769673978</v>
       </c>
       <c r="H186">
-        <v>27643</v>
+        <v>1249</v>
       </c>
       <c r="I186" t="s">
-        <v>345</v>
+        <v>360</v>
+      </c>
+      <c r="J186">
+        <v>65</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -7807,165 +7603,165 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187">
-        <v>27974196</v>
+        <v>27528385</v>
       </c>
       <c r="B187" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C187">
-        <v>1389</v>
+        <v>108</v>
       </c>
       <c r="D187">
-        <v>1408</v>
+        <v>127</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F187">
-        <v>81.6615556175077</v>
+        <v>54.9313358302122</v>
       </c>
       <c r="G187">
-        <v>2.55131653128207</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="H187">
-        <v>17935</v>
+        <v>801</v>
       </c>
       <c r="I187" t="s">
-        <v>346</v>
-      </c>
-      <c r="K187" t="s">
-        <v>403</v>
+        <v>360</v>
+      </c>
+      <c r="J187">
+        <v>65</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188">
-        <v>27974196</v>
+        <v>27528385</v>
       </c>
       <c r="B188" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C188">
-        <v>1483</v>
+        <v>312</v>
       </c>
       <c r="D188">
-        <v>1502</v>
+        <v>331</v>
       </c>
       <c r="E188" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F188">
-        <v>84.8453978906999</v>
+        <v>21.4126394052045</v>
       </c>
       <c r="G188">
-        <v>1.36685241548561</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="H188">
-        <v>16688</v>
+        <v>1345</v>
       </c>
       <c r="I188" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>0.364520958083832</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189">
-        <v>27974196</v>
+        <v>27698388</v>
       </c>
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189">
-        <v>1827</v>
+        <v>344</v>
       </c>
       <c r="D189">
-        <v>1846</v>
+        <v>363</v>
       </c>
       <c r="E189" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F189">
-        <v>71.2031047865459</v>
+        <v>83.8926174496644</v>
       </c>
       <c r="G189">
-        <v>2.22013327339172</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="H189">
-        <v>7730</v>
+        <v>1341</v>
       </c>
       <c r="I189" t="s">
-        <v>346</v>
-      </c>
-      <c r="K189" t="s">
-        <v>435</v>
+        <v>360</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190">
-        <v>27974196</v>
+        <v>27698388</v>
       </c>
       <c r="B190" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C190">
-        <v>2255</v>
+        <v>385</v>
       </c>
       <c r="D190">
-        <v>2274</v>
+        <v>404</v>
       </c>
       <c r="E190" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="F190">
-        <v>54.1853874334693</v>
+        <v>8.14977973568282</v>
       </c>
       <c r="G190">
-        <v>1.75088485980889</v>
+        <v>3.36602750991665</v>
       </c>
       <c r="H190">
-        <v>14467</v>
+        <v>1362</v>
       </c>
       <c r="I190" t="s">
-        <v>346</v>
-      </c>
-      <c r="K190" t="s">
-        <v>367</v>
+        <v>360</v>
+      </c>
+      <c r="K190">
+        <v>0.122687439143135</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191">
-        <v>27974196</v>
+        <v>27698388</v>
       </c>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C191">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="D191">
-        <v>98</v>
+        <v>399</v>
       </c>
       <c r="E191" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F191">
-        <v>71.4285714285714</v>
+        <v>6.29163582531458</v>
       </c>
       <c r="G191">
-        <v>2.91432539124929</v>
+        <v>4.20476858833885</v>
       </c>
       <c r="H191">
-        <v>532</v>
+        <v>1351</v>
       </c>
       <c r="I191" t="s">
-        <v>344</v>
-      </c>
-      <c r="J191">
-        <v>76</v>
-      </c>
-      <c r="K191" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="K191">
+        <v>0.316930751173709</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7973,28 +7769,28 @@
         <v>27974196</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C192">
-        <v>415</v>
+        <v>7794</v>
       </c>
       <c r="D192">
-        <v>434</v>
+        <v>7813</v>
       </c>
       <c r="E192" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F192">
-        <v>84.5577211394303</v>
+        <v>90.8331223094454</v>
       </c>
       <c r="G192">
-        <v>1.46977716700958</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="H192">
-        <v>1334</v>
+        <v>27643</v>
       </c>
       <c r="I192" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -8005,31 +7801,31 @@
         <v>27974196</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C193">
-        <v>379</v>
+        <v>1389</v>
       </c>
       <c r="D193">
-        <v>398</v>
+        <v>1408</v>
       </c>
       <c r="E193" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F193">
-        <v>67.9021497405486</v>
+        <v>81.6615556175077</v>
       </c>
       <c r="G193">
-        <v>4.18899116697892</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="H193">
-        <v>1349</v>
+        <v>17935</v>
       </c>
       <c r="I193" t="s">
-        <v>344</v>
-      </c>
-      <c r="K193" t="s">
-        <v>396</v>
+        <v>362</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8037,31 +7833,31 @@
         <v>27974196</v>
       </c>
       <c r="B194" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="C194">
-        <v>4149</v>
+        <v>1483</v>
       </c>
       <c r="D194">
-        <v>4168</v>
+        <v>1502</v>
       </c>
       <c r="E194" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="F194">
-        <v>72.4938271604938</v>
+        <v>84.8453978906999</v>
       </c>
       <c r="G194">
-        <v>2.75139254135397</v>
+        <v>1.36685241548561</v>
       </c>
       <c r="H194">
-        <v>4050</v>
+        <v>16688</v>
       </c>
       <c r="I194" t="s">
-        <v>346</v>
-      </c>
-      <c r="K194" t="s">
-        <v>411</v>
+        <v>362</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8069,28 +7865,28 @@
         <v>27974196</v>
       </c>
       <c r="B195" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C195">
-        <v>5970</v>
+        <v>1827</v>
       </c>
       <c r="D195">
-        <v>5989</v>
+        <v>1846</v>
       </c>
       <c r="E195" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="F195">
-        <v>85.3286816011752</v>
+        <v>71.2031047865459</v>
       </c>
       <c r="G195">
-        <v>1.89245037761505</v>
+        <v>2.22013327339172</v>
       </c>
       <c r="H195">
-        <v>5446</v>
+        <v>7730</v>
       </c>
       <c r="I195" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -8098,127 +7894,130 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B196" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C196">
-        <v>4256</v>
+        <v>2255</v>
       </c>
       <c r="D196">
-        <v>4275</v>
+        <v>2274</v>
       </c>
       <c r="E196" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="F196">
-        <v>5.69450998898852</v>
+        <v>54.1853874334693</v>
       </c>
       <c r="G196">
-        <v>5.10637089313025</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="H196">
-        <v>6357</v>
+        <v>14467</v>
       </c>
       <c r="I196" t="s">
-        <v>346</v>
-      </c>
-      <c r="K196" t="s">
-        <v>436</v>
+        <v>362</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B197" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C197">
-        <v>4383</v>
+        <v>79</v>
       </c>
       <c r="D197">
-        <v>4402</v>
+        <v>98</v>
       </c>
       <c r="E197" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="F197">
-        <v>72.9842446709917</v>
+        <v>71.4285714285714</v>
       </c>
       <c r="G197">
-        <v>2.35872624395286</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="H197">
-        <v>6474</v>
+        <v>532</v>
       </c>
       <c r="I197" t="s">
-        <v>346</v>
-      </c>
-      <c r="K197" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="J197">
+        <v>76</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B198" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C198">
-        <v>4500</v>
+        <v>415</v>
       </c>
       <c r="D198">
-        <v>4519</v>
+        <v>434</v>
       </c>
       <c r="E198" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="F198">
-        <v>14.4905195005395</v>
+        <v>84.5577211394303</v>
       </c>
       <c r="G198">
-        <v>3.73162674282425</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="H198">
-        <v>6487</v>
+        <v>1334</v>
       </c>
       <c r="I198" t="s">
-        <v>346</v>
-      </c>
-      <c r="K198" t="s">
-        <v>437</v>
+        <v>360</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B199" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C199">
-        <v>4597</v>
+        <v>379</v>
       </c>
       <c r="D199">
-        <v>4616</v>
+        <v>398</v>
       </c>
       <c r="E199" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="F199">
-        <v>3.58637178720861</v>
+        <v>67.9021497405486</v>
       </c>
       <c r="G199">
-        <v>6.45036784812112</v>
+        <v>4.18899116697892</v>
       </c>
       <c r="H199">
-        <v>6692</v>
+        <v>1349</v>
       </c>
       <c r="I199" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -8226,31 +8025,31 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B200" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C200">
-        <v>4553</v>
+        <v>4149</v>
       </c>
       <c r="D200">
-        <v>4572</v>
+        <v>4168</v>
       </c>
       <c r="E200" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F200">
-        <v>0.169622205088666</v>
+        <v>72.4938271604938</v>
       </c>
       <c r="G200">
-        <v>3.51284873138832</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="H200">
-        <v>6485</v>
+        <v>4050</v>
       </c>
       <c r="I200" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -8258,34 +8057,34 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201">
-        <v>28176813</v>
+        <v>27974196</v>
       </c>
       <c r="B201" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C201">
-        <v>389</v>
+        <v>5970</v>
       </c>
       <c r="D201">
-        <v>408</v>
+        <v>5989</v>
       </c>
       <c r="E201" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F201">
-        <v>70.5794947994057</v>
+        <v>85.3286816011752</v>
       </c>
       <c r="G201">
-        <v>2.90839169635122</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="H201">
-        <v>1346</v>
+        <v>5446</v>
       </c>
       <c r="I201" t="s">
-        <v>344</v>
-      </c>
-      <c r="K201" t="s">
-        <v>438</v>
+        <v>366</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -8293,31 +8092,31 @@
         <v>28176813</v>
       </c>
       <c r="B202" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C202">
-        <v>463</v>
+        <v>4256</v>
       </c>
       <c r="D202">
-        <v>482</v>
+        <v>4275</v>
       </c>
       <c r="E202" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>5.69450998898852</v>
       </c>
       <c r="G202">
-        <v>3.02804295570901</v>
+        <v>5.10637089313025</v>
       </c>
       <c r="H202">
-        <v>1322</v>
+        <v>6357</v>
       </c>
       <c r="I202" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>0.352517064846416</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -8325,31 +8124,28 @@
         <v>28176813</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C203">
-        <v>815</v>
+        <v>4383</v>
       </c>
       <c r="D203">
-        <v>834</v>
+        <v>4402</v>
       </c>
       <c r="E203" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="F203">
-        <v>1.58102766798419</v>
+        <v>72.9842446709917</v>
       </c>
       <c r="G203">
-        <v>4.75599372639256</v>
+        <v>2.35872624395286</v>
       </c>
       <c r="H203">
-        <v>6325</v>
+        <v>6474</v>
       </c>
       <c r="I203" t="s">
-        <v>346</v>
-      </c>
-      <c r="J203">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -8360,31 +8156,31 @@
         <v>28176813</v>
       </c>
       <c r="B204" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C204">
-        <v>2374</v>
+        <v>4500</v>
       </c>
       <c r="D204">
-        <v>2393</v>
+        <v>4519</v>
       </c>
       <c r="E204" t="s">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="F204">
-        <v>73.3619214351752</v>
+        <v>14.4905195005395</v>
       </c>
       <c r="G204">
-        <v>3.31899309585453</v>
+        <v>3.73162674282425</v>
       </c>
       <c r="H204">
-        <v>50837</v>
+        <v>6487</v>
       </c>
       <c r="I204" t="s">
-        <v>346</v>
-      </c>
-      <c r="K204" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="K204">
+        <v>0.26425361469324</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -8392,34 +8188,31 @@
         <v>28176813</v>
       </c>
       <c r="B205" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C205">
-        <v>2463</v>
+        <v>4597</v>
       </c>
       <c r="D205">
-        <v>2482</v>
+        <v>4616</v>
       </c>
       <c r="E205" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F205">
-        <v>60.0215961519584</v>
+        <v>3.58637178720861</v>
       </c>
       <c r="G205">
-        <v>4.32617782343845</v>
+        <v>6.45036784812112</v>
       </c>
       <c r="H205">
-        <v>50935</v>
+        <v>6692</v>
       </c>
       <c r="I205" t="s">
-        <v>346</v>
-      </c>
-      <c r="J205">
-        <v>78</v>
-      </c>
-      <c r="K205" t="s">
-        <v>439</v>
+        <v>362</v>
+      </c>
+      <c r="K205">
+        <v>0.0269105691056911</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -8427,31 +8220,28 @@
         <v>28176813</v>
       </c>
       <c r="B206" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C206">
-        <v>2310</v>
+        <v>4553</v>
       </c>
       <c r="D206">
-        <v>2329</v>
+        <v>4572</v>
       </c>
       <c r="E206" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F206">
-        <v>0.0340483486550902</v>
+        <v>0.169622205088666</v>
       </c>
       <c r="G206">
-        <v>4.33482735941699</v>
+        <v>3.51284873138832</v>
       </c>
       <c r="H206">
-        <v>49929</v>
+        <v>6485</v>
       </c>
       <c r="I206" t="s">
-        <v>346</v>
-      </c>
-      <c r="J206">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -8462,28 +8252,28 @@
         <v>28176813</v>
       </c>
       <c r="B207" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C207">
-        <v>2303</v>
+        <v>389</v>
       </c>
       <c r="D207">
-        <v>2322</v>
+        <v>408</v>
       </c>
       <c r="E207" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F207">
-        <v>1.50388033294463</v>
+        <v>70.5794947994057</v>
       </c>
       <c r="G207">
-        <v>5.32333303993189</v>
+        <v>2.90839169635122</v>
       </c>
       <c r="H207">
-        <v>49738</v>
+        <v>1346</v>
       </c>
       <c r="I207" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -8494,28 +8284,28 @@
         <v>28176813</v>
       </c>
       <c r="B208" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C208">
-        <v>2312</v>
+        <v>463</v>
       </c>
       <c r="D208">
-        <v>2331</v>
+        <v>482</v>
       </c>
       <c r="E208" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F208">
-        <v>2.12591332198979</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>2.83813039446907</v>
+        <v>3.02804295570901</v>
       </c>
       <c r="H208">
-        <v>49955</v>
+        <v>1322</v>
       </c>
       <c r="I208" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -8526,34 +8316,34 @@
         <v>28176813</v>
       </c>
       <c r="B209" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C209">
-        <v>2662</v>
+        <v>815</v>
       </c>
       <c r="D209">
-        <v>2681</v>
+        <v>834</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="F209">
-        <v>37.6439855191706</v>
+        <v>1.58102766798419</v>
       </c>
       <c r="G209">
-        <v>4.55593086049363</v>
+        <v>4.75599372639256</v>
       </c>
       <c r="H209">
-        <v>48616</v>
+        <v>6325</v>
       </c>
       <c r="I209" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J209">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>0.075267857142857</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -8561,28 +8351,28 @@
         <v>28176813</v>
       </c>
       <c r="B210" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C210">
-        <v>2706</v>
+        <v>2374</v>
       </c>
       <c r="D210">
-        <v>2725</v>
+        <v>2393</v>
       </c>
       <c r="E210" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="F210">
-        <v>75.259476534296</v>
+        <v>73.3619214351752</v>
       </c>
       <c r="G210">
-        <v>2.21640277623157</v>
+        <v>3.31899309585453</v>
       </c>
       <c r="H210">
-        <v>53184</v>
+        <v>50837</v>
       </c>
       <c r="I210" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -8593,34 +8383,34 @@
         <v>28176813</v>
       </c>
       <c r="B211" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C211">
-        <v>2805</v>
+        <v>2463</v>
       </c>
       <c r="D211">
-        <v>2824</v>
+        <v>2482</v>
       </c>
       <c r="E211" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="F211">
-        <v>62.5261753423642</v>
+        <v>60.0215961519584</v>
       </c>
       <c r="G211">
-        <v>3.47312087356067</v>
+        <v>4.32617782343845</v>
       </c>
       <c r="H211">
-        <v>53963</v>
+        <v>50935</v>
       </c>
       <c r="I211" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="J211">
-        <v>68</v>
-      </c>
-      <c r="K211" t="s">
-        <v>368</v>
+        <v>78</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -8628,31 +8418,625 @@
         <v>28176813</v>
       </c>
       <c r="B212" t="s">
+        <v>184</v>
+      </c>
+      <c r="C212">
+        <v>2310</v>
+      </c>
+      <c r="D212">
+        <v>2329</v>
+      </c>
+      <c r="E212" t="s">
+        <v>352</v>
+      </c>
+      <c r="F212">
+        <v>0.0340483486550902</v>
+      </c>
+      <c r="G212">
+        <v>4.33482735941699</v>
+      </c>
+      <c r="H212">
+        <v>49929</v>
+      </c>
+      <c r="I212" t="s">
+        <v>362</v>
+      </c>
+      <c r="J212">
+        <v>77</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>28176813</v>
+      </c>
+      <c r="B213" t="s">
+        <v>185</v>
+      </c>
+      <c r="C213">
+        <v>2303</v>
+      </c>
+      <c r="D213">
+        <v>2322</v>
+      </c>
+      <c r="E213" t="s">
+        <v>353</v>
+      </c>
+      <c r="F213">
+        <v>1.50388033294463</v>
+      </c>
+      <c r="G213">
+        <v>5.32333303993189</v>
+      </c>
+      <c r="H213">
+        <v>49738</v>
+      </c>
+      <c r="I213" t="s">
+        <v>362</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>28176813</v>
+      </c>
+      <c r="B214" t="s">
         <v>186</v>
       </c>
-      <c r="C212">
+      <c r="C214">
+        <v>2312</v>
+      </c>
+      <c r="D214">
+        <v>2331</v>
+      </c>
+      <c r="E214" t="s">
+        <v>354</v>
+      </c>
+      <c r="F214">
+        <v>2.12591332198979</v>
+      </c>
+      <c r="G214">
+        <v>2.83813039446907</v>
+      </c>
+      <c r="H214">
+        <v>49955</v>
+      </c>
+      <c r="I214" t="s">
+        <v>362</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>28176813</v>
+      </c>
+      <c r="B215" t="s">
+        <v>187</v>
+      </c>
+      <c r="C215">
+        <v>2662</v>
+      </c>
+      <c r="D215">
+        <v>2681</v>
+      </c>
+      <c r="E215" t="s">
+        <v>355</v>
+      </c>
+      <c r="F215">
+        <v>37.6439855191706</v>
+      </c>
+      <c r="G215">
+        <v>4.55593086049363</v>
+      </c>
+      <c r="H215">
+        <v>48616</v>
+      </c>
+      <c r="I215" t="s">
+        <v>362</v>
+      </c>
+      <c r="J215">
+        <v>23</v>
+      </c>
+      <c r="K215">
+        <v>0.106631499623211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>28176813</v>
+      </c>
+      <c r="B216" t="s">
+        <v>188</v>
+      </c>
+      <c r="C216">
+        <v>2706</v>
+      </c>
+      <c r="D216">
+        <v>2725</v>
+      </c>
+      <c r="E216" t="s">
+        <v>356</v>
+      </c>
+      <c r="F216">
+        <v>75.259476534296</v>
+      </c>
+      <c r="G216">
+        <v>2.21640277623157</v>
+      </c>
+      <c r="H216">
+        <v>53184</v>
+      </c>
+      <c r="I216" t="s">
+        <v>362</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>28176813</v>
+      </c>
+      <c r="B217" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217">
+        <v>2805</v>
+      </c>
+      <c r="D217">
+        <v>2824</v>
+      </c>
+      <c r="E217" t="s">
+        <v>229</v>
+      </c>
+      <c r="F217">
+        <v>62.5261753423642</v>
+      </c>
+      <c r="G217">
+        <v>3.47312087356067</v>
+      </c>
+      <c r="H217">
+        <v>53963</v>
+      </c>
+      <c r="I217" t="s">
+        <v>362</v>
+      </c>
+      <c r="J217">
+        <v>68</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>28176813</v>
+      </c>
+      <c r="B218" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218">
         <v>3061</v>
       </c>
-      <c r="D212">
+      <c r="D218">
         <v>3080</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E218" t="s">
+        <v>357</v>
+      </c>
+      <c r="F218">
+        <v>2.1894041102964</v>
+      </c>
+      <c r="G218">
+        <v>5.28914209260986</v>
+      </c>
+      <c r="H218">
+        <v>9683</v>
+      </c>
+      <c r="I218" t="s">
+        <v>362</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219">
+        <v>28366764</v>
+      </c>
+      <c r="B219" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219">
+        <v>2103</v>
+      </c>
+      <c r="D219">
+        <v>2124</v>
+      </c>
+      <c r="E219" t="s">
+        <v>310</v>
+      </c>
+      <c r="F219">
+        <v>26.0137538534503</v>
+      </c>
+      <c r="G219">
+        <v>4.63821755315855</v>
+      </c>
+      <c r="H219">
+        <v>8434</v>
+      </c>
+      <c r="I219" t="s">
+        <v>368</v>
+      </c>
+      <c r="K219">
+        <v>0.404043280182232</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220">
+        <v>28366764</v>
+      </c>
+      <c r="B220" t="s">
+        <v>192</v>
+      </c>
+      <c r="C220">
+        <v>796</v>
+      </c>
+      <c r="D220">
+        <v>817</v>
+      </c>
+      <c r="E220" t="s">
+        <v>311</v>
+      </c>
+      <c r="F220">
+        <v>67.0113244707041</v>
+      </c>
+      <c r="G220">
+        <v>2.90268267669181</v>
+      </c>
+      <c r="H220">
+        <v>2031</v>
+      </c>
+      <c r="I220" t="s">
+        <v>368</v>
+      </c>
+      <c r="K220">
+        <v>0.880931065353626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221">
+        <v>28366764</v>
+      </c>
+      <c r="B221" t="s">
+        <v>193</v>
+      </c>
+      <c r="C221">
+        <v>1061</v>
+      </c>
+      <c r="D221">
+        <v>1081</v>
+      </c>
+      <c r="E221" t="s">
+        <v>312</v>
+      </c>
+      <c r="F221">
+        <v>25.0320767397813</v>
+      </c>
+      <c r="G221">
+        <v>5.55527862724779</v>
+      </c>
+      <c r="H221">
+        <v>16367</v>
+      </c>
+      <c r="I221" t="s">
+        <v>368</v>
+      </c>
+      <c r="K221">
+        <v>0.732547942960171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222">
+        <v>28366764</v>
+      </c>
+      <c r="B222" t="s">
+        <v>90</v>
+      </c>
+      <c r="C222">
+        <v>83</v>
+      </c>
+      <c r="D222">
+        <v>103</v>
+      </c>
+      <c r="E222" t="s">
+        <v>322</v>
+      </c>
+      <c r="F222">
+        <v>74.8760330578512</v>
+      </c>
+      <c r="G222">
+        <v>2.71211745502357</v>
+      </c>
+      <c r="H222">
+        <v>605</v>
+      </c>
+      <c r="I222" t="s">
+        <v>360</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>28366764</v>
+      </c>
+      <c r="B223" t="s">
+        <v>91</v>
+      </c>
+      <c r="C223">
+        <v>203</v>
+      </c>
+      <c r="D223">
+        <v>223</v>
+      </c>
+      <c r="E223" t="s">
+        <v>358</v>
+      </c>
+      <c r="F223">
+        <v>20.8944281524927</v>
+      </c>
+      <c r="G223">
+        <v>4.8697879664293</v>
+      </c>
+      <c r="H223">
+        <v>1364</v>
+      </c>
+      <c r="I223" t="s">
+        <v>360</v>
+      </c>
+      <c r="K223">
+        <v>0.368535469107552</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>28366764</v>
+      </c>
+      <c r="B224" t="s">
+        <v>92</v>
+      </c>
+      <c r="C224">
+        <v>380</v>
+      </c>
+      <c r="D224">
+        <v>399</v>
+      </c>
+      <c r="E224" t="s">
+        <v>220</v>
+      </c>
+      <c r="F224">
+        <v>59.659511472983</v>
+      </c>
+      <c r="G224">
+        <v>4.20622313379339</v>
+      </c>
+      <c r="H224">
+        <v>1351</v>
+      </c>
+      <c r="I224" t="s">
+        <v>360</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225">
+        <v>28366764</v>
+      </c>
+      <c r="B225" t="s">
+        <v>194</v>
+      </c>
+      <c r="C225">
+        <v>4149</v>
+      </c>
+      <c r="D225">
+        <v>4168</v>
+      </c>
+      <c r="E225" t="s">
+        <v>303</v>
+      </c>
+      <c r="F225">
+        <v>72.4938271604938</v>
+      </c>
+      <c r="G225">
+        <v>2.75139254135397</v>
+      </c>
+      <c r="H225">
+        <v>4050</v>
+      </c>
+      <c r="I225" t="s">
+        <v>369</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226">
+        <v>28670581</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>465</v>
+      </c>
+      <c r="D226">
+        <v>484</v>
+      </c>
+      <c r="E226" t="s">
+        <v>197</v>
+      </c>
+      <c r="F226">
+        <v>68.2743029389601</v>
+      </c>
+      <c r="G226">
+        <v>2.61531160191328</v>
+      </c>
+      <c r="H226">
+        <v>1327</v>
+      </c>
+      <c r="I226" t="s">
+        <v>360</v>
+      </c>
+      <c r="J226">
+        <v>67</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227">
+        <v>28670581</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227">
         <v>343</v>
       </c>
-      <c r="F212">
-        <v>2.1894041102964</v>
-      </c>
-      <c r="G212">
-        <v>5.28914209260986</v>
-      </c>
-      <c r="H212">
-        <v>9683</v>
-      </c>
-      <c r="I212" t="s">
-        <v>346</v>
-      </c>
-      <c r="K212">
-        <v>0</v>
+      <c r="D227">
+        <v>362</v>
+      </c>
+      <c r="E227" t="s">
+        <v>198</v>
+      </c>
+      <c r="F227">
+        <v>84.3062926459439</v>
+      </c>
+      <c r="G227">
+        <v>2.9598765879773</v>
+      </c>
+      <c r="H227">
+        <v>1319</v>
+      </c>
+      <c r="I227" t="s">
+        <v>360</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228">
+        <v>28729655</v>
+      </c>
+      <c r="B228" t="s">
+        <v>195</v>
+      </c>
+      <c r="C228">
+        <v>272</v>
+      </c>
+      <c r="D228">
+        <v>291</v>
+      </c>
+      <c r="E228" t="s">
+        <v>297</v>
+      </c>
+      <c r="F228">
+        <v>28.9645184648805</v>
+      </c>
+      <c r="G228">
+        <v>5.81232753140697</v>
+      </c>
+      <c r="H228">
+        <v>1381</v>
+      </c>
+      <c r="I228" t="s">
+        <v>360</v>
+      </c>
+      <c r="J228">
+        <v>69</v>
+      </c>
+      <c r="K228">
+        <v>0.386304347826087</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229">
+        <v>28729655</v>
+      </c>
+      <c r="B229" t="s">
+        <v>195</v>
+      </c>
+      <c r="C229">
+        <v>272</v>
+      </c>
+      <c r="D229">
+        <v>291</v>
+      </c>
+      <c r="E229" t="s">
+        <v>297</v>
+      </c>
+      <c r="F229">
+        <v>28.9645184648805</v>
+      </c>
+      <c r="G229">
+        <v>5.81232753140697</v>
+      </c>
+      <c r="H229">
+        <v>1381</v>
+      </c>
+      <c r="I229" t="s">
+        <v>360</v>
+      </c>
+      <c r="J229">
+        <v>79</v>
+      </c>
+      <c r="K229">
+        <v>0.386304347826087</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230">
+        <v>28729655</v>
+      </c>
+      <c r="B230" t="s">
+        <v>196</v>
+      </c>
+      <c r="C230">
+        <v>8379</v>
+      </c>
+      <c r="D230">
+        <v>8398</v>
+      </c>
+      <c r="E230" t="s">
+        <v>359</v>
+      </c>
+      <c r="F230">
+        <v>8.5633515253838</v>
+      </c>
+      <c r="G230">
+        <v>7.25452637127962</v>
+      </c>
+      <c r="H230">
+        <v>25469</v>
+      </c>
+      <c r="I230" t="s">
+        <v>370</v>
+      </c>
+      <c r="K230">
+        <v>0.117396313364055</v>
       </c>
     </row>
   </sheetData>
